--- a/Models/FLUT.xlsx
+++ b/Models/FLUT.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1571" documentId="8_{69748F80-F00F-7B4A-9A9F-ABAC2C9D56BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C966A1B-C99D-8F47-BDCE-FC4CC77D693B}"/>
+  <xr:revisionPtr revIDLastSave="1956" documentId="8_{69748F80-F00F-7B4A-9A9F-ABAC2C9D56BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D5F36B-E485-426B-B5BB-F8F51C607FD8}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="860" windowWidth="33040" windowHeight="21380" activeTab="1" xr2:uid="{EF113539-BCB3-2A46-AFED-BF7C34A91979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EF113539-BCB3-2A46-AFED-BF7C34A91979}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="MM" sheetId="6" r:id="rId3"/>
+    <sheet name="WACC" sheetId="7" r:id="rId4"/>
+    <sheet name="FCF" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
   <si>
     <t>NYSE:</t>
   </si>
@@ -331,9 +333,6 @@
     <t>Income Before Taxes</t>
   </si>
   <si>
-    <t>Tax Benefit</t>
-  </si>
-  <si>
     <t>Net Income</t>
   </si>
   <si>
@@ -428,13 +427,109 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Income Benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WACC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk free rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market return </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Debt </t>
+  </si>
+  <si>
+    <t>Total Debt = Short-Term Debt + Long-Term Debt</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Expense </t>
+  </si>
+  <si>
+    <t>Cost of Debt = (Total Interest Expense / Total Debt) x (1 - Tax Rate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Tax Rate = Income Tax Expense / Earnings Before Taxes </t>
+  </si>
+  <si>
+    <t>Pre-tax Cost of Debt = Interest Expense / Total Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WACC = (E/V * Re) + (D/V * Rd * (1-Tc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V = E + D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re = Cost of Equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rd = Cost of Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tc = Tax Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D = total value of a debt = Total Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E = total value of company's equity = market cap </t>
+  </si>
+  <si>
+    <t>Tax Rate (avarage)</t>
+  </si>
+  <si>
+    <t>Free cash flow (FCF) = Net cash from operating activities – Capital expenditures</t>
+  </si>
+  <si>
+    <t>Capital expenditures = Purchases of property and equipment + Purchases of intangible assets + Capitalized software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free cash flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net cash </t>
+  </si>
+  <si>
+    <t>Property and Euipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitalized Software </t>
+  </si>
+  <si>
+    <t>Intengible Assets</t>
+  </si>
+  <si>
+    <t>Free Cash Flow</t>
+  </si>
+  <si>
+    <t>Free Cash Flow y/y</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +564,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -500,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -519,35 +645,47 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,8 +719,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -601,7 +739,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -643,7 +781,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9408</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>94074</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -706,8 +844,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -726,7 +864,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -813,10 +951,6 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
 </inkml:ink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,19 +1272,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3C190A-0FD9-C04D-A8EC-8AD7467CFB75}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,15 +1301,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
@@ -1184,7 +1318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,18 +1326,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>264.61</v>
+        <v>243</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1211,13 +1345,13 @@
         <v>176</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1226,11 +1360,11 @@
       </c>
       <c r="I7" s="4">
         <f>I5*I6</f>
-        <v>46571.360000000001</v>
+        <v>42768</v>
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,40 +1372,39 @@
         <v>5</v>
       </c>
       <c r="I8" s="3">
-        <f>4241</f>
-        <v>4241</v>
+        <v>1691</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="3">
-        <f>121+446+68+6756</f>
-        <v>7391</v>
+        <f>122+486+70+9882</f>
+        <v>10560</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="3">
         <f>I7-I8+I9</f>
-        <v>49721.36</v>
+        <v>51637</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0.56000000000000005</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1281,37 +1414,37 @@
         <v>66</v>
       </c>
       <c r="I11" s="3">
-        <f>I10/Sheet5!H15</f>
-        <v>148.42197014925372</v>
+        <f>I10/MM!H15</f>
+        <v>154.14029850746269</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>0.4</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1325,7 +1458,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1470,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1348,26 +1481,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>0.04</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1377,7 +1510,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1385,126 +1518,126 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <f>5729</f>
         <v>5729</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f>C30/C36</f>
         <v>0.40781605922551251</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <f>3279</f>
         <v>3279</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f>C31/C36</f>
         <v>0.2334140091116173</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <f>304</f>
         <v>304</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <f>C32/C36</f>
         <v>2.164009111617312E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <f>1397</f>
         <v>1397</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <f>C33/C36</f>
         <v>9.9444760820045552E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>1484</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <f>C34/C36</f>
         <v>0.10563781321184511</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <f>1855</f>
         <v>1855</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <f>C35/C36</f>
         <v>0.13204726651480639</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <f>SUM(C30:C35)</f>
         <v>14048</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <f>SUM(D30:D35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>47</v>
@@ -1525,196 +1658,196 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>18000</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
         <v>6817</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <v>7383</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="10">
         <v>8365</v>
       </c>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>1000</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
         <v>4583</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="10">
         <v>5718</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="10">
         <v>6697</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="11">
         <v>2000</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="10">
         <v>1275</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="10">
         <v>1413</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="10">
         <v>1366</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>3400</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <v>10245</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="12">
         <v>12325</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="12">
         <v>13898</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="13">
+        <v>112</v>
+      </c>
+      <c r="E45" s="11">
         <v>30000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>43000</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>54</v>
@@ -1723,20 +1856,20 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <f>SUM(E40:E50)</f>
         <v>100720</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="15">
         <v>13898</v>
       </c>
     </row>
@@ -1748,1243 +1881,3215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F43DB-B62D-354D-9F35-039D9DC79DC7}">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:ACB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="25" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="25" customWidth="1"/>
+    <col min="5" max="7" width="10.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="25" customWidth="1"/>
+    <col min="12" max="12" width="11" style="25" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.875" style="25" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="25" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="24">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:36" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27">
         <v>2018</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="27">
         <v>2018</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="27">
         <v>2019</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="27">
         <v>2020</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="27">
         <v>2021</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="27">
         <v>2022</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="27">
         <v>2023</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="27">
         <v>2024</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="27">
         <v>2025</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="27">
         <v>2026</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="27">
         <v>2027</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="27">
         <v>2028</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="27">
         <v>2029</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="27">
         <v>2030</v>
       </c>
-      <c r="Q2" s="5">
-        <v>2031</v>
-      </c>
-      <c r="R2" s="25">
-        <v>2032</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2033</v>
-      </c>
-      <c r="T2" s="25">
-        <v>2034</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2035</v>
-      </c>
-      <c r="V2" s="25">
-        <v>2036</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2037</v>
-      </c>
-      <c r="X2" s="25">
-        <v>2038</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2039</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>2040</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2041</v>
-      </c>
-      <c r="AB2" s="25">
-        <v>2042</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2043</v>
-      </c>
-      <c r="AD2" s="25">
-        <v>2044</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2045</v>
-      </c>
-      <c r="AF2" s="25">
-        <v>2046</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2047</v>
-      </c>
-      <c r="AH2" s="25">
-        <v>2048</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>2049</v>
-      </c>
-      <c r="AJ2" s="25">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+    </row>
+    <row r="3" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="26">
         <v>5400</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="26">
         <v>6400</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="26">
         <v>7600</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="26">
         <v>10245</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="26">
         <v>12325</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="26">
         <v>13898</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="31">
         <v>1745.4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="31">
         <v>1873</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="31">
         <v>2140</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="31">
         <v>4413</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="31">
         <v>6036</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="31">
         <v>9463</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="31">
         <v>11790</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="31">
         <v>14048</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="P4" s="31"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="24">
         <v>405.4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="24">
         <v>469.9</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="24">
         <v>650.20000000000005</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="24">
         <v>1541</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="24">
         <v>2262</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="24">
         <v>4813</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="24">
         <v>6202</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="24">
         <v>7346</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="12">
-        <f>C4-C5</f>
+      <c r="C6" s="24">
+        <f t="shared" ref="C6:J6" si="0">C4-C5</f>
         <v>1340</v>
       </c>
-      <c r="D6" s="12">
-        <f>D4-D5</f>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
         <v>1403.1</v>
       </c>
-      <c r="E6" s="12">
-        <f>E4-E5</f>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
         <v>1489.8</v>
       </c>
-      <c r="F6" s="12">
-        <f>F4-F5</f>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
         <v>2872</v>
       </c>
-      <c r="G6" s="12">
-        <f>G4-G5</f>
+      <c r="G6" s="24">
+        <f t="shared" si="0"/>
         <v>3774</v>
       </c>
-      <c r="H6" s="12">
-        <f>H4-H5</f>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
         <v>4650</v>
       </c>
-      <c r="I6" s="12">
-        <f>I4-I5</f>
+      <c r="I6" s="24">
+        <f t="shared" si="0"/>
         <v>5588</v>
       </c>
-      <c r="J6" s="19">
-        <f>J4-J5</f>
+      <c r="J6" s="24">
+        <f t="shared" si="0"/>
         <v>6702</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24">
         <v>552</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="24">
         <v>765</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="24">
         <v>820</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
         <v>1508</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="24">
         <v>3014</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="24">
         <v>3776</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="24">
         <v>3205</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
         <v>1172</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="24">
         <v>1596</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="24">
         <v>1808</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="K9" s="32"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="24">
         <v>250</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="24">
         <v>204.6</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="24">
         <v>149.9</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="24">
         <v>103</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="24">
         <v>-63</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="24">
         <f>H6-(H7+H8+H9)</f>
         <v>-88</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="24">
         <f>I6-(I7+I8+I9)</f>
         <v>-549</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="24">
         <f>J6-(J7+J8+J9)</f>
         <v>869</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="24">
         <v>1.7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="24">
         <v>21.6</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="24">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="24">
         <v>80</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="24">
         <v>101</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="24">
         <v>5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="24">
         <v>157</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="24">
         <v>434</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="24">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="24">
         <v>7.5</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="24">
         <v>15.2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="24">
         <v>182</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="24">
         <v>226</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="24">
         <v>212</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="24">
         <v>385</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="24">
         <v>419</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="24">
         <v>246.6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="24">
         <f>D10+D11-D12</f>
         <v>218.7</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="24">
         <f>E10+E11-E12</f>
         <v>135.70000000000002</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="24">
         <f>F10+F11-F12</f>
         <v>1</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="24">
         <f>G10+G11-G12</f>
         <v>-188</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="24">
         <f>H10+H11-H12</f>
         <v>-295</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="24">
         <f>I10-I11-I12</f>
         <v>-1091</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="24">
         <f>J10-J11-J12</f>
         <v>16</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="24">
         <v>-28.9</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="24">
         <v>-38</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="24">
         <v>-23.8</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="24">
         <f>35.8</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="24">
         <v>-194</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="24">
         <v>-75</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="24">
         <v>-120</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="24">
         <v>146</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="31">
         <f>C13+C14</f>
         <v>217.7</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="31">
         <f>D13+D14</f>
         <v>180.7</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="31">
         <f>E13+E14</f>
         <v>111.90000000000002</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="31">
         <f>F13-F14</f>
         <v>-34.799999999999997</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="31">
         <f>G13+G14</f>
         <v>-382</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="31">
         <f>H13+H14</f>
         <v>-370</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="31">
         <f>I13+I14</f>
         <v>-1211</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="31">
         <f>J13+J14</f>
         <v>162</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="19"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="24">
         <v>118.3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="24">
         <v>123.1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="24">
         <v>112</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="24">
         <v>506.7</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="24">
         <v>866</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="24">
         <f>43+155-44+749+65+9+147-199+1-63</f>
         <v>863</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="24">
         <f>92+126+725+791+30+6+29+196-150-13+2</f>
         <v>1834</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="24">
         <f>54+135+581+202+7+8+2-3+426+2-148</f>
         <v>1266</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-    </row>
-    <row r="18" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14" t="s">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+    </row>
+    <row r="18" spans="1:756" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="24">
+        <f t="shared" ref="C18:J18" si="1">C15+C17</f>
+        <v>336</v>
+      </c>
+      <c r="D18" s="24">
+        <f t="shared" si="1"/>
+        <v>303.79999999999995</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="1"/>
+        <v>223.90000000000003</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" si="1"/>
+        <v>471.9</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="1"/>
+        <v>623</v>
+      </c>
+      <c r="J18" s="24">
+        <f t="shared" si="1"/>
+        <v>1428</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="24"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="24"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="24"/>
+      <c r="BG18" s="24"/>
+      <c r="BH18" s="24"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="24"/>
+      <c r="BK18" s="24"/>
+      <c r="BL18" s="24"/>
+      <c r="BM18" s="24"/>
+      <c r="BN18" s="24"/>
+      <c r="BO18" s="24"/>
+      <c r="BP18" s="24"/>
+      <c r="BQ18" s="24"/>
+      <c r="BR18" s="24"/>
+      <c r="BS18" s="24"/>
+      <c r="BT18" s="24"/>
+      <c r="BU18" s="24"/>
+      <c r="BV18" s="24"/>
+      <c r="BW18" s="24"/>
+      <c r="BX18" s="24"/>
+      <c r="BY18" s="24"/>
+      <c r="BZ18" s="24"/>
+      <c r="CA18" s="24"/>
+      <c r="CB18" s="24"/>
+      <c r="CC18" s="24"/>
+      <c r="CD18" s="24"/>
+      <c r="CE18" s="24"/>
+      <c r="CF18" s="24"/>
+      <c r="CG18" s="24"/>
+      <c r="CH18" s="24"/>
+      <c r="CI18" s="24"/>
+      <c r="CJ18" s="24"/>
+      <c r="CK18" s="24"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
+      <c r="CS18" s="24"/>
+      <c r="CT18" s="24"/>
+      <c r="CU18" s="24"/>
+      <c r="CV18" s="24"/>
+      <c r="CW18" s="24"/>
+      <c r="CX18" s="24"/>
+      <c r="CY18" s="24"/>
+      <c r="CZ18" s="24"/>
+      <c r="DA18" s="24"/>
+      <c r="DB18" s="24"/>
+      <c r="DC18" s="24"/>
+      <c r="DD18" s="24"/>
+      <c r="DE18" s="24"/>
+      <c r="DF18" s="24"/>
+      <c r="DG18" s="24"/>
+      <c r="DH18" s="24"/>
+      <c r="DI18" s="24"/>
+      <c r="DJ18" s="24"/>
+      <c r="DK18" s="24"/>
+      <c r="DL18" s="24"/>
+      <c r="DM18" s="24"/>
+      <c r="DN18" s="24"/>
+      <c r="DO18" s="24"/>
+      <c r="DP18" s="24"/>
+      <c r="DQ18" s="24"/>
+      <c r="DR18" s="24"/>
+      <c r="DS18" s="24"/>
+      <c r="DT18" s="24"/>
+      <c r="DU18" s="24"/>
+      <c r="DV18" s="24"/>
+      <c r="DW18" s="24"/>
+      <c r="DX18" s="24"/>
+      <c r="DY18" s="24"/>
+      <c r="DZ18" s="24"/>
+      <c r="EA18" s="24"/>
+      <c r="EB18" s="24"/>
+      <c r="EC18" s="24"/>
+      <c r="ED18" s="24"/>
+      <c r="EE18" s="24"/>
+      <c r="EF18" s="24"/>
+      <c r="EG18" s="24"/>
+      <c r="EH18" s="24"/>
+      <c r="EI18" s="24"/>
+      <c r="EJ18" s="24"/>
+      <c r="EK18" s="24"/>
+      <c r="EL18" s="24"/>
+      <c r="EM18" s="24"/>
+      <c r="EN18" s="24"/>
+      <c r="EO18" s="24"/>
+      <c r="EP18" s="24"/>
+      <c r="EQ18" s="24"/>
+      <c r="ER18" s="24"/>
+      <c r="ES18" s="24"/>
+      <c r="ET18" s="24"/>
+      <c r="EU18" s="24"/>
+      <c r="EV18" s="24"/>
+      <c r="EW18" s="24"/>
+      <c r="EX18" s="24"/>
+      <c r="EY18" s="24"/>
+      <c r="EZ18" s="24"/>
+      <c r="FA18" s="24"/>
+      <c r="FB18" s="24"/>
+      <c r="FC18" s="24"/>
+      <c r="FD18" s="24"/>
+      <c r="FE18" s="24"/>
+      <c r="FF18" s="24"/>
+      <c r="FG18" s="24"/>
+      <c r="FH18" s="24"/>
+      <c r="FI18" s="24"/>
+      <c r="FJ18" s="24"/>
+      <c r="FK18" s="24"/>
+      <c r="FL18" s="24"/>
+      <c r="FM18" s="24"/>
+      <c r="FN18" s="24"/>
+      <c r="FO18" s="24"/>
+      <c r="FP18" s="24"/>
+      <c r="FQ18" s="24"/>
+      <c r="FR18" s="24"/>
+      <c r="FS18" s="24"/>
+      <c r="FT18" s="24"/>
+      <c r="FU18" s="24"/>
+      <c r="FV18" s="24"/>
+      <c r="FW18" s="24"/>
+      <c r="FX18" s="24"/>
+      <c r="FY18" s="24"/>
+      <c r="FZ18" s="24"/>
+      <c r="GA18" s="24"/>
+      <c r="GB18" s="24"/>
+      <c r="GC18" s="24"/>
+      <c r="GD18" s="24"/>
+      <c r="GE18" s="24"/>
+      <c r="GF18" s="24"/>
+      <c r="GG18" s="24"/>
+      <c r="GH18" s="24"/>
+      <c r="GI18" s="24"/>
+      <c r="GJ18" s="24"/>
+      <c r="GK18" s="24"/>
+      <c r="GL18" s="24"/>
+      <c r="GM18" s="24"/>
+      <c r="GN18" s="24"/>
+      <c r="GO18" s="24"/>
+      <c r="GP18" s="24"/>
+      <c r="GQ18" s="24"/>
+      <c r="GR18" s="24"/>
+      <c r="GS18" s="24"/>
+      <c r="GT18" s="24"/>
+      <c r="GU18" s="24"/>
+      <c r="GV18" s="24"/>
+      <c r="GW18" s="24"/>
+      <c r="GX18" s="24"/>
+      <c r="GY18" s="24"/>
+      <c r="GZ18" s="24"/>
+      <c r="HA18" s="24"/>
+      <c r="HB18" s="24"/>
+      <c r="HC18" s="24"/>
+      <c r="HD18" s="24"/>
+      <c r="HE18" s="24"/>
+      <c r="HF18" s="24"/>
+      <c r="HG18" s="24"/>
+      <c r="HH18" s="24"/>
+      <c r="HI18" s="24"/>
+      <c r="HJ18" s="24"/>
+      <c r="HK18" s="24"/>
+      <c r="HL18" s="24"/>
+      <c r="HM18" s="24"/>
+      <c r="HN18" s="24"/>
+      <c r="HO18" s="24"/>
+      <c r="HP18" s="24"/>
+      <c r="HQ18" s="24"/>
+      <c r="HR18" s="24"/>
+      <c r="HS18" s="24"/>
+      <c r="HT18" s="24"/>
+      <c r="HU18" s="24"/>
+      <c r="HV18" s="24"/>
+      <c r="HW18" s="24"/>
+      <c r="HX18" s="24"/>
+      <c r="HY18" s="24"/>
+      <c r="HZ18" s="24"/>
+      <c r="IA18" s="24"/>
+      <c r="IB18" s="24"/>
+      <c r="IC18" s="24"/>
+      <c r="ID18" s="24"/>
+      <c r="IE18" s="24"/>
+      <c r="IF18" s="24"/>
+      <c r="IG18" s="24"/>
+      <c r="IH18" s="24"/>
+      <c r="II18" s="24"/>
+      <c r="IJ18" s="24"/>
+      <c r="IK18" s="24"/>
+      <c r="IL18" s="24"/>
+      <c r="IM18" s="24"/>
+      <c r="IN18" s="24"/>
+      <c r="IO18" s="24"/>
+      <c r="IP18" s="24"/>
+      <c r="IQ18" s="24"/>
+      <c r="IR18" s="24"/>
+      <c r="IS18" s="24"/>
+      <c r="IT18" s="24"/>
+      <c r="IU18" s="24"/>
+      <c r="IV18" s="24"/>
+      <c r="IW18" s="24"/>
+      <c r="IX18" s="24"/>
+      <c r="IY18" s="24"/>
+      <c r="IZ18" s="24"/>
+      <c r="JA18" s="24"/>
+      <c r="JB18" s="24"/>
+      <c r="JC18" s="24"/>
+      <c r="JD18" s="24"/>
+      <c r="JE18" s="24"/>
+      <c r="JF18" s="24"/>
+      <c r="JG18" s="24"/>
+      <c r="JH18" s="24"/>
+      <c r="JI18" s="24"/>
+      <c r="JJ18" s="24"/>
+      <c r="JK18" s="24"/>
+      <c r="JL18" s="24"/>
+      <c r="JM18" s="24"/>
+      <c r="JN18" s="24"/>
+      <c r="JO18" s="24"/>
+      <c r="JP18" s="24"/>
+      <c r="JQ18" s="24"/>
+      <c r="JR18" s="24"/>
+      <c r="JS18" s="24"/>
+      <c r="JT18" s="24"/>
+      <c r="JU18" s="24"/>
+      <c r="JV18" s="24"/>
+      <c r="JW18" s="24"/>
+      <c r="JX18" s="24"/>
+      <c r="JY18" s="24"/>
+      <c r="JZ18" s="24"/>
+      <c r="KA18" s="24"/>
+      <c r="KB18" s="24"/>
+      <c r="KC18" s="24"/>
+      <c r="KD18" s="24"/>
+      <c r="KE18" s="24"/>
+      <c r="KF18" s="24"/>
+      <c r="KG18" s="24"/>
+      <c r="KH18" s="24"/>
+      <c r="KI18" s="24"/>
+      <c r="KJ18" s="24"/>
+      <c r="KK18" s="24"/>
+      <c r="KL18" s="24"/>
+      <c r="KM18" s="24"/>
+      <c r="KN18" s="24"/>
+      <c r="KO18" s="24"/>
+      <c r="KP18" s="24"/>
+      <c r="KQ18" s="24"/>
+      <c r="KR18" s="24"/>
+      <c r="KS18" s="24"/>
+      <c r="KT18" s="24"/>
+      <c r="KU18" s="24"/>
+      <c r="KV18" s="24"/>
+      <c r="KW18" s="24"/>
+      <c r="KX18" s="24"/>
+      <c r="KY18" s="24"/>
+      <c r="KZ18" s="24"/>
+      <c r="LA18" s="24"/>
+      <c r="LB18" s="24"/>
+      <c r="LC18" s="24"/>
+      <c r="LD18" s="24"/>
+      <c r="LE18" s="24"/>
+      <c r="LF18" s="24"/>
+      <c r="LG18" s="24"/>
+      <c r="LH18" s="24"/>
+      <c r="LI18" s="24"/>
+      <c r="LJ18" s="24"/>
+      <c r="LK18" s="24"/>
+      <c r="LL18" s="24"/>
+      <c r="LM18" s="24"/>
+      <c r="LN18" s="24"/>
+      <c r="LO18" s="24"/>
+      <c r="LP18" s="24"/>
+      <c r="LQ18" s="24"/>
+      <c r="LR18" s="24"/>
+      <c r="LS18" s="24"/>
+      <c r="LT18" s="24"/>
+      <c r="LU18" s="24"/>
+      <c r="LV18" s="24"/>
+      <c r="LW18" s="24"/>
+      <c r="LX18" s="24"/>
+      <c r="LY18" s="24"/>
+      <c r="LZ18" s="24"/>
+      <c r="MA18" s="24"/>
+      <c r="MB18" s="24"/>
+      <c r="MC18" s="24"/>
+      <c r="MD18" s="24"/>
+      <c r="ME18" s="24"/>
+      <c r="MF18" s="24"/>
+      <c r="MG18" s="24"/>
+      <c r="MH18" s="24"/>
+      <c r="MI18" s="24"/>
+      <c r="MJ18" s="24"/>
+      <c r="MK18" s="24"/>
+      <c r="ML18" s="24"/>
+      <c r="MM18" s="24"/>
+      <c r="MN18" s="24"/>
+      <c r="MO18" s="24"/>
+      <c r="MP18" s="24"/>
+      <c r="MQ18" s="24"/>
+      <c r="MR18" s="24"/>
+      <c r="MS18" s="24"/>
+      <c r="MT18" s="24"/>
+      <c r="MU18" s="24"/>
+      <c r="MV18" s="24"/>
+      <c r="MW18" s="24"/>
+      <c r="MX18" s="24"/>
+      <c r="MY18" s="24"/>
+      <c r="MZ18" s="24"/>
+      <c r="NA18" s="24"/>
+      <c r="NB18" s="24"/>
+      <c r="NC18" s="24"/>
+      <c r="ND18" s="24"/>
+      <c r="NE18" s="24"/>
+      <c r="NF18" s="24"/>
+      <c r="NG18" s="24"/>
+      <c r="NH18" s="24"/>
+      <c r="NI18" s="24"/>
+      <c r="NJ18" s="24"/>
+      <c r="NK18" s="24"/>
+      <c r="NL18" s="24"/>
+      <c r="NM18" s="24"/>
+      <c r="NN18" s="24"/>
+      <c r="NO18" s="24"/>
+      <c r="NP18" s="24"/>
+      <c r="NQ18" s="24"/>
+      <c r="NR18" s="24"/>
+      <c r="NS18" s="24"/>
+      <c r="NT18" s="24"/>
+      <c r="NU18" s="24"/>
+      <c r="NV18" s="24"/>
+      <c r="NW18" s="24"/>
+      <c r="NX18" s="24"/>
+      <c r="NY18" s="24"/>
+      <c r="NZ18" s="24"/>
+      <c r="OA18" s="24"/>
+      <c r="OB18" s="24"/>
+      <c r="OC18" s="24"/>
+      <c r="OD18" s="24"/>
+      <c r="OE18" s="24"/>
+      <c r="OF18" s="24"/>
+      <c r="OG18" s="24"/>
+      <c r="OH18" s="24"/>
+      <c r="OI18" s="24"/>
+      <c r="OJ18" s="24"/>
+      <c r="OK18" s="24"/>
+      <c r="OL18" s="24"/>
+      <c r="OM18" s="24"/>
+      <c r="ON18" s="24"/>
+      <c r="OO18" s="24"/>
+      <c r="OP18" s="24"/>
+      <c r="OQ18" s="24"/>
+      <c r="OR18" s="24"/>
+      <c r="OS18" s="24"/>
+      <c r="OT18" s="24"/>
+      <c r="OU18" s="24"/>
+      <c r="OV18" s="24"/>
+      <c r="OW18" s="24"/>
+      <c r="OX18" s="24"/>
+      <c r="OY18" s="24"/>
+      <c r="OZ18" s="24"/>
+      <c r="PA18" s="24"/>
+      <c r="PB18" s="24"/>
+      <c r="PC18" s="24"/>
+      <c r="PD18" s="24"/>
+      <c r="PE18" s="24"/>
+      <c r="PF18" s="24"/>
+      <c r="PG18" s="24"/>
+      <c r="PH18" s="24"/>
+      <c r="PI18" s="24"/>
+      <c r="PJ18" s="24"/>
+      <c r="PK18" s="24"/>
+      <c r="PL18" s="24"/>
+      <c r="PM18" s="24"/>
+      <c r="PN18" s="24"/>
+      <c r="PO18" s="24"/>
+      <c r="PP18" s="24"/>
+      <c r="PQ18" s="24"/>
+      <c r="PR18" s="24"/>
+      <c r="PS18" s="24"/>
+      <c r="PT18" s="24"/>
+      <c r="PU18" s="24"/>
+      <c r="PV18" s="24"/>
+      <c r="PW18" s="24"/>
+      <c r="PX18" s="24"/>
+      <c r="PY18" s="24"/>
+      <c r="PZ18" s="24"/>
+      <c r="QA18" s="24"/>
+      <c r="QB18" s="24"/>
+      <c r="QC18" s="24"/>
+      <c r="QD18" s="24"/>
+      <c r="QE18" s="24"/>
+      <c r="QF18" s="24"/>
+      <c r="QG18" s="24"/>
+      <c r="QH18" s="24"/>
+      <c r="QI18" s="24"/>
+      <c r="QJ18" s="24"/>
+      <c r="QK18" s="24"/>
+      <c r="QL18" s="24"/>
+      <c r="QM18" s="24"/>
+      <c r="QN18" s="24"/>
+      <c r="QO18" s="24"/>
+      <c r="QP18" s="24"/>
+      <c r="QQ18" s="24"/>
+      <c r="QR18" s="24"/>
+      <c r="QS18" s="24"/>
+      <c r="QT18" s="24"/>
+      <c r="QU18" s="24"/>
+      <c r="QV18" s="24"/>
+      <c r="QW18" s="24"/>
+      <c r="QX18" s="24"/>
+      <c r="QY18" s="24"/>
+      <c r="QZ18" s="24"/>
+      <c r="RA18" s="24"/>
+      <c r="RB18" s="24"/>
+      <c r="RC18" s="24"/>
+      <c r="RD18" s="24"/>
+      <c r="RE18" s="24"/>
+      <c r="RF18" s="24"/>
+      <c r="RG18" s="24"/>
+      <c r="RH18" s="24"/>
+      <c r="RI18" s="24"/>
+      <c r="RJ18" s="24"/>
+      <c r="RK18" s="24"/>
+      <c r="RL18" s="24"/>
+      <c r="RM18" s="24"/>
+      <c r="RN18" s="24"/>
+      <c r="RO18" s="24"/>
+      <c r="RP18" s="24"/>
+      <c r="RQ18" s="24"/>
+      <c r="RR18" s="24"/>
+      <c r="RS18" s="24"/>
+      <c r="RT18" s="24"/>
+      <c r="RU18" s="24"/>
+      <c r="RV18" s="24"/>
+      <c r="RW18" s="24"/>
+      <c r="RX18" s="24"/>
+      <c r="RY18" s="24"/>
+      <c r="RZ18" s="24"/>
+      <c r="SA18" s="24"/>
+      <c r="SB18" s="24"/>
+      <c r="SC18" s="24"/>
+      <c r="SD18" s="24"/>
+      <c r="SE18" s="24"/>
+      <c r="SF18" s="24"/>
+      <c r="SG18" s="24"/>
+      <c r="SH18" s="24"/>
+      <c r="SI18" s="24"/>
+      <c r="SJ18" s="24"/>
+      <c r="SK18" s="24"/>
+      <c r="SL18" s="24"/>
+      <c r="SM18" s="24"/>
+      <c r="SN18" s="24"/>
+      <c r="SO18" s="24"/>
+      <c r="SP18" s="24"/>
+      <c r="SQ18" s="24"/>
+      <c r="SR18" s="24"/>
+      <c r="SS18" s="24"/>
+      <c r="ST18" s="24"/>
+      <c r="SU18" s="24"/>
+      <c r="SV18" s="24"/>
+      <c r="SW18" s="24"/>
+      <c r="SX18" s="24"/>
+      <c r="SY18" s="24"/>
+      <c r="SZ18" s="24"/>
+      <c r="TA18" s="24"/>
+      <c r="TB18" s="24"/>
+      <c r="TC18" s="24"/>
+      <c r="TD18" s="24"/>
+      <c r="TE18" s="24"/>
+      <c r="TF18" s="24"/>
+      <c r="TG18" s="24"/>
+      <c r="TH18" s="24"/>
+      <c r="TI18" s="24"/>
+      <c r="TJ18" s="24"/>
+      <c r="TK18" s="24"/>
+      <c r="TL18" s="24"/>
+      <c r="TM18" s="24"/>
+      <c r="TN18" s="24"/>
+      <c r="TO18" s="24"/>
+      <c r="TP18" s="24"/>
+      <c r="TQ18" s="24"/>
+      <c r="TR18" s="24"/>
+      <c r="TS18" s="24"/>
+      <c r="TT18" s="24"/>
+      <c r="TU18" s="24"/>
+      <c r="TV18" s="24"/>
+      <c r="TW18" s="24"/>
+      <c r="TX18" s="24"/>
+      <c r="TY18" s="24"/>
+      <c r="TZ18" s="24"/>
+      <c r="UA18" s="24"/>
+      <c r="UB18" s="24"/>
+      <c r="UC18" s="24"/>
+      <c r="UD18" s="24"/>
+      <c r="UE18" s="24"/>
+      <c r="UF18" s="24"/>
+      <c r="UG18" s="24"/>
+      <c r="UH18" s="24"/>
+      <c r="UI18" s="24"/>
+      <c r="UJ18" s="24"/>
+      <c r="UK18" s="24"/>
+      <c r="UL18" s="24"/>
+      <c r="UM18" s="24"/>
+      <c r="UN18" s="24"/>
+      <c r="UO18" s="24"/>
+      <c r="UP18" s="24"/>
+      <c r="UQ18" s="24"/>
+      <c r="UR18" s="24"/>
+      <c r="US18" s="24"/>
+      <c r="UT18" s="24"/>
+      <c r="UU18" s="24"/>
+      <c r="UV18" s="24"/>
+      <c r="UW18" s="24"/>
+      <c r="UX18" s="24"/>
+      <c r="UY18" s="24"/>
+      <c r="UZ18" s="24"/>
+      <c r="VA18" s="24"/>
+      <c r="VB18" s="24"/>
+      <c r="VC18" s="24"/>
+      <c r="VD18" s="24"/>
+      <c r="VE18" s="24"/>
+      <c r="VF18" s="24"/>
+      <c r="VG18" s="24"/>
+      <c r="VH18" s="24"/>
+      <c r="VI18" s="24"/>
+      <c r="VJ18" s="24"/>
+      <c r="VK18" s="24"/>
+      <c r="VL18" s="24"/>
+      <c r="VM18" s="24"/>
+      <c r="VN18" s="24"/>
+      <c r="VO18" s="24"/>
+      <c r="VP18" s="24"/>
+      <c r="VQ18" s="24"/>
+      <c r="VR18" s="24"/>
+      <c r="VS18" s="24"/>
+      <c r="VT18" s="24"/>
+      <c r="VU18" s="24"/>
+      <c r="VV18" s="24"/>
+      <c r="VW18" s="24"/>
+      <c r="VX18" s="24"/>
+      <c r="VY18" s="24"/>
+      <c r="VZ18" s="24"/>
+      <c r="WA18" s="24"/>
+      <c r="WB18" s="24"/>
+      <c r="WC18" s="24"/>
+      <c r="WD18" s="24"/>
+      <c r="WE18" s="24"/>
+      <c r="WF18" s="24"/>
+      <c r="WG18" s="24"/>
+      <c r="WH18" s="24"/>
+      <c r="WI18" s="24"/>
+      <c r="WJ18" s="24"/>
+      <c r="WK18" s="24"/>
+      <c r="WL18" s="24"/>
+      <c r="WM18" s="24"/>
+      <c r="WN18" s="24"/>
+      <c r="WO18" s="24"/>
+      <c r="WP18" s="24"/>
+      <c r="WQ18" s="24"/>
+      <c r="WR18" s="24"/>
+      <c r="WS18" s="24"/>
+      <c r="WT18" s="24"/>
+      <c r="WU18" s="24"/>
+      <c r="WV18" s="24"/>
+      <c r="WW18" s="24"/>
+      <c r="WX18" s="24"/>
+      <c r="WY18" s="24"/>
+      <c r="WZ18" s="24"/>
+      <c r="XA18" s="24"/>
+      <c r="XB18" s="24"/>
+      <c r="XC18" s="24"/>
+      <c r="XD18" s="24"/>
+      <c r="XE18" s="24"/>
+      <c r="XF18" s="24"/>
+      <c r="XG18" s="24"/>
+      <c r="XH18" s="24"/>
+      <c r="XI18" s="24"/>
+      <c r="XJ18" s="24"/>
+      <c r="XK18" s="24"/>
+      <c r="XL18" s="24"/>
+      <c r="XM18" s="24"/>
+      <c r="XN18" s="24"/>
+      <c r="XO18" s="24"/>
+      <c r="XP18" s="24"/>
+      <c r="XQ18" s="24"/>
+      <c r="XR18" s="24"/>
+      <c r="XS18" s="24"/>
+      <c r="XT18" s="24"/>
+      <c r="XU18" s="24"/>
+      <c r="XV18" s="24"/>
+      <c r="XW18" s="24"/>
+      <c r="XX18" s="24"/>
+      <c r="XY18" s="24"/>
+      <c r="XZ18" s="24"/>
+      <c r="YA18" s="24"/>
+      <c r="YB18" s="24"/>
+      <c r="YC18" s="24"/>
+      <c r="YD18" s="24"/>
+      <c r="YE18" s="24"/>
+      <c r="YF18" s="24"/>
+      <c r="YG18" s="24"/>
+      <c r="YH18" s="24"/>
+      <c r="YI18" s="24"/>
+      <c r="YJ18" s="24"/>
+      <c r="YK18" s="24"/>
+      <c r="YL18" s="24"/>
+      <c r="YM18" s="24"/>
+      <c r="YN18" s="24"/>
+      <c r="YO18" s="24"/>
+      <c r="YP18" s="24"/>
+      <c r="YQ18" s="24"/>
+      <c r="YR18" s="24"/>
+      <c r="YS18" s="24"/>
+      <c r="YT18" s="24"/>
+      <c r="YU18" s="24"/>
+      <c r="YV18" s="24"/>
+      <c r="YW18" s="24"/>
+      <c r="YX18" s="24"/>
+      <c r="YY18" s="24"/>
+      <c r="YZ18" s="24"/>
+      <c r="ZA18" s="24"/>
+      <c r="ZB18" s="24"/>
+      <c r="ZC18" s="24"/>
+      <c r="ZD18" s="24"/>
+      <c r="ZE18" s="24"/>
+      <c r="ZF18" s="24"/>
+      <c r="ZG18" s="24"/>
+      <c r="ZH18" s="24"/>
+      <c r="ZI18" s="24"/>
+      <c r="ZJ18" s="24"/>
+      <c r="ZK18" s="24"/>
+      <c r="ZL18" s="24"/>
+      <c r="ZM18" s="24"/>
+      <c r="ZN18" s="24"/>
+      <c r="ZO18" s="24"/>
+      <c r="ZP18" s="24"/>
+      <c r="ZQ18" s="24"/>
+      <c r="ZR18" s="24"/>
+      <c r="ZS18" s="24"/>
+      <c r="ZT18" s="24"/>
+      <c r="ZU18" s="24"/>
+      <c r="ZV18" s="24"/>
+      <c r="ZW18" s="24"/>
+      <c r="ZX18" s="24"/>
+      <c r="ZY18" s="24"/>
+      <c r="ZZ18" s="24"/>
+      <c r="AAA18" s="24"/>
+      <c r="AAB18" s="24"/>
+      <c r="AAC18" s="24"/>
+      <c r="AAD18" s="24"/>
+      <c r="AAE18" s="24"/>
+      <c r="AAF18" s="24"/>
+      <c r="AAG18" s="24"/>
+      <c r="AAH18" s="24"/>
+      <c r="AAI18" s="24"/>
+      <c r="AAJ18" s="24"/>
+      <c r="AAK18" s="24"/>
+      <c r="AAL18" s="24"/>
+      <c r="AAM18" s="24"/>
+      <c r="AAN18" s="24"/>
+      <c r="AAO18" s="24"/>
+      <c r="AAP18" s="24"/>
+      <c r="AAQ18" s="24"/>
+      <c r="AAR18" s="24"/>
+      <c r="AAS18" s="24"/>
+      <c r="AAT18" s="24"/>
+      <c r="AAU18" s="24"/>
+      <c r="AAV18" s="24"/>
+      <c r="AAW18" s="24"/>
+      <c r="AAX18" s="24"/>
+      <c r="AAY18" s="24"/>
+      <c r="AAZ18" s="24"/>
+      <c r="ABA18" s="24"/>
+      <c r="ABB18" s="24"/>
+      <c r="ABC18" s="24"/>
+      <c r="ABD18" s="24"/>
+      <c r="ABE18" s="24"/>
+      <c r="ABF18" s="24"/>
+      <c r="ABG18" s="24"/>
+      <c r="ABH18" s="24"/>
+      <c r="ABI18" s="24"/>
+      <c r="ABJ18" s="24"/>
+      <c r="ABK18" s="24"/>
+      <c r="ABL18" s="24"/>
+      <c r="ABM18" s="24"/>
+      <c r="ABN18" s="24"/>
+      <c r="ABO18" s="24"/>
+      <c r="ABP18" s="24"/>
+      <c r="ABQ18" s="24"/>
+      <c r="ABR18" s="24"/>
+      <c r="ABS18" s="24"/>
+      <c r="ABT18" s="24"/>
+      <c r="ABU18" s="24"/>
+      <c r="ABV18" s="24"/>
+      <c r="ABW18" s="24"/>
+      <c r="ABX18" s="24"/>
+      <c r="ABY18" s="24"/>
+      <c r="ABZ18" s="24"/>
+      <c r="ACA18" s="24"/>
+      <c r="ACB18" s="24"/>
+    </row>
+    <row r="19" spans="1:756" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="31"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="31"/>
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="31"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="31"/>
+      <c r="CG19" s="31"/>
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="31"/>
+      <c r="CJ19" s="31"/>
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="31"/>
+      <c r="CM19" s="31"/>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
+      <c r="CS19" s="31"/>
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="31"/>
+      <c r="CV19" s="31"/>
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="31"/>
+      <c r="CY19" s="31"/>
+      <c r="CZ19" s="31"/>
+      <c r="DA19" s="31"/>
+      <c r="DB19" s="31"/>
+      <c r="DC19" s="31"/>
+      <c r="DD19" s="31"/>
+      <c r="DE19" s="31"/>
+      <c r="DF19" s="31"/>
+      <c r="DG19" s="31"/>
+      <c r="DH19" s="31"/>
+      <c r="DI19" s="31"/>
+      <c r="DJ19" s="31"/>
+      <c r="DK19" s="31"/>
+      <c r="DL19" s="31"/>
+      <c r="DM19" s="31"/>
+      <c r="DN19" s="31"/>
+      <c r="DO19" s="31"/>
+      <c r="DP19" s="31"/>
+      <c r="DQ19" s="31"/>
+      <c r="DR19" s="31"/>
+      <c r="DS19" s="31"/>
+      <c r="DT19" s="31"/>
+      <c r="DU19" s="31"/>
+      <c r="DV19" s="31"/>
+      <c r="DW19" s="31"/>
+      <c r="DX19" s="31"/>
+      <c r="DY19" s="31"/>
+      <c r="DZ19" s="31"/>
+      <c r="EA19" s="31"/>
+      <c r="EB19" s="31"/>
+      <c r="EC19" s="31"/>
+      <c r="ED19" s="31"/>
+      <c r="EE19" s="31"/>
+      <c r="EF19" s="31"/>
+      <c r="EG19" s="31"/>
+      <c r="EH19" s="31"/>
+      <c r="EI19" s="31"/>
+      <c r="EJ19" s="31"/>
+      <c r="EK19" s="31"/>
+      <c r="EL19" s="31"/>
+      <c r="EM19" s="31"/>
+      <c r="EN19" s="31"/>
+      <c r="EO19" s="31"/>
+      <c r="EP19" s="31"/>
+      <c r="EQ19" s="31"/>
+      <c r="ER19" s="31"/>
+      <c r="ES19" s="31"/>
+      <c r="ET19" s="31"/>
+      <c r="EU19" s="31"/>
+      <c r="EV19" s="31"/>
+      <c r="EW19" s="31"/>
+      <c r="EX19" s="31"/>
+      <c r="EY19" s="31"/>
+      <c r="EZ19" s="31"/>
+      <c r="FA19" s="31"/>
+      <c r="FB19" s="31"/>
+      <c r="FC19" s="31"/>
+      <c r="FD19" s="31"/>
+      <c r="FE19" s="31"/>
+      <c r="FF19" s="31"/>
+      <c r="FG19" s="31"/>
+      <c r="FH19" s="31"/>
+      <c r="FI19" s="31"/>
+      <c r="FJ19" s="31"/>
+      <c r="FK19" s="31"/>
+      <c r="FL19" s="31"/>
+      <c r="FM19" s="31"/>
+      <c r="FN19" s="31"/>
+      <c r="FO19" s="31"/>
+      <c r="FP19" s="31"/>
+      <c r="FQ19" s="31"/>
+      <c r="FR19" s="31"/>
+      <c r="FS19" s="31"/>
+      <c r="FT19" s="31"/>
+      <c r="FU19" s="31"/>
+      <c r="FV19" s="31"/>
+      <c r="FW19" s="31"/>
+      <c r="FX19" s="31"/>
+      <c r="FY19" s="31"/>
+      <c r="FZ19" s="31"/>
+      <c r="GA19" s="31"/>
+      <c r="GB19" s="31"/>
+      <c r="GC19" s="31"/>
+      <c r="GD19" s="31"/>
+      <c r="GE19" s="31"/>
+      <c r="GF19" s="31"/>
+      <c r="GG19" s="31"/>
+      <c r="GH19" s="31"/>
+      <c r="GI19" s="31"/>
+      <c r="GJ19" s="31"/>
+      <c r="GK19" s="31"/>
+      <c r="GL19" s="31"/>
+      <c r="GM19" s="31"/>
+      <c r="GN19" s="31"/>
+      <c r="GO19" s="31"/>
+      <c r="GP19" s="31"/>
+      <c r="GQ19" s="31"/>
+      <c r="GR19" s="31"/>
+      <c r="GS19" s="31"/>
+      <c r="GT19" s="31"/>
+      <c r="GU19" s="31"/>
+      <c r="GV19" s="31"/>
+      <c r="GW19" s="31"/>
+      <c r="GX19" s="31"/>
+      <c r="GY19" s="31"/>
+      <c r="GZ19" s="31"/>
+      <c r="HA19" s="31"/>
+      <c r="HB19" s="31"/>
+      <c r="HC19" s="31"/>
+      <c r="HD19" s="31"/>
+      <c r="HE19" s="31"/>
+      <c r="HF19" s="31"/>
+      <c r="HG19" s="31"/>
+      <c r="HH19" s="31"/>
+      <c r="HI19" s="31"/>
+      <c r="HJ19" s="31"/>
+      <c r="HK19" s="31"/>
+      <c r="HL19" s="31"/>
+      <c r="HM19" s="31"/>
+      <c r="HN19" s="31"/>
+      <c r="HO19" s="31"/>
+      <c r="HP19" s="31"/>
+      <c r="HQ19" s="31"/>
+      <c r="HR19" s="31"/>
+      <c r="HS19" s="31"/>
+      <c r="HT19" s="31"/>
+      <c r="HU19" s="31"/>
+      <c r="HV19" s="31"/>
+      <c r="HW19" s="31"/>
+      <c r="HX19" s="31"/>
+      <c r="HY19" s="31"/>
+      <c r="HZ19" s="31"/>
+      <c r="IA19" s="31"/>
+      <c r="IB19" s="31"/>
+      <c r="IC19" s="31"/>
+      <c r="ID19" s="31"/>
+      <c r="IE19" s="31"/>
+      <c r="IF19" s="31"/>
+      <c r="IG19" s="31"/>
+      <c r="IH19" s="31"/>
+      <c r="II19" s="31"/>
+      <c r="IJ19" s="31"/>
+      <c r="IK19" s="31"/>
+      <c r="IL19" s="31"/>
+      <c r="IM19" s="31"/>
+      <c r="IN19" s="31"/>
+      <c r="IO19" s="31"/>
+      <c r="IP19" s="31"/>
+      <c r="IQ19" s="31"/>
+      <c r="IR19" s="31"/>
+      <c r="IS19" s="31"/>
+      <c r="IT19" s="31"/>
+      <c r="IU19" s="31"/>
+      <c r="IV19" s="31"/>
+      <c r="IW19" s="31"/>
+      <c r="IX19" s="31"/>
+      <c r="IY19" s="31"/>
+      <c r="IZ19" s="31"/>
+      <c r="JA19" s="31"/>
+      <c r="JB19" s="31"/>
+      <c r="JC19" s="31"/>
+      <c r="JD19" s="31"/>
+      <c r="JE19" s="31"/>
+      <c r="JF19" s="31"/>
+      <c r="JG19" s="31"/>
+      <c r="JH19" s="31"/>
+      <c r="JI19" s="31"/>
+      <c r="JJ19" s="31"/>
+      <c r="JK19" s="31"/>
+      <c r="JL19" s="31"/>
+      <c r="JM19" s="31"/>
+      <c r="JN19" s="31"/>
+      <c r="JO19" s="31"/>
+      <c r="JP19" s="31"/>
+      <c r="JQ19" s="31"/>
+      <c r="JR19" s="31"/>
+      <c r="JS19" s="31"/>
+      <c r="JT19" s="31"/>
+      <c r="JU19" s="31"/>
+      <c r="JV19" s="31"/>
+      <c r="JW19" s="31"/>
+      <c r="JX19" s="31"/>
+      <c r="JY19" s="31"/>
+      <c r="JZ19" s="31"/>
+      <c r="KA19" s="31"/>
+      <c r="KB19" s="31"/>
+      <c r="KC19" s="31"/>
+      <c r="KD19" s="31"/>
+      <c r="KE19" s="31"/>
+      <c r="KF19" s="31"/>
+      <c r="KG19" s="31"/>
+      <c r="KH19" s="31"/>
+      <c r="KI19" s="31"/>
+      <c r="KJ19" s="31"/>
+      <c r="KK19" s="31"/>
+      <c r="KL19" s="31"/>
+      <c r="KM19" s="31"/>
+      <c r="KN19" s="31"/>
+      <c r="KO19" s="31"/>
+      <c r="KP19" s="31"/>
+      <c r="KQ19" s="31"/>
+      <c r="KR19" s="31"/>
+      <c r="KS19" s="31"/>
+      <c r="KT19" s="31"/>
+      <c r="KU19" s="31"/>
+      <c r="KV19" s="31"/>
+      <c r="KW19" s="31"/>
+      <c r="KX19" s="31"/>
+      <c r="KY19" s="31"/>
+      <c r="KZ19" s="31"/>
+      <c r="LA19" s="31"/>
+      <c r="LB19" s="31"/>
+      <c r="LC19" s="31"/>
+      <c r="LD19" s="31"/>
+      <c r="LE19" s="31"/>
+      <c r="LF19" s="31"/>
+      <c r="LG19" s="31"/>
+      <c r="LH19" s="31"/>
+      <c r="LI19" s="31"/>
+      <c r="LJ19" s="31"/>
+      <c r="LK19" s="31"/>
+      <c r="LL19" s="31"/>
+      <c r="LM19" s="31"/>
+      <c r="LN19" s="31"/>
+      <c r="LO19" s="31"/>
+      <c r="LP19" s="31"/>
+      <c r="LQ19" s="31"/>
+      <c r="LR19" s="31"/>
+      <c r="LS19" s="31"/>
+      <c r="LT19" s="31"/>
+      <c r="LU19" s="31"/>
+      <c r="LV19" s="31"/>
+      <c r="LW19" s="31"/>
+      <c r="LX19" s="31"/>
+      <c r="LY19" s="31"/>
+      <c r="LZ19" s="31"/>
+      <c r="MA19" s="31"/>
+      <c r="MB19" s="31"/>
+      <c r="MC19" s="31"/>
+      <c r="MD19" s="31"/>
+      <c r="ME19" s="31"/>
+      <c r="MF19" s="31"/>
+      <c r="MG19" s="31"/>
+      <c r="MH19" s="31"/>
+      <c r="MI19" s="31"/>
+      <c r="MJ19" s="31"/>
+      <c r="MK19" s="31"/>
+      <c r="ML19" s="31"/>
+      <c r="MM19" s="31"/>
+      <c r="MN19" s="31"/>
+      <c r="MO19" s="31"/>
+      <c r="MP19" s="31"/>
+      <c r="MQ19" s="31"/>
+      <c r="MR19" s="31"/>
+      <c r="MS19" s="31"/>
+      <c r="MT19" s="31"/>
+      <c r="MU19" s="31"/>
+      <c r="MV19" s="31"/>
+      <c r="MW19" s="31"/>
+      <c r="MX19" s="31"/>
+      <c r="MY19" s="31"/>
+      <c r="MZ19" s="31"/>
+      <c r="NA19" s="31"/>
+      <c r="NB19" s="31"/>
+      <c r="NC19" s="31"/>
+      <c r="ND19" s="31"/>
+      <c r="NE19" s="31"/>
+      <c r="NF19" s="31"/>
+      <c r="NG19" s="31"/>
+      <c r="NH19" s="31"/>
+      <c r="NI19" s="31"/>
+      <c r="NJ19" s="31"/>
+      <c r="NK19" s="31"/>
+      <c r="NL19" s="31"/>
+      <c r="NM19" s="31"/>
+      <c r="NN19" s="31"/>
+      <c r="NO19" s="31"/>
+      <c r="NP19" s="31"/>
+      <c r="NQ19" s="31"/>
+      <c r="NR19" s="31"/>
+      <c r="NS19" s="31"/>
+      <c r="NT19" s="31"/>
+      <c r="NU19" s="31"/>
+      <c r="NV19" s="31"/>
+      <c r="NW19" s="31"/>
+      <c r="NX19" s="31"/>
+      <c r="NY19" s="31"/>
+      <c r="NZ19" s="31"/>
+      <c r="OA19" s="31"/>
+      <c r="OB19" s="31"/>
+      <c r="OC19" s="31"/>
+      <c r="OD19" s="31"/>
+      <c r="OE19" s="31"/>
+      <c r="OF19" s="31"/>
+      <c r="OG19" s="31"/>
+      <c r="OH19" s="31"/>
+      <c r="OI19" s="31"/>
+      <c r="OJ19" s="31"/>
+      <c r="OK19" s="31"/>
+      <c r="OL19" s="31"/>
+      <c r="OM19" s="31"/>
+      <c r="ON19" s="31"/>
+      <c r="OO19" s="31"/>
+      <c r="OP19" s="31"/>
+      <c r="OQ19" s="31"/>
+      <c r="OR19" s="31"/>
+      <c r="OS19" s="31"/>
+      <c r="OT19" s="31"/>
+      <c r="OU19" s="31"/>
+      <c r="OV19" s="31"/>
+      <c r="OW19" s="31"/>
+      <c r="OX19" s="31"/>
+      <c r="OY19" s="31"/>
+      <c r="OZ19" s="31"/>
+      <c r="PA19" s="31"/>
+      <c r="PB19" s="31"/>
+      <c r="PC19" s="31"/>
+      <c r="PD19" s="31"/>
+      <c r="PE19" s="31"/>
+      <c r="PF19" s="31"/>
+      <c r="PG19" s="31"/>
+      <c r="PH19" s="31"/>
+      <c r="PI19" s="31"/>
+      <c r="PJ19" s="31"/>
+      <c r="PK19" s="31"/>
+      <c r="PL19" s="31"/>
+      <c r="PM19" s="31"/>
+      <c r="PN19" s="31"/>
+      <c r="PO19" s="31"/>
+      <c r="PP19" s="31"/>
+      <c r="PQ19" s="31"/>
+      <c r="PR19" s="31"/>
+      <c r="PS19" s="31"/>
+      <c r="PT19" s="31"/>
+      <c r="PU19" s="31"/>
+      <c r="PV19" s="31"/>
+      <c r="PW19" s="31"/>
+      <c r="PX19" s="31"/>
+      <c r="PY19" s="31"/>
+      <c r="PZ19" s="31"/>
+      <c r="QA19" s="31"/>
+      <c r="QB19" s="31"/>
+      <c r="QC19" s="31"/>
+      <c r="QD19" s="31"/>
+      <c r="QE19" s="31"/>
+      <c r="QF19" s="31"/>
+      <c r="QG19" s="31"/>
+      <c r="QH19" s="31"/>
+      <c r="QI19" s="31"/>
+      <c r="QJ19" s="31"/>
+      <c r="QK19" s="31"/>
+      <c r="QL19" s="31"/>
+      <c r="QM19" s="31"/>
+      <c r="QN19" s="31"/>
+      <c r="QO19" s="31"/>
+      <c r="QP19" s="31"/>
+      <c r="QQ19" s="31"/>
+      <c r="QR19" s="31"/>
+      <c r="QS19" s="31"/>
+      <c r="QT19" s="31"/>
+      <c r="QU19" s="31"/>
+      <c r="QV19" s="31"/>
+      <c r="QW19" s="31"/>
+      <c r="QX19" s="31"/>
+      <c r="QY19" s="31"/>
+      <c r="QZ19" s="31"/>
+      <c r="RA19" s="31"/>
+      <c r="RB19" s="31"/>
+      <c r="RC19" s="31"/>
+      <c r="RD19" s="31"/>
+      <c r="RE19" s="31"/>
+      <c r="RF19" s="31"/>
+      <c r="RG19" s="31"/>
+      <c r="RH19" s="31"/>
+      <c r="RI19" s="31"/>
+      <c r="RJ19" s="31"/>
+      <c r="RK19" s="31"/>
+      <c r="RL19" s="31"/>
+      <c r="RM19" s="31"/>
+      <c r="RN19" s="31"/>
+      <c r="RO19" s="31"/>
+      <c r="RP19" s="31"/>
+      <c r="RQ19" s="31"/>
+      <c r="RR19" s="31"/>
+      <c r="RS19" s="31"/>
+      <c r="RT19" s="31"/>
+      <c r="RU19" s="31"/>
+      <c r="RV19" s="31"/>
+      <c r="RW19" s="31"/>
+      <c r="RX19" s="31"/>
+      <c r="RY19" s="31"/>
+      <c r="RZ19" s="31"/>
+      <c r="SA19" s="31"/>
+      <c r="SB19" s="31"/>
+      <c r="SC19" s="31"/>
+      <c r="SD19" s="31"/>
+      <c r="SE19" s="31"/>
+      <c r="SF19" s="31"/>
+      <c r="SG19" s="31"/>
+      <c r="SH19" s="31"/>
+      <c r="SI19" s="31"/>
+      <c r="SJ19" s="31"/>
+      <c r="SK19" s="31"/>
+      <c r="SL19" s="31"/>
+      <c r="SM19" s="31"/>
+      <c r="SN19" s="31"/>
+      <c r="SO19" s="31"/>
+      <c r="SP19" s="31"/>
+      <c r="SQ19" s="31"/>
+      <c r="SR19" s="31"/>
+      <c r="SS19" s="31"/>
+      <c r="ST19" s="31"/>
+      <c r="SU19" s="31"/>
+      <c r="SV19" s="31"/>
+      <c r="SW19" s="31"/>
+      <c r="SX19" s="31"/>
+      <c r="SY19" s="31"/>
+      <c r="SZ19" s="31"/>
+      <c r="TA19" s="31"/>
+      <c r="TB19" s="31"/>
+      <c r="TC19" s="31"/>
+      <c r="TD19" s="31"/>
+      <c r="TE19" s="31"/>
+      <c r="TF19" s="31"/>
+      <c r="TG19" s="31"/>
+      <c r="TH19" s="31"/>
+      <c r="TI19" s="31"/>
+      <c r="TJ19" s="31"/>
+      <c r="TK19" s="31"/>
+      <c r="TL19" s="31"/>
+      <c r="TM19" s="31"/>
+      <c r="TN19" s="31"/>
+      <c r="TO19" s="31"/>
+      <c r="TP19" s="31"/>
+      <c r="TQ19" s="31"/>
+      <c r="TR19" s="31"/>
+      <c r="TS19" s="31"/>
+      <c r="TT19" s="31"/>
+      <c r="TU19" s="31"/>
+      <c r="TV19" s="31"/>
+      <c r="TW19" s="31"/>
+      <c r="TX19" s="31"/>
+      <c r="TY19" s="31"/>
+      <c r="TZ19" s="31"/>
+      <c r="UA19" s="31"/>
+      <c r="UB19" s="31"/>
+      <c r="UC19" s="31"/>
+      <c r="UD19" s="31"/>
+      <c r="UE19" s="31"/>
+      <c r="UF19" s="31"/>
+      <c r="UG19" s="31"/>
+      <c r="UH19" s="31"/>
+      <c r="UI19" s="31"/>
+      <c r="UJ19" s="31"/>
+      <c r="UK19" s="31"/>
+      <c r="UL19" s="31"/>
+      <c r="UM19" s="31"/>
+      <c r="UN19" s="31"/>
+      <c r="UO19" s="31"/>
+      <c r="UP19" s="31"/>
+      <c r="UQ19" s="31"/>
+      <c r="UR19" s="31"/>
+      <c r="US19" s="31"/>
+      <c r="UT19" s="31"/>
+      <c r="UU19" s="31"/>
+      <c r="UV19" s="31"/>
+      <c r="UW19" s="31"/>
+      <c r="UX19" s="31"/>
+      <c r="UY19" s="31"/>
+      <c r="UZ19" s="31"/>
+      <c r="VA19" s="31"/>
+      <c r="VB19" s="31"/>
+      <c r="VC19" s="31"/>
+      <c r="VD19" s="31"/>
+      <c r="VE19" s="31"/>
+      <c r="VF19" s="31"/>
+      <c r="VG19" s="31"/>
+      <c r="VH19" s="31"/>
+      <c r="VI19" s="31"/>
+      <c r="VJ19" s="31"/>
+      <c r="VK19" s="31"/>
+      <c r="VL19" s="31"/>
+      <c r="VM19" s="31"/>
+      <c r="VN19" s="31"/>
+      <c r="VO19" s="31"/>
+      <c r="VP19" s="31"/>
+      <c r="VQ19" s="31"/>
+      <c r="VR19" s="31"/>
+      <c r="VS19" s="31"/>
+      <c r="VT19" s="31"/>
+      <c r="VU19" s="31"/>
+      <c r="VV19" s="31"/>
+      <c r="VW19" s="31"/>
+      <c r="VX19" s="31"/>
+      <c r="VY19" s="31"/>
+      <c r="VZ19" s="31"/>
+      <c r="WA19" s="31"/>
+      <c r="WB19" s="31"/>
+      <c r="WC19" s="31"/>
+      <c r="WD19" s="31"/>
+      <c r="WE19" s="31"/>
+      <c r="WF19" s="31"/>
+      <c r="WG19" s="31"/>
+      <c r="WH19" s="31"/>
+      <c r="WI19" s="31"/>
+      <c r="WJ19" s="31"/>
+      <c r="WK19" s="31"/>
+      <c r="WL19" s="31"/>
+      <c r="WM19" s="31"/>
+      <c r="WN19" s="31"/>
+      <c r="WO19" s="31"/>
+      <c r="WP19" s="31"/>
+      <c r="WQ19" s="31"/>
+      <c r="WR19" s="31"/>
+      <c r="WS19" s="31"/>
+      <c r="WT19" s="31"/>
+      <c r="WU19" s="31"/>
+      <c r="WV19" s="31"/>
+      <c r="WW19" s="31"/>
+      <c r="WX19" s="31"/>
+      <c r="WY19" s="31"/>
+      <c r="WZ19" s="31"/>
+      <c r="XA19" s="31"/>
+      <c r="XB19" s="31"/>
+      <c r="XC19" s="31"/>
+      <c r="XD19" s="31"/>
+      <c r="XE19" s="31"/>
+      <c r="XF19" s="31"/>
+      <c r="XG19" s="31"/>
+      <c r="XH19" s="31"/>
+      <c r="XI19" s="31"/>
+      <c r="XJ19" s="31"/>
+      <c r="XK19" s="31"/>
+      <c r="XL19" s="31"/>
+      <c r="XM19" s="31"/>
+      <c r="XN19" s="31"/>
+      <c r="XO19" s="31"/>
+      <c r="XP19" s="31"/>
+      <c r="XQ19" s="31"/>
+      <c r="XR19" s="31"/>
+      <c r="XS19" s="31"/>
+      <c r="XT19" s="31"/>
+      <c r="XU19" s="31"/>
+      <c r="XV19" s="31"/>
+      <c r="XW19" s="31"/>
+      <c r="XX19" s="31"/>
+      <c r="XY19" s="31"/>
+      <c r="XZ19" s="31"/>
+      <c r="YA19" s="31"/>
+      <c r="YB19" s="31"/>
+      <c r="YC19" s="31"/>
+      <c r="YD19" s="31"/>
+      <c r="YE19" s="31"/>
+      <c r="YF19" s="31"/>
+      <c r="YG19" s="31"/>
+      <c r="YH19" s="31"/>
+      <c r="YI19" s="31"/>
+      <c r="YJ19" s="31"/>
+      <c r="YK19" s="31"/>
+      <c r="YL19" s="31"/>
+      <c r="YM19" s="31"/>
+      <c r="YN19" s="31"/>
+      <c r="YO19" s="31"/>
+      <c r="YP19" s="31"/>
+      <c r="YQ19" s="31"/>
+      <c r="YR19" s="31"/>
+      <c r="YS19" s="31"/>
+      <c r="YT19" s="31"/>
+      <c r="YU19" s="31"/>
+      <c r="YV19" s="31"/>
+      <c r="YW19" s="31"/>
+      <c r="YX19" s="31"/>
+      <c r="YY19" s="31"/>
+      <c r="YZ19" s="31"/>
+      <c r="ZA19" s="31"/>
+      <c r="ZB19" s="31"/>
+      <c r="ZC19" s="31"/>
+      <c r="ZD19" s="31"/>
+      <c r="ZE19" s="31"/>
+      <c r="ZF19" s="31"/>
+      <c r="ZG19" s="31"/>
+      <c r="ZH19" s="31"/>
+      <c r="ZI19" s="31"/>
+      <c r="ZJ19" s="31"/>
+      <c r="ZK19" s="31"/>
+      <c r="ZL19" s="31"/>
+      <c r="ZM19" s="31"/>
+      <c r="ZN19" s="31"/>
+      <c r="ZO19" s="31"/>
+      <c r="ZP19" s="31"/>
+      <c r="ZQ19" s="31"/>
+      <c r="ZR19" s="31"/>
+      <c r="ZS19" s="31"/>
+      <c r="ZT19" s="31"/>
+      <c r="ZU19" s="31"/>
+      <c r="ZV19" s="31"/>
+      <c r="ZW19" s="31"/>
+      <c r="ZX19" s="31"/>
+      <c r="ZY19" s="31"/>
+      <c r="ZZ19" s="31"/>
+      <c r="AAA19" s="31"/>
+      <c r="AAB19" s="31"/>
+      <c r="AAC19" s="31"/>
+      <c r="AAD19" s="31"/>
+      <c r="AAE19" s="31"/>
+      <c r="AAF19" s="31"/>
+      <c r="AAG19" s="31"/>
+      <c r="AAH19" s="31"/>
+      <c r="AAI19" s="31"/>
+      <c r="AAJ19" s="31"/>
+      <c r="AAK19" s="31"/>
+      <c r="AAL19" s="31"/>
+      <c r="AAM19" s="31"/>
+      <c r="AAN19" s="31"/>
+      <c r="AAO19" s="31"/>
+      <c r="AAP19" s="31"/>
+      <c r="AAQ19" s="31"/>
+      <c r="AAR19" s="31"/>
+      <c r="AAS19" s="31"/>
+      <c r="AAT19" s="31"/>
+      <c r="AAU19" s="31"/>
+      <c r="AAV19" s="31"/>
+      <c r="AAW19" s="31"/>
+      <c r="AAX19" s="31"/>
+      <c r="AAY19" s="31"/>
+      <c r="AAZ19" s="31"/>
+      <c r="ABA19" s="31"/>
+      <c r="ABB19" s="31"/>
+      <c r="ABC19" s="31"/>
+      <c r="ABD19" s="31"/>
+      <c r="ABE19" s="31"/>
+      <c r="ABF19" s="31"/>
+      <c r="ABG19" s="31"/>
+      <c r="ABH19" s="31"/>
+      <c r="ABI19" s="31"/>
+      <c r="ABJ19" s="31"/>
+      <c r="ABK19" s="31"/>
+      <c r="ABL19" s="31"/>
+      <c r="ABM19" s="31"/>
+      <c r="ABN19" s="31"/>
+      <c r="ABO19" s="31"/>
+      <c r="ABP19" s="31"/>
+      <c r="ABQ19" s="31"/>
+      <c r="ABR19" s="31"/>
+      <c r="ABS19" s="31"/>
+      <c r="ABT19" s="31"/>
+      <c r="ABU19" s="31"/>
+      <c r="ABV19" s="31"/>
+      <c r="ABW19" s="31"/>
+      <c r="ABX19" s="31"/>
+      <c r="ABY19" s="31"/>
+      <c r="ABZ19" s="31"/>
+      <c r="ACA19" s="31"/>
+      <c r="ACB19" s="31"/>
+    </row>
+    <row r="20" spans="1:756" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="30">
+        <v>194</v>
+      </c>
+      <c r="H20" s="30">
+        <v>704</v>
+      </c>
+      <c r="I20" s="30">
+        <v>335</v>
+      </c>
+      <c r="J20" s="30">
+        <v>941</v>
+      </c>
+      <c r="K20" s="31">
+        <f>J20*1.5</f>
+        <v>1411.5</v>
+      </c>
+      <c r="L20" s="31">
+        <f t="shared" ref="L20:P20" si="2">K20*1.5</f>
+        <v>2117.25</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" si="2"/>
+        <v>3175.875</v>
+      </c>
+      <c r="N20" s="31">
+        <f t="shared" si="2"/>
+        <v>4763.8125</v>
+      </c>
+      <c r="O20" s="31">
+        <f t="shared" si="2"/>
+        <v>7145.71875</v>
+      </c>
+      <c r="P20" s="31">
+        <f t="shared" si="2"/>
+        <v>10718.578125</v>
+      </c>
+      <c r="Q20" s="31">
+        <f>P20*(1+$M$40)</f>
+        <v>12004.807500000001</v>
+      </c>
+      <c r="R20" s="31">
+        <f t="shared" ref="R20:BW20" si="3">Q20*(1+$M$40)</f>
+        <v>13445.384400000003</v>
+      </c>
+      <c r="S20" s="31">
+        <f t="shared" si="3"/>
+        <v>15058.830528000004</v>
+      </c>
+      <c r="T20" s="31">
+        <f t="shared" si="3"/>
+        <v>16865.890191360006</v>
+      </c>
+      <c r="U20" s="31">
+        <f t="shared" si="3"/>
+        <v>18889.797014323209</v>
+      </c>
+      <c r="V20" s="31">
+        <f t="shared" si="3"/>
+        <v>21156.572656041997</v>
+      </c>
+      <c r="W20" s="31">
+        <f t="shared" si="3"/>
+        <v>23695.361374767039</v>
+      </c>
+      <c r="X20" s="31">
+        <f t="shared" si="3"/>
+        <v>26538.804739739087</v>
+      </c>
+      <c r="Y20" s="31">
+        <f t="shared" si="3"/>
+        <v>29723.46130850778</v>
+      </c>
+      <c r="Z20" s="31">
+        <f t="shared" si="3"/>
+        <v>33290.27666552872</v>
+      </c>
+      <c r="AA20" s="31">
+        <f t="shared" si="3"/>
+        <v>37285.109865392173</v>
+      </c>
+      <c r="AB20" s="31">
+        <f t="shared" si="3"/>
+        <v>41759.323049239239</v>
+      </c>
+      <c r="AC20" s="31">
+        <f t="shared" si="3"/>
+        <v>46770.441815147955</v>
+      </c>
+      <c r="AD20" s="31">
+        <f t="shared" si="3"/>
+        <v>52382.894832965714</v>
+      </c>
+      <c r="AE20" s="31">
+        <f t="shared" si="3"/>
+        <v>58668.842212921605</v>
+      </c>
+      <c r="AF20" s="31">
+        <f t="shared" si="3"/>
+        <v>65709.103278472205</v>
+      </c>
+      <c r="AG20" s="31">
+        <f t="shared" si="3"/>
+        <v>73594.195671888883</v>
+      </c>
+      <c r="AH20" s="31">
+        <f t="shared" si="3"/>
+        <v>82425.499152515564</v>
+      </c>
+      <c r="AI20" s="31">
+        <f t="shared" si="3"/>
+        <v>92316.559050817435</v>
+      </c>
+      <c r="AJ20" s="31">
+        <f t="shared" si="3"/>
+        <v>103394.54613691554</v>
+      </c>
+      <c r="AK20" s="31">
+        <f t="shared" si="3"/>
+        <v>115801.89167334541</v>
+      </c>
+      <c r="AL20" s="31">
+        <f t="shared" si="3"/>
+        <v>129698.11867414687</v>
+      </c>
+      <c r="AM20" s="31">
+        <f t="shared" si="3"/>
+        <v>145261.8929150445</v>
+      </c>
+      <c r="AN20" s="31">
+        <f t="shared" si="3"/>
+        <v>162693.32006484986</v>
+      </c>
+      <c r="AO20" s="31">
+        <f t="shared" si="3"/>
+        <v>182216.51847263187</v>
+      </c>
+      <c r="AP20" s="31">
+        <f t="shared" si="3"/>
+        <v>204082.50068934771</v>
+      </c>
+      <c r="AQ20" s="31">
+        <f t="shared" si="3"/>
+        <v>228572.40077206946</v>
+      </c>
+      <c r="AR20" s="31">
+        <f t="shared" si="3"/>
+        <v>256001.08886471784</v>
+      </c>
+      <c r="AS20" s="31">
+        <f t="shared" si="3"/>
+        <v>286721.21952848398</v>
+      </c>
+      <c r="AT20" s="31">
+        <f t="shared" si="3"/>
+        <v>321127.76587190211</v>
+      </c>
+      <c r="AU20" s="31">
+        <f t="shared" si="3"/>
+        <v>359663.09777653043</v>
+      </c>
+      <c r="AV20" s="31">
+        <f t="shared" si="3"/>
+        <v>402822.66950971412</v>
+      </c>
+      <c r="AW20" s="31">
+        <f t="shared" si="3"/>
+        <v>451161.38985087984</v>
+      </c>
+      <c r="AX20" s="31">
+        <f t="shared" si="3"/>
+        <v>505300.75663298549</v>
+      </c>
+      <c r="AY20" s="31">
+        <f t="shared" si="3"/>
+        <v>565936.84742894385</v>
+      </c>
+      <c r="AZ20" s="31">
+        <f t="shared" si="3"/>
+        <v>633849.26912041719</v>
+      </c>
+      <c r="BA20" s="31">
+        <f t="shared" si="3"/>
+        <v>709911.18141486729</v>
+      </c>
+      <c r="BB20" s="31">
+        <f t="shared" si="3"/>
+        <v>795100.52318465139</v>
+      </c>
+      <c r="BC20" s="31">
+        <f t="shared" si="3"/>
+        <v>890512.58596680965</v>
+      </c>
+      <c r="BD20" s="31">
+        <f t="shared" si="3"/>
+        <v>997374.09628282685</v>
+      </c>
+      <c r="BE20" s="31">
+        <f t="shared" si="3"/>
+        <v>1117058.9878367663</v>
+      </c>
+      <c r="BF20" s="31">
+        <f t="shared" si="3"/>
+        <v>1251106.0663771783</v>
+      </c>
+      <c r="BG20" s="31">
+        <f t="shared" si="3"/>
+        <v>1401238.7943424399</v>
+      </c>
+      <c r="BH20" s="31">
+        <f t="shared" si="3"/>
+        <v>1569387.4496635329</v>
+      </c>
+      <c r="BI20" s="31">
+        <f t="shared" si="3"/>
+        <v>1757713.943623157</v>
+      </c>
+      <c r="BJ20" s="31">
+        <f t="shared" si="3"/>
+        <v>1968639.6168579359</v>
+      </c>
+      <c r="BK20" s="31">
+        <f t="shared" si="3"/>
+        <v>2204876.3708808883</v>
+      </c>
+      <c r="BL20" s="31">
+        <f t="shared" si="3"/>
+        <v>2469461.5353865949</v>
+      </c>
+      <c r="BM20" s="31">
+        <f t="shared" si="3"/>
+        <v>2765796.9196329867</v>
+      </c>
+      <c r="BN20" s="31">
+        <f t="shared" si="3"/>
+        <v>3097692.5499889455</v>
+      </c>
+      <c r="BO20" s="31">
+        <f t="shared" si="3"/>
+        <v>3469415.6559876194</v>
+      </c>
+      <c r="BP20" s="31">
+        <f t="shared" si="3"/>
+        <v>3885745.5347061343</v>
+      </c>
+      <c r="BQ20" s="31">
+        <f t="shared" si="3"/>
+        <v>4352034.998870871</v>
+      </c>
+      <c r="BR20" s="31">
+        <f t="shared" si="3"/>
+        <v>4874279.1987353759</v>
+      </c>
+      <c r="BS20" s="31">
+        <f t="shared" si="3"/>
+        <v>5459192.7025836213</v>
+      </c>
+      <c r="BT20" s="31">
+        <f t="shared" si="3"/>
+        <v>6114295.8268936565</v>
+      </c>
+      <c r="BU20" s="31">
+        <f t="shared" si="3"/>
+        <v>6848011.3261208963</v>
+      </c>
+      <c r="BV20" s="31">
+        <f t="shared" si="3"/>
+        <v>7669772.6852554046</v>
+      </c>
+      <c r="BW20" s="31">
+        <f t="shared" si="3"/>
+        <v>8590145.4074860532</v>
+      </c>
+      <c r="BX20" s="31">
+        <f t="shared" ref="BX20:EI20" si="4">BW20*(1+$M$40)</f>
+        <v>9620962.8563843798</v>
+      </c>
+      <c r="BY20" s="31">
+        <f t="shared" si="4"/>
+        <v>10775478.399150506</v>
+      </c>
+      <c r="BZ20" s="31">
+        <f t="shared" si="4"/>
+        <v>12068535.807048567</v>
+      </c>
+      <c r="CA20" s="31">
+        <f t="shared" si="4"/>
+        <v>13516760.103894396</v>
+      </c>
+      <c r="CB20" s="31">
+        <f t="shared" si="4"/>
+        <v>15138771.316361725</v>
+      </c>
+      <c r="CC20" s="31">
+        <f t="shared" si="4"/>
+        <v>16955423.874325134</v>
+      </c>
+      <c r="CD20" s="31">
+        <f t="shared" si="4"/>
+        <v>18990074.739244152</v>
+      </c>
+      <c r="CE20" s="31">
+        <f t="shared" si="4"/>
+        <v>21268883.707953453</v>
+      </c>
+      <c r="CF20" s="31">
+        <f t="shared" si="4"/>
+        <v>23821149.752907868</v>
+      </c>
+      <c r="CG20" s="31">
+        <f t="shared" si="4"/>
+        <v>26679687.723256815</v>
+      </c>
+      <c r="CH20" s="31">
+        <f t="shared" si="4"/>
+        <v>29881250.250047635</v>
+      </c>
+      <c r="CI20" s="31">
+        <f t="shared" si="4"/>
+        <v>33467000.280053355</v>
+      </c>
+      <c r="CJ20" s="31">
+        <f t="shared" si="4"/>
+        <v>37483040.313659757</v>
+      </c>
+      <c r="CK20" s="31">
+        <f t="shared" si="4"/>
+        <v>41981005.151298933</v>
+      </c>
+      <c r="CL20" s="31">
+        <f t="shared" si="4"/>
+        <v>47018725.769454807</v>
+      </c>
+      <c r="CM20" s="31">
+        <f t="shared" si="4"/>
+        <v>52660972.86178939</v>
+      </c>
+      <c r="CN20" s="31">
+        <f t="shared" si="4"/>
+        <v>58980289.60520412</v>
+      </c>
+      <c r="CO20" s="31">
+        <f t="shared" si="4"/>
+        <v>66057924.357828625</v>
+      </c>
+      <c r="CP20" s="31">
+        <f t="shared" si="4"/>
+        <v>73984875.280768067</v>
+      </c>
+      <c r="CQ20" s="31">
+        <f t="shared" si="4"/>
+        <v>82863060.314460248</v>
+      </c>
+      <c r="CR20" s="31">
+        <f t="shared" si="4"/>
+        <v>92806627.552195489</v>
+      </c>
+      <c r="CS20" s="31">
+        <f t="shared" si="4"/>
+        <v>103943422.85845895</v>
+      </c>
+      <c r="CT20" s="31">
+        <f t="shared" si="4"/>
+        <v>116416633.60147403</v>
+      </c>
+      <c r="CU20" s="31">
+        <f t="shared" si="4"/>
+        <v>130386629.63365093</v>
+      </c>
+      <c r="CV20" s="31">
+        <f t="shared" si="4"/>
+        <v>146033025.18968904</v>
+      </c>
+      <c r="CW20" s="31">
+        <f t="shared" si="4"/>
+        <v>163556988.21245173</v>
+      </c>
+      <c r="CX20" s="31">
+        <f t="shared" si="4"/>
+        <v>183183826.79794595</v>
+      </c>
+      <c r="CY20" s="31">
+        <f t="shared" si="4"/>
+        <v>205165886.01369947</v>
+      </c>
+      <c r="CZ20" s="31">
+        <f t="shared" si="4"/>
+        <v>229785792.33534342</v>
+      </c>
+      <c r="DA20" s="31">
+        <f t="shared" si="4"/>
+        <v>257360087.41558465</v>
+      </c>
+      <c r="DB20" s="31">
+        <f t="shared" si="4"/>
+        <v>288243297.90545481</v>
+      </c>
+      <c r="DC20" s="31">
+        <f t="shared" si="4"/>
+        <v>322832493.65410942</v>
+      </c>
+      <c r="DD20" s="31">
+        <f t="shared" si="4"/>
+        <v>361572392.89260256</v>
+      </c>
+      <c r="DE20" s="31">
+        <f t="shared" si="4"/>
+        <v>404961080.03971493</v>
+      </c>
+      <c r="DF20" s="31">
+        <f t="shared" si="4"/>
+        <v>453556409.64448076</v>
+      </c>
+      <c r="DG20" s="31">
+        <f t="shared" si="4"/>
+        <v>507983178.80181849</v>
+      </c>
+      <c r="DH20" s="31">
+        <f t="shared" si="4"/>
+        <v>568941160.25803673</v>
+      </c>
+      <c r="DI20" s="31">
+        <f t="shared" si="4"/>
+        <v>637214099.48900115</v>
+      </c>
+      <c r="DJ20" s="31">
+        <f t="shared" si="4"/>
+        <v>713679791.42768133</v>
+      </c>
+      <c r="DK20" s="31">
+        <f t="shared" si="4"/>
+        <v>799321366.39900315</v>
+      </c>
+      <c r="DL20" s="31">
+        <f t="shared" si="4"/>
+        <v>895239930.36688364</v>
+      </c>
+      <c r="DM20" s="31">
+        <f t="shared" si="4"/>
+        <v>1002668722.0109098</v>
+      </c>
+      <c r="DN20" s="31">
+        <f t="shared" si="4"/>
+        <v>1122988968.6522191</v>
+      </c>
+      <c r="DO20" s="31">
+        <f t="shared" si="4"/>
+        <v>1257747644.8904855</v>
+      </c>
+      <c r="DP20" s="31">
+        <f t="shared" si="4"/>
+        <v>1408677362.277344</v>
+      </c>
+      <c r="DQ20" s="31">
+        <f t="shared" si="4"/>
+        <v>1577718645.7506254</v>
+      </c>
+      <c r="DR20" s="31">
+        <f t="shared" si="4"/>
+        <v>1767044883.2407005</v>
+      </c>
+      <c r="DS20" s="31">
+        <f t="shared" si="4"/>
+        <v>1979090269.2295847</v>
+      </c>
+      <c r="DT20" s="31">
+        <f t="shared" si="4"/>
+        <v>2216581101.5371351</v>
+      </c>
+      <c r="DU20" s="31">
+        <f t="shared" si="4"/>
+        <v>2482570833.7215915</v>
+      </c>
+      <c r="DV20" s="31">
+        <f t="shared" si="4"/>
+        <v>2780479333.7681828</v>
+      </c>
+      <c r="DW20" s="31">
+        <f t="shared" si="4"/>
+        <v>3114136853.820365</v>
+      </c>
+      <c r="DX20" s="31">
+        <f t="shared" si="4"/>
+        <v>3487833276.2788091</v>
+      </c>
+      <c r="DY20" s="31">
+        <f t="shared" si="4"/>
+        <v>3906373269.4322667</v>
+      </c>
+      <c r="DZ20" s="31">
+        <f t="shared" si="4"/>
+        <v>4375138061.7641392</v>
+      </c>
+      <c r="EA20" s="31">
+        <f t="shared" si="4"/>
+        <v>4900154629.1758366</v>
+      </c>
+      <c r="EB20" s="31">
+        <f t="shared" si="4"/>
+        <v>5488173184.6769371</v>
+      </c>
+      <c r="EC20" s="31">
+        <f t="shared" si="4"/>
+        <v>6146753966.8381701</v>
+      </c>
+      <c r="ED20" s="31">
+        <f t="shared" si="4"/>
+        <v>6884364442.8587513</v>
+      </c>
+      <c r="EE20" s="31">
+        <f t="shared" si="4"/>
+        <v>7710488176.0018024</v>
+      </c>
+      <c r="EF20" s="31">
+        <f t="shared" si="4"/>
+        <v>8635746757.1220188</v>
+      </c>
+      <c r="EG20" s="31">
+        <f t="shared" si="4"/>
+        <v>9672036367.9766617</v>
+      </c>
+      <c r="EH20" s="31">
+        <f t="shared" si="4"/>
+        <v>10832680732.133862</v>
+      </c>
+      <c r="EI20" s="31">
+        <f t="shared" si="4"/>
+        <v>12132602419.989925</v>
+      </c>
+      <c r="EJ20" s="31">
+        <f t="shared" ref="EJ20:EV20" si="5">EI20*(1+$M$40)</f>
+        <v>13588514710.388718</v>
+      </c>
+      <c r="EK20" s="31">
+        <f t="shared" si="5"/>
+        <v>15219136475.635365</v>
+      </c>
+      <c r="EL20" s="31">
+        <f t="shared" si="5"/>
+        <v>17045432852.711611</v>
+      </c>
+      <c r="EM20" s="31">
+        <f t="shared" si="5"/>
+        <v>19090884795.037006</v>
+      </c>
+      <c r="EN20" s="31">
+        <f t="shared" si="5"/>
+        <v>21381790970.441448</v>
+      </c>
+      <c r="EO20" s="31">
+        <f t="shared" si="5"/>
+        <v>23947605886.894424</v>
+      </c>
+      <c r="EP20" s="31">
+        <f t="shared" si="5"/>
+        <v>26821318593.321758</v>
+      </c>
+      <c r="EQ20" s="31">
+        <f t="shared" si="5"/>
+        <v>30039876824.52037</v>
+      </c>
+      <c r="ER20" s="31">
+        <f t="shared" si="5"/>
+        <v>33644662043.462818</v>
+      </c>
+      <c r="ES20" s="31">
+        <f t="shared" si="5"/>
+        <v>37682021488.67836</v>
+      </c>
+      <c r="ET20" s="31">
+        <f t="shared" si="5"/>
+        <v>42203864067.319771</v>
+      </c>
+      <c r="EU20" s="31">
+        <f t="shared" si="5"/>
+        <v>47268327755.398148</v>
+      </c>
+      <c r="EV20" s="31">
+        <f t="shared" si="5"/>
+        <v>52940527086.045929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="24">
+        <f t="shared" ref="C22:J22" si="6">C15/C25</f>
+        <v>1.2369318181818181</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="6"/>
+        <v>1.0267045454545454</v>
+      </c>
+      <c r="E22" s="24">
+        <f t="shared" si="6"/>
+        <v>0.63579545454545461</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="6"/>
+        <v>-0.19772727272727272</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="6"/>
+        <v>-2.1704545454545454</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="6"/>
+        <v>-2.1022727272727271</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="6"/>
+        <v>-6.8418079096045199</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B23" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="14">
-        <f>C15+C17</f>
-        <v>336</v>
-      </c>
-      <c r="D18" s="14">
-        <f>D15+D17</f>
-        <v>303.79999999999995</v>
-      </c>
-      <c r="E18" s="14">
-        <f>E15+E17</f>
-        <v>223.90000000000003</v>
-      </c>
-      <c r="F18" s="14">
-        <f>F15+F17</f>
-        <v>471.9</v>
-      </c>
-      <c r="G18" s="14">
-        <f>G15+G17</f>
-        <v>484</v>
-      </c>
-      <c r="H18" s="14">
-        <f>H15+H17</f>
-        <v>493</v>
-      </c>
-      <c r="I18" s="14">
-        <f>I15+I17</f>
-        <v>623</v>
-      </c>
-      <c r="J18" s="21">
-        <f>J15+J17</f>
-        <v>1428</v>
-      </c>
-      <c r="K18" s="14">
-        <f>J18*1.2</f>
-        <v>1713.6</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" ref="L18:M18" si="0">K18*1.2</f>
-        <v>2056.3199999999997</v>
-      </c>
-      <c r="M18" s="14">
-        <f t="shared" si="0"/>
-        <v>2467.5839999999994</v>
-      </c>
-      <c r="N18" s="14">
-        <f>M18*(1+$M$37)</f>
-        <v>2516.9356799999996</v>
-      </c>
-      <c r="O18" s="14">
-        <f>N18*(1+$M$37)</f>
-        <v>2567.2743935999997</v>
-      </c>
-      <c r="P18" s="14">
-        <f>O18*(1+$M$37)</f>
-        <v>2618.6198814719996</v>
-      </c>
-      <c r="Q18" s="14">
-        <f>P18*(1+$M$37)</f>
-        <v>2670.9922791014396</v>
-      </c>
-      <c r="R18" s="14">
-        <f>Q18*(1+$M$37)</f>
-        <v>2724.4121246834684</v>
-      </c>
-      <c r="S18" s="14">
-        <f>R18*(1+$M$37)</f>
-        <v>2778.9003671771379</v>
-      </c>
-      <c r="T18" s="14">
-        <f>S18*(1+$M$37)</f>
-        <v>2834.4783745206805</v>
-      </c>
-      <c r="U18" s="14">
-        <f>T18*(1+$M$37)</f>
-        <v>2891.1679420110941</v>
-      </c>
-      <c r="V18" s="14">
-        <f>U18*(1+$M$37)</f>
-        <v>2948.9913008513158</v>
-      </c>
-      <c r="W18" s="14">
-        <f>V18*(1+$M$37)</f>
-        <v>3007.9711268683423</v>
-      </c>
-      <c r="X18" s="14">
-        <f>W18*(1+$M$37)</f>
-        <v>3068.1305494057092</v>
-      </c>
-      <c r="Y18" s="14">
-        <f>X18*(1+$M$37)</f>
-        <v>3129.4931603938235</v>
-      </c>
-      <c r="Z18" s="14">
-        <f>Y18*(1+$M$37)</f>
-        <v>3192.0830236017</v>
-      </c>
-      <c r="AA18" s="14">
-        <f>Z18*(1+$M$37)</f>
-        <v>3255.9246840737342</v>
-      </c>
-      <c r="AB18" s="14">
-        <f>AA18*(1+$M$37)</f>
-        <v>3321.0431777552089</v>
-      </c>
-      <c r="AC18" s="14">
-        <f>AB18*(1+$M$37)</f>
-        <v>3387.4640413103134</v>
-      </c>
-      <c r="AD18" s="14">
-        <f>AC18*(1+$M$37)</f>
-        <v>3455.2133221365198</v>
-      </c>
-      <c r="AE18" s="14">
-        <f>AD18*(1+$M$37)</f>
-        <v>3524.3175885792502</v>
-      </c>
-      <c r="AF18" s="14">
-        <f>AE18*(1+$M$37)</f>
-        <v>3594.8039403508351</v>
-      </c>
-      <c r="AG18" s="14">
-        <f>AF18*(1+$M$37)</f>
-        <v>3666.7000191578518</v>
-      </c>
-      <c r="AH18" s="14">
-        <f>AG18*(1+$M$37)</f>
-        <v>3740.034019541009</v>
-      </c>
-      <c r="AI18" s="14">
-        <f>AH18*(1+$M$37)</f>
-        <v>3814.8346999318292</v>
-      </c>
-      <c r="AJ18" s="14">
-        <f>AI18*(1+$M$37)</f>
-        <v>3891.1313939304659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="19">
-        <f>C15/C23</f>
-        <v>1.2369318181818181</v>
-      </c>
-      <c r="D20" s="19">
-        <f>D15/D23</f>
-        <v>1.0267045454545454</v>
-      </c>
-      <c r="E20" s="19">
-        <f>E15/E23</f>
-        <v>0.63579545454545461</v>
-      </c>
-      <c r="F20" s="19">
-        <f>F15/F23</f>
-        <v>-0.19772727272727272</v>
-      </c>
-      <c r="G20" s="19">
-        <f>G15/G23</f>
-        <v>-2.1704545454545454</v>
-      </c>
-      <c r="H20" s="19">
-        <f>H15/H23</f>
-        <v>-2.1022727272727271</v>
-      </c>
-      <c r="I20" s="19">
-        <f>I15/I23</f>
-        <v>-6.8418079096045199</v>
-      </c>
-      <c r="J20" s="19">
-        <f>J15/J23</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="19">
-        <f>C18/C23</f>
+      <c r="C23" s="24">
+        <f t="shared" ref="C23:J23" si="7">C18/C25</f>
         <v>1.9090909090909092</v>
       </c>
-      <c r="D21" s="19">
-        <f>D18/D23</f>
+      <c r="D23" s="24">
+        <f t="shared" si="7"/>
         <v>1.7261363636363634</v>
       </c>
-      <c r="E21" s="19">
-        <f>E18/E23</f>
+      <c r="E23" s="24">
+        <f t="shared" si="7"/>
         <v>1.2721590909090912</v>
       </c>
-      <c r="F21" s="19">
-        <f>F18/F23</f>
+      <c r="F23" s="24">
+        <f t="shared" si="7"/>
         <v>2.6812499999999999</v>
       </c>
-      <c r="G21" s="19">
-        <f>G18/G23</f>
+      <c r="G23" s="24">
+        <f t="shared" si="7"/>
         <v>2.75</v>
       </c>
-      <c r="H21" s="19">
-        <f>H18/H23</f>
+      <c r="H23" s="24">
+        <f t="shared" si="7"/>
         <v>2.8011363636363638</v>
       </c>
-      <c r="I21" s="19">
-        <f>I18/I23</f>
+      <c r="I23" s="24">
+        <f t="shared" si="7"/>
         <v>3.5197740112994351</v>
       </c>
-      <c r="J21" s="19">
-        <f>J18/J23</f>
+      <c r="J23" s="24">
+        <f t="shared" si="7"/>
         <v>7.9333333333333336</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B22" s="12" t="s">
+    <row r="24" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C24" s="24">
         <f>Main!I7/C15</f>
-        <v>213.92448323380802</v>
-      </c>
-      <c r="D22" s="12">
+        <v>196.45383555351401</v>
+      </c>
+      <c r="D24" s="24">
         <f>Main!I7/D15</f>
-        <v>257.72750415052576</v>
-      </c>
-      <c r="E22" s="12">
+        <v>236.67957941339239</v>
+      </c>
+      <c r="E24" s="24">
         <f>Main!I7/E15</f>
-        <v>416.18731009830196</v>
-      </c>
-      <c r="F22" s="12">
+        <v>382.19839142091143</v>
+      </c>
+      <c r="F24" s="24">
         <f>Main!I7/F15</f>
-        <v>-1338.257471264368</v>
-      </c>
-      <c r="G22" s="12">
+        <v>-1228.9655172413793</v>
+      </c>
+      <c r="G24" s="24">
         <f>Main!I7/G15</f>
-        <v>-121.91455497382199</v>
-      </c>
-      <c r="H22" s="12">
+        <v>-111.95811518324608</v>
+      </c>
+      <c r="H24" s="24">
         <f>Main!I7/H15</f>
-        <v>-125.86854054054054</v>
-      </c>
-      <c r="I22" s="12">
+        <v>-115.58918918918918</v>
+      </c>
+      <c r="I24" s="24">
         <f>Main!I7/I15</f>
-        <v>-38.456944673823287</v>
-      </c>
-      <c r="J22" s="19">
+        <v>-35.316267547481424</v>
+      </c>
+      <c r="J24" s="24">
         <f>Main!I7/J15</f>
-        <v>287.47753086419755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B23" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C25" s="24">
         <v>176</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D25" s="24">
         <v>176</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E25" s="24">
         <v>176</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F25" s="24">
         <v>176</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G25" s="24">
         <v>176</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H25" s="24">
         <v>176</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I25" s="24">
         <v>177</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J25" s="24">
         <v>180</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B27" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="34">
+        <f t="shared" ref="D27:J27" si="8">(D4-C4)/C4</f>
+        <v>7.3106451243267964E-2</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" si="8"/>
+        <v>0.14255205552589428</v>
+      </c>
+      <c r="F27" s="34">
+        <f t="shared" si="8"/>
+        <v>1.0621495327102803</v>
+      </c>
+      <c r="G27" s="34">
+        <f t="shared" si="8"/>
+        <v>0.36777702243371857</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="8"/>
+        <v>0.56776010603048377</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="8"/>
+        <v>0.24590510408961216</v>
+      </c>
+      <c r="J27" s="34">
+        <f t="shared" si="8"/>
+        <v>0.19151823579304494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="8">
-        <f>(D4-C4)/C4</f>
-        <v>7.3106451243267964E-2</v>
-      </c>
-      <c r="E25" s="8">
-        <f>(E4-D4)/D4</f>
-        <v>0.14255205552589428</v>
-      </c>
-      <c r="F25" s="8">
-        <f>(F4-E4)/E4</f>
-        <v>1.0621495327102803</v>
-      </c>
-      <c r="G25" s="8">
-        <f>(G4-F4)/F4</f>
-        <v>0.36777702243371857</v>
-      </c>
-      <c r="H25" s="8">
-        <f>(H4-G4)/G4</f>
-        <v>0.56776010603048377</v>
-      </c>
-      <c r="I25" s="8">
-        <f>(I4-H4)/H4</f>
-        <v>0.24590510408961216</v>
-      </c>
-      <c r="J25" s="8">
-        <f>(J4-I4)/I4</f>
-        <v>0.19151823579304494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="D28" s="34">
         <f>(D18-C18)/C18</f>
         <v>-9.5833333333333465E-2</v>
       </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:J26" si="1">(E18-D18)/D18</f>
+      <c r="E28" s="34">
+        <f t="shared" ref="E28:J28" si="9">(E18-D18)/D18</f>
         <v>-0.26300197498354161</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="1"/>
+      <c r="F28" s="34">
+        <f t="shared" si="9"/>
         <v>1.1076373380973645</v>
       </c>
-      <c r="G26" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5641025641025692E-2</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
+      <c r="G28" s="34">
+        <f t="shared" si="9"/>
+        <v>2.5641025641025689E-2</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="9"/>
         <v>1.859504132231405E-2</v>
       </c>
-      <c r="I26" s="8">
-        <f t="shared" si="1"/>
+      <c r="I28" s="34">
+        <f t="shared" si="9"/>
         <v>0.26369168356997974</v>
       </c>
-      <c r="J26" s="8">
-        <f t="shared" si="1"/>
+      <c r="J28" s="34">
+        <f t="shared" si="9"/>
         <v>1.2921348314606742</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B29" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34">
+        <f>(H20-G20)/G20</f>
+        <v>2.6288659793814433</v>
+      </c>
+      <c r="I29" s="34">
+        <f>(I20-H20)/H20</f>
+        <v>-0.52414772727272729</v>
+      </c>
+      <c r="J29" s="34">
+        <f>(J20-I20)/I20</f>
+        <v>1.808955223880597</v>
+      </c>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B31" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="8">
-        <f>C6/C4</f>
+      <c r="C31" s="34">
+        <f t="shared" ref="C31:J31" si="10">C6/C4</f>
         <v>0.76773232496848853</v>
       </c>
-      <c r="D28" s="8">
-        <f>D6/D4</f>
+      <c r="D31" s="34">
+        <f t="shared" si="10"/>
         <v>0.74911906033101971</v>
       </c>
-      <c r="E28" s="8">
-        <f>E6/E4</f>
+      <c r="E31" s="34">
+        <f t="shared" si="10"/>
         <v>0.69616822429906544</v>
       </c>
-      <c r="F28" s="8">
-        <f>F6/F4</f>
+      <c r="F31" s="34">
+        <f t="shared" si="10"/>
         <v>0.65080444142306826</v>
       </c>
-      <c r="G28" s="8">
-        <f>G6/G4</f>
+      <c r="G31" s="34">
+        <f t="shared" si="10"/>
         <v>0.62524850894632211</v>
       </c>
-      <c r="H28" s="8">
-        <f>H6/H4</f>
+      <c r="H31" s="34">
+        <f t="shared" si="10"/>
         <v>0.49138750924653918</v>
       </c>
-      <c r="I28" s="8">
-        <f>I6/I4</f>
+      <c r="I31" s="34">
+        <f t="shared" si="10"/>
         <v>0.47396098388464802</v>
       </c>
-      <c r="J28" s="22">
-        <f>J6/J4</f>
+      <c r="J31" s="34">
+        <f t="shared" si="10"/>
         <v>0.4770785876993166</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+    <row r="32" spans="1:756" x14ac:dyDescent="0.2">
+      <c r="B32" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="8">
-        <f>C10/C4</f>
+      <c r="C32" s="34">
+        <f t="shared" ref="C32:J32" si="11">C10/C4</f>
         <v>0.1432336427180016</v>
       </c>
-      <c r="D29" s="8">
-        <f>D10/D4</f>
+      <c r="D32" s="34">
+        <f t="shared" si="11"/>
         <v>0.10923651895355045</v>
       </c>
-      <c r="E29" s="8">
-        <f>E10/E4</f>
+      <c r="E32" s="34">
+        <f t="shared" si="11"/>
         <v>7.0046728971962624E-2</v>
       </c>
-      <c r="F29" s="8">
-        <f>F10/F4</f>
+      <c r="F32" s="34">
+        <f t="shared" si="11"/>
         <v>2.3340131429866306E-2</v>
       </c>
-      <c r="G29" s="8">
-        <f>G10/G4</f>
+      <c r="G32" s="34">
+        <f t="shared" si="11"/>
         <v>-1.0437375745526839E-2</v>
       </c>
-      <c r="H29" s="8">
-        <f>H10/H4</f>
+      <c r="H32" s="34">
+        <f t="shared" si="11"/>
         <v>-9.2993765190742886E-3</v>
       </c>
-      <c r="I29" s="8">
-        <f>I10/I4</f>
+      <c r="I32" s="34">
+        <f t="shared" si="11"/>
         <v>-4.6564885496183206E-2</v>
       </c>
-      <c r="J29" s="22">
-        <f>J10/J4</f>
+      <c r="J32" s="34">
+        <f t="shared" si="11"/>
         <v>6.1859339407744872E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="8">
-        <f>C15/C4</f>
+      <c r="C33" s="34">
+        <f t="shared" ref="C33:J33" si="12">C15/C4</f>
         <v>0.12472785607883578</v>
       </c>
-      <c r="D30" s="8">
-        <f>D15/D4</f>
+      <c r="D33" s="34">
+        <f t="shared" si="12"/>
         <v>9.6476241324079018E-2</v>
       </c>
-      <c r="E30" s="8">
-        <f>E15/E4</f>
+      <c r="E33" s="34">
+        <f t="shared" si="12"/>
         <v>5.2289719626168234E-2</v>
       </c>
-      <c r="F30" s="8">
-        <f>F15/F4</f>
+      <c r="F33" s="34">
+        <f t="shared" si="12"/>
         <v>-7.8857919782460897E-3</v>
       </c>
-      <c r="G30" s="8">
-        <f>G15/G4</f>
+      <c r="G33" s="34">
+        <f t="shared" si="12"/>
         <v>-6.328694499668655E-2</v>
       </c>
-      <c r="H30" s="8">
-        <f>H15/H4</f>
+      <c r="H33" s="34">
+        <f t="shared" si="12"/>
         <v>-3.9099651273380533E-2</v>
       </c>
-      <c r="I30" s="8">
-        <f>I15/I4</f>
+      <c r="I33" s="34">
+        <f t="shared" si="12"/>
         <v>-0.10271416454622562</v>
       </c>
-      <c r="J30" s="22">
-        <f>J15/J4</f>
+      <c r="J33" s="34">
+        <f t="shared" si="12"/>
         <v>1.1531890660592256E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="8">
-        <f>C18/C4</f>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="34">
+        <f t="shared" ref="C34:J34" si="13">C18/C4</f>
         <v>0.19250601581299415</v>
       </c>
-      <c r="D31" s="8">
-        <f>D18/D4</f>
+      <c r="D34" s="34">
+        <f t="shared" si="13"/>
         <v>0.16219967965830218</v>
       </c>
-      <c r="E31" s="8">
-        <f>E18/E4</f>
+      <c r="E34" s="34">
+        <f t="shared" si="13"/>
         <v>0.10462616822429908</v>
       </c>
-      <c r="F31" s="8">
-        <f>F18/F4</f>
+      <c r="F34" s="34">
+        <f t="shared" si="13"/>
         <v>0.10693405846363017</v>
       </c>
-      <c r="G31" s="8">
-        <f>G18/G4</f>
+      <c r="G34" s="34">
+        <f t="shared" si="13"/>
         <v>8.0185553346587141E-2</v>
       </c>
-      <c r="H31" s="8">
-        <f>H18/H4</f>
+      <c r="H34" s="34">
+        <f t="shared" si="13"/>
         <v>5.2097643453450283E-2</v>
       </c>
-      <c r="I31" s="8">
-        <f>I18/I4</f>
+      <c r="I34" s="34">
+        <f t="shared" si="13"/>
         <v>5.2841391009329941E-2</v>
       </c>
-      <c r="J31" s="22">
-        <f>J18/J4</f>
+      <c r="J34" s="34">
+        <f t="shared" si="13"/>
         <v>0.10165148063781321</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
+      <c r="E35" s="34"/>
+      <c r="F35" s="34">
         <f>(F3-E3)/E3</f>
         <v>0.18518518518518517</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G35" s="34">
         <f>(G3-F3)/F3</f>
         <v>0.1875</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H35" s="34">
         <f>(H3-G3)/G3</f>
         <v>0.34802631578947368</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I35" s="34">
         <f>(I3-H3)/H3</f>
         <v>0.20302586627623231</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J35" s="34">
         <f>(J3-I3)/I3</f>
         <v>0.12762677484787019</v>
       </c>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L36" s="1" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L39" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39" s="35">
+        <f>WACC!C3</f>
+        <v>0.16608090288315625</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L40" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="35">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L41" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="M36" s="9">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L38" s="1" t="s">
+      <c r="M41" s="24">
+        <f>NPV(M39, G20:EV20)</f>
+        <v>65290.166162172354</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="M38" s="12">
-        <f>NPV(M36, C18:AJ18)</f>
-        <v>18898.554954931216</v>
-      </c>
-    </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M39" s="12">
-        <f>M38/Main!I6</f>
-        <v>107.37815315301827</v>
+      <c r="M42" s="24">
+        <f>M41/Main!I5</f>
+        <v>268.68381136696445</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M44" s="35">
+        <f>Main!I5/M42</f>
+        <v>0.90440878727938745</v>
       </c>
     </row>
   </sheetData>
@@ -2999,23 +5104,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23E2C75-DEB6-EB40-AB5E-6BD2AE248C15}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
@@ -3031,246 +5138,311 @@
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+      <c r="I2" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>3397</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="14">
+      <c r="E4" s="12">
+        <v>3611</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="H4" s="12">
         <v>3665</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="12">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>1793</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12">
+      <c r="E5" s="10">
+        <v>1835</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10">
         <v>1956</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="10">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f>D4-D5</f>
         <v>1604</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
+      <c r="E6" s="10">
+        <f>E4-E5</f>
+        <v>1776</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <f>H4-H5</f>
         <v>1709</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="10">
+        <f>I4-I5</f>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>190</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="E7" s="10">
+        <v>216</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
         <v>215</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>881</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="E8" s="10">
+        <v>746</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>840</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="10">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>409</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="E9" s="10">
+        <v>445</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>431</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="10">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <f>D6-D7-D8-D9</f>
         <v>124</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="10">
+        <f>E6-E7-E8-E9</f>
+        <v>369</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <f>H6-H7-H8-H9</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="10">
+        <f>I6-I7-I8-I9</f>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>174</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="E11" s="10">
+        <v>89</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>216</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="10">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>112</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
+      <c r="E12" s="10">
+        <v>108</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f>D10-D11-D12</f>
         <v>-162</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
+      <c r="E13" s="10">
+        <f>E10+E11-E12</f>
+        <v>350</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <f>H10+H11-H12</f>
         <v>354</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="10">
+        <f>I10+I11-I12</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="10">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10">
+        <v>53</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="12">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f>D13-D14</f>
         <v>-177</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14">
+      <c r="E15" s="12">
+        <f>E13-E14</f>
+        <v>297</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12">
         <f>H13-H14</f>
         <v>335</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="12">
+        <f>I13-I14</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>90</v>
       </c>
@@ -3282,4 +5454,290 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F0C29-ADDE-4209-9D57-C244E8027716}">
+  <dimension ref="B3:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="22">
+        <f>((Main!I7/(Main!I7+C11)*C5)+(C11/(C11+Main!I7)*C10*(1-C13)))</f>
+        <v>0.16608090288315625</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="18">
+        <f>C6+C7*(C8-C6)</f>
+        <v>0.19639999999999996</v>
+      </c>
+      <c r="H5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C12/C11</f>
+        <v>4.2102090032154343E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="21">
+        <f>9882+70</f>
+        <v>9952</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62AD656-3107-4021-BD5D-1B130D8B17D1}">
+  <dimension ref="B2:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2">
+        <v>2021</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+      <c r="H2">
+        <v>2023</v>
+      </c>
+      <c r="I2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="16">
+        <v>194</v>
+      </c>
+      <c r="G3" s="16">
+        <v>704</v>
+      </c>
+      <c r="H3" s="16">
+        <v>335</v>
+      </c>
+      <c r="I3" s="16">
+        <v>941</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>553</v>
+      </c>
+      <c r="G4">
+        <v>1163</v>
+      </c>
+      <c r="H4">
+        <v>937</v>
+      </c>
+      <c r="I4">
+        <v>1602</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>152</v>
+      </c>
+      <c r="H5">
+        <v>159</v>
+      </c>
+      <c r="I5">
+        <v>144</v>
+      </c>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>175</v>
+      </c>
+      <c r="I6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7">
+        <v>152</v>
+      </c>
+      <c r="G7">
+        <v>207</v>
+      </c>
+      <c r="H7">
+        <v>268</v>
+      </c>
+      <c r="I7">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models/FLUT.xlsx
+++ b/Models/FLUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1956" documentId="8_{69748F80-F00F-7B4A-9A9F-ABAC2C9D56BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D5F36B-E485-426B-B5BB-F8F51C607FD8}"/>
+  <xr:revisionPtr revIDLastSave="1999" documentId="8_{69748F80-F00F-7B4A-9A9F-ABAC2C9D56BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19FFFF15-7731-4319-9B69-29389EB88AA9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EF113539-BCB3-2A46-AFED-BF7C34A91979}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>Net Income Adjusted y/y</t>
   </si>
   <si>
-    <t xml:space="preserve">Income Taxes </t>
-  </si>
-  <si>
     <t>Operating Profit (EBIT)</t>
   </si>
   <si>
@@ -522,14 +519,17 @@
     <t>Free Cash Flow y/y</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Income Tax Benefit (Expense)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +595,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -626,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -658,12 +673,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -671,9 +680,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -686,6 +692,14 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -799,6 +813,61 @@
         <a:xfrm>
           <a:off x="8457259" y="131703"/>
           <a:ext cx="9408" cy="10498667"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1392</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B93E7C-A9FE-49DC-8E5C-E90FC8C6673F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13472463" y="0"/>
+          <a:ext cx="9408" cy="11197983"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -951,6 +1020,10 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
 </inkml:ink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,7 +1346,7 @@
   <dimension ref="B2:M52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1345,7 +1418,7 @@
         <v>176</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>18</v>
@@ -1375,7 +1448,7 @@
         <v>1691</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1387,7 +1460,7 @@
         <v>10560</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -1883,3213 +1956,3200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F43DB-B62D-354D-9F35-039D9DC79DC7}">
   <dimension ref="A1:ACB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="25" customWidth="1"/>
-    <col min="3" max="4" width="10.5" style="25" customWidth="1"/>
-    <col min="5" max="7" width="10.125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="25" customWidth="1"/>
-    <col min="12" max="12" width="11" style="25" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="25" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="25"/>
+    <col min="1" max="1" width="5.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="19" customWidth="1"/>
+    <col min="5" max="7" width="10.125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="11" style="19" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.875" style="19" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="19" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:36" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21">
         <v>2018</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="21">
         <v>2018</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="21">
         <v>2019</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="21">
         <v>2020</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="21">
         <v>2021</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="21">
         <v>2022</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="21">
         <v>2023</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="21">
         <v>2024</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="21">
         <v>2025</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="21">
         <v>2026</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="21">
         <v>2027</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="21">
         <v>2028</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="21">
         <v>2029</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="21">
         <v>2030</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-    </row>
-    <row r="3" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="20">
         <v>5400</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="20">
         <v>6400</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="20">
         <v>7600</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="20">
         <v>10245</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="20">
         <v>12325</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="20">
         <v>13898</v>
       </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="24">
         <v>1745.4</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="24">
         <v>1873</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="24">
         <v>2140</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="24">
         <v>4413</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="24">
         <v>6036</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="24">
         <v>9463</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="24">
         <v>11790</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="24">
         <v>14048</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="P4" s="31"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="18">
         <v>405.4</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="18">
         <v>469.9</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>650.20000000000005</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>1541</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>2262</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="18">
         <v>4813</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="18">
         <v>6202</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="18">
         <v>7346</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="24"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="18">
         <f t="shared" ref="C6:J6" si="0">C4-C5</f>
         <v>1340</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="18">
         <f t="shared" si="0"/>
         <v>1403.1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>1489.8</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>2872</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>3774</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="18">
         <f t="shared" si="0"/>
         <v>4650</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="18">
         <f t="shared" si="0"/>
         <v>5588</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="18">
         <f t="shared" si="0"/>
         <v>6702</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
         <v>552</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="18">
         <v>765</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="18">
         <v>820</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>1508</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="18">
         <v>3014</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="18">
         <v>3776</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="18">
         <v>3205</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
         <v>1172</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="18">
         <v>1596</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="18">
         <v>1808</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="K9" s="25"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="18">
         <v>250</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="18">
         <v>204.6</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <v>149.9</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <v>103</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>-63</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="18">
         <f>H6-(H7+H8+H9)</f>
         <v>-88</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="18">
         <f>I6-(I7+I8+I9)</f>
         <v>-549</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="18">
         <f>J6-(J7+J8+J9)</f>
         <v>869</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="18">
         <v>1.7</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="18">
         <v>21.6</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>1</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>80</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>101</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="18">
         <v>5</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
         <v>157</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="18">
         <v>434</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="18">
         <v>7.5</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>15.2</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>182</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>226</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="18">
         <v>212</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="18">
         <v>385</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="18">
         <v>419</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="18">
         <v>246.6</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="18">
         <f>D10+D11-D12</f>
         <v>218.7</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <f>E10+E11-E12</f>
         <v>135.70000000000002</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <f>F10+F11-F12</f>
         <v>1</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <f>G10+G11-G12</f>
         <v>-188</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="18">
         <f>H10+H11-H12</f>
         <v>-295</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="18">
         <f>I10-I11-I12</f>
         <v>-1091</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="18">
         <f>J10-J11-J12</f>
         <v>16</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="18">
         <v>-28.9</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="18">
         <v>-38</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="18">
         <v>-23.8</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="18">
         <f>35.8</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>-194</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="18">
         <v>-75</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
         <v>-120</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="18">
         <v>146</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-    </row>
-    <row r="15" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="24">
         <f>C13+C14</f>
         <v>217.7</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="24">
         <f>D13+D14</f>
         <v>180.7</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="24">
         <f>E13+E14</f>
         <v>111.90000000000002</v>
       </c>
-      <c r="F15" s="31">
-        <f>F13-F14</f>
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="G15" s="31">
+      <c r="F15" s="24">
+        <f>F13+F14</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G15" s="24">
         <f>G13+G14</f>
         <v>-382</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="24">
         <f>H13+H14</f>
         <v>-370</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="24">
         <f>I13+I14</f>
         <v>-1211</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="24">
         <f>J13+J14</f>
         <v>162</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="18">
         <v>118.3</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="18">
         <v>123.1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>112</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>506.7</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>866</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="18">
         <f>43+155-44+749+65+9+147-199+1-63</f>
         <v>863</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="18">
         <f>92+126+725+791+30+6+29+196-150-13+2</f>
         <v>1834</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="18">
         <f>54+135+581+202+7+8+2-3+426+2-148</f>
         <v>1266</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-    </row>
-    <row r="18" spans="1:756" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+    </row>
+    <row r="18" spans="1:756" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="18">
         <f t="shared" ref="C18:J18" si="1">C15+C17</f>
         <v>336</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="18">
         <f t="shared" si="1"/>
         <v>303.79999999999995</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="18">
         <f t="shared" si="1"/>
         <v>223.90000000000003</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="18">
         <f t="shared" si="1"/>
-        <v>471.9</v>
-      </c>
-      <c r="G18" s="24">
+        <v>543.5</v>
+      </c>
+      <c r="G18" s="18">
         <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="18">
         <f t="shared" si="1"/>
         <v>493</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <f t="shared" si="1"/>
         <v>623</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="18">
         <f t="shared" si="1"/>
         <v>1428</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="24"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
-      <c r="BK18" s="24"/>
-      <c r="BL18" s="24"/>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="24"/>
-      <c r="BO18" s="24"/>
-      <c r="BP18" s="24"/>
-      <c r="BQ18" s="24"/>
-      <c r="BR18" s="24"/>
-      <c r="BS18" s="24"/>
-      <c r="BT18" s="24"/>
-      <c r="BU18" s="24"/>
-      <c r="BV18" s="24"/>
-      <c r="BW18" s="24"/>
-      <c r="BX18" s="24"/>
-      <c r="BY18" s="24"/>
-      <c r="BZ18" s="24"/>
-      <c r="CA18" s="24"/>
-      <c r="CB18" s="24"/>
-      <c r="CC18" s="24"/>
-      <c r="CD18" s="24"/>
-      <c r="CE18" s="24"/>
-      <c r="CF18" s="24"/>
-      <c r="CG18" s="24"/>
-      <c r="CH18" s="24"/>
-      <c r="CI18" s="24"/>
-      <c r="CJ18" s="24"/>
-      <c r="CK18" s="24"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
-      <c r="CS18" s="24"/>
-      <c r="CT18" s="24"/>
-      <c r="CU18" s="24"/>
-      <c r="CV18" s="24"/>
-      <c r="CW18" s="24"/>
-      <c r="CX18" s="24"/>
-      <c r="CY18" s="24"/>
-      <c r="CZ18" s="24"/>
-      <c r="DA18" s="24"/>
-      <c r="DB18" s="24"/>
-      <c r="DC18" s="24"/>
-      <c r="DD18" s="24"/>
-      <c r="DE18" s="24"/>
-      <c r="DF18" s="24"/>
-      <c r="DG18" s="24"/>
-      <c r="DH18" s="24"/>
-      <c r="DI18" s="24"/>
-      <c r="DJ18" s="24"/>
-      <c r="DK18" s="24"/>
-      <c r="DL18" s="24"/>
-      <c r="DM18" s="24"/>
-      <c r="DN18" s="24"/>
-      <c r="DO18" s="24"/>
-      <c r="DP18" s="24"/>
-      <c r="DQ18" s="24"/>
-      <c r="DR18" s="24"/>
-      <c r="DS18" s="24"/>
-      <c r="DT18" s="24"/>
-      <c r="DU18" s="24"/>
-      <c r="DV18" s="24"/>
-      <c r="DW18" s="24"/>
-      <c r="DX18" s="24"/>
-      <c r="DY18" s="24"/>
-      <c r="DZ18" s="24"/>
-      <c r="EA18" s="24"/>
-      <c r="EB18" s="24"/>
-      <c r="EC18" s="24"/>
-      <c r="ED18" s="24"/>
-      <c r="EE18" s="24"/>
-      <c r="EF18" s="24"/>
-      <c r="EG18" s="24"/>
-      <c r="EH18" s="24"/>
-      <c r="EI18" s="24"/>
-      <c r="EJ18" s="24"/>
-      <c r="EK18" s="24"/>
-      <c r="EL18" s="24"/>
-      <c r="EM18" s="24"/>
-      <c r="EN18" s="24"/>
-      <c r="EO18" s="24"/>
-      <c r="EP18" s="24"/>
-      <c r="EQ18" s="24"/>
-      <c r="ER18" s="24"/>
-      <c r="ES18" s="24"/>
-      <c r="ET18" s="24"/>
-      <c r="EU18" s="24"/>
-      <c r="EV18" s="24"/>
-      <c r="EW18" s="24"/>
-      <c r="EX18" s="24"/>
-      <c r="EY18" s="24"/>
-      <c r="EZ18" s="24"/>
-      <c r="FA18" s="24"/>
-      <c r="FB18" s="24"/>
-      <c r="FC18" s="24"/>
-      <c r="FD18" s="24"/>
-      <c r="FE18" s="24"/>
-      <c r="FF18" s="24"/>
-      <c r="FG18" s="24"/>
-      <c r="FH18" s="24"/>
-      <c r="FI18" s="24"/>
-      <c r="FJ18" s="24"/>
-      <c r="FK18" s="24"/>
-      <c r="FL18" s="24"/>
-      <c r="FM18" s="24"/>
-      <c r="FN18" s="24"/>
-      <c r="FO18" s="24"/>
-      <c r="FP18" s="24"/>
-      <c r="FQ18" s="24"/>
-      <c r="FR18" s="24"/>
-      <c r="FS18" s="24"/>
-      <c r="FT18" s="24"/>
-      <c r="FU18" s="24"/>
-      <c r="FV18" s="24"/>
-      <c r="FW18" s="24"/>
-      <c r="FX18" s="24"/>
-      <c r="FY18" s="24"/>
-      <c r="FZ18" s="24"/>
-      <c r="GA18" s="24"/>
-      <c r="GB18" s="24"/>
-      <c r="GC18" s="24"/>
-      <c r="GD18" s="24"/>
-      <c r="GE18" s="24"/>
-      <c r="GF18" s="24"/>
-      <c r="GG18" s="24"/>
-      <c r="GH18" s="24"/>
-      <c r="GI18" s="24"/>
-      <c r="GJ18" s="24"/>
-      <c r="GK18" s="24"/>
-      <c r="GL18" s="24"/>
-      <c r="GM18" s="24"/>
-      <c r="GN18" s="24"/>
-      <c r="GO18" s="24"/>
-      <c r="GP18" s="24"/>
-      <c r="GQ18" s="24"/>
-      <c r="GR18" s="24"/>
-      <c r="GS18" s="24"/>
-      <c r="GT18" s="24"/>
-      <c r="GU18" s="24"/>
-      <c r="GV18" s="24"/>
-      <c r="GW18" s="24"/>
-      <c r="GX18" s="24"/>
-      <c r="GY18" s="24"/>
-      <c r="GZ18" s="24"/>
-      <c r="HA18" s="24"/>
-      <c r="HB18" s="24"/>
-      <c r="HC18" s="24"/>
-      <c r="HD18" s="24"/>
-      <c r="HE18" s="24"/>
-      <c r="HF18" s="24"/>
-      <c r="HG18" s="24"/>
-      <c r="HH18" s="24"/>
-      <c r="HI18" s="24"/>
-      <c r="HJ18" s="24"/>
-      <c r="HK18" s="24"/>
-      <c r="HL18" s="24"/>
-      <c r="HM18" s="24"/>
-      <c r="HN18" s="24"/>
-      <c r="HO18" s="24"/>
-      <c r="HP18" s="24"/>
-      <c r="HQ18" s="24"/>
-      <c r="HR18" s="24"/>
-      <c r="HS18" s="24"/>
-      <c r="HT18" s="24"/>
-      <c r="HU18" s="24"/>
-      <c r="HV18" s="24"/>
-      <c r="HW18" s="24"/>
-      <c r="HX18" s="24"/>
-      <c r="HY18" s="24"/>
-      <c r="HZ18" s="24"/>
-      <c r="IA18" s="24"/>
-      <c r="IB18" s="24"/>
-      <c r="IC18" s="24"/>
-      <c r="ID18" s="24"/>
-      <c r="IE18" s="24"/>
-      <c r="IF18" s="24"/>
-      <c r="IG18" s="24"/>
-      <c r="IH18" s="24"/>
-      <c r="II18" s="24"/>
-      <c r="IJ18" s="24"/>
-      <c r="IK18" s="24"/>
-      <c r="IL18" s="24"/>
-      <c r="IM18" s="24"/>
-      <c r="IN18" s="24"/>
-      <c r="IO18" s="24"/>
-      <c r="IP18" s="24"/>
-      <c r="IQ18" s="24"/>
-      <c r="IR18" s="24"/>
-      <c r="IS18" s="24"/>
-      <c r="IT18" s="24"/>
-      <c r="IU18" s="24"/>
-      <c r="IV18" s="24"/>
-      <c r="IW18" s="24"/>
-      <c r="IX18" s="24"/>
-      <c r="IY18" s="24"/>
-      <c r="IZ18" s="24"/>
-      <c r="JA18" s="24"/>
-      <c r="JB18" s="24"/>
-      <c r="JC18" s="24"/>
-      <c r="JD18" s="24"/>
-      <c r="JE18" s="24"/>
-      <c r="JF18" s="24"/>
-      <c r="JG18" s="24"/>
-      <c r="JH18" s="24"/>
-      <c r="JI18" s="24"/>
-      <c r="JJ18" s="24"/>
-      <c r="JK18" s="24"/>
-      <c r="JL18" s="24"/>
-      <c r="JM18" s="24"/>
-      <c r="JN18" s="24"/>
-      <c r="JO18" s="24"/>
-      <c r="JP18" s="24"/>
-      <c r="JQ18" s="24"/>
-      <c r="JR18" s="24"/>
-      <c r="JS18" s="24"/>
-      <c r="JT18" s="24"/>
-      <c r="JU18" s="24"/>
-      <c r="JV18" s="24"/>
-      <c r="JW18" s="24"/>
-      <c r="JX18" s="24"/>
-      <c r="JY18" s="24"/>
-      <c r="JZ18" s="24"/>
-      <c r="KA18" s="24"/>
-      <c r="KB18" s="24"/>
-      <c r="KC18" s="24"/>
-      <c r="KD18" s="24"/>
-      <c r="KE18" s="24"/>
-      <c r="KF18" s="24"/>
-      <c r="KG18" s="24"/>
-      <c r="KH18" s="24"/>
-      <c r="KI18" s="24"/>
-      <c r="KJ18" s="24"/>
-      <c r="KK18" s="24"/>
-      <c r="KL18" s="24"/>
-      <c r="KM18" s="24"/>
-      <c r="KN18" s="24"/>
-      <c r="KO18" s="24"/>
-      <c r="KP18" s="24"/>
-      <c r="KQ18" s="24"/>
-      <c r="KR18" s="24"/>
-      <c r="KS18" s="24"/>
-      <c r="KT18" s="24"/>
-      <c r="KU18" s="24"/>
-      <c r="KV18" s="24"/>
-      <c r="KW18" s="24"/>
-      <c r="KX18" s="24"/>
-      <c r="KY18" s="24"/>
-      <c r="KZ18" s="24"/>
-      <c r="LA18" s="24"/>
-      <c r="LB18" s="24"/>
-      <c r="LC18" s="24"/>
-      <c r="LD18" s="24"/>
-      <c r="LE18" s="24"/>
-      <c r="LF18" s="24"/>
-      <c r="LG18" s="24"/>
-      <c r="LH18" s="24"/>
-      <c r="LI18" s="24"/>
-      <c r="LJ18" s="24"/>
-      <c r="LK18" s="24"/>
-      <c r="LL18" s="24"/>
-      <c r="LM18" s="24"/>
-      <c r="LN18" s="24"/>
-      <c r="LO18" s="24"/>
-      <c r="LP18" s="24"/>
-      <c r="LQ18" s="24"/>
-      <c r="LR18" s="24"/>
-      <c r="LS18" s="24"/>
-      <c r="LT18" s="24"/>
-      <c r="LU18" s="24"/>
-      <c r="LV18" s="24"/>
-      <c r="LW18" s="24"/>
-      <c r="LX18" s="24"/>
-      <c r="LY18" s="24"/>
-      <c r="LZ18" s="24"/>
-      <c r="MA18" s="24"/>
-      <c r="MB18" s="24"/>
-      <c r="MC18" s="24"/>
-      <c r="MD18" s="24"/>
-      <c r="ME18" s="24"/>
-      <c r="MF18" s="24"/>
-      <c r="MG18" s="24"/>
-      <c r="MH18" s="24"/>
-      <c r="MI18" s="24"/>
-      <c r="MJ18" s="24"/>
-      <c r="MK18" s="24"/>
-      <c r="ML18" s="24"/>
-      <c r="MM18" s="24"/>
-      <c r="MN18" s="24"/>
-      <c r="MO18" s="24"/>
-      <c r="MP18" s="24"/>
-      <c r="MQ18" s="24"/>
-      <c r="MR18" s="24"/>
-      <c r="MS18" s="24"/>
-      <c r="MT18" s="24"/>
-      <c r="MU18" s="24"/>
-      <c r="MV18" s="24"/>
-      <c r="MW18" s="24"/>
-      <c r="MX18" s="24"/>
-      <c r="MY18" s="24"/>
-      <c r="MZ18" s="24"/>
-      <c r="NA18" s="24"/>
-      <c r="NB18" s="24"/>
-      <c r="NC18" s="24"/>
-      <c r="ND18" s="24"/>
-      <c r="NE18" s="24"/>
-      <c r="NF18" s="24"/>
-      <c r="NG18" s="24"/>
-      <c r="NH18" s="24"/>
-      <c r="NI18" s="24"/>
-      <c r="NJ18" s="24"/>
-      <c r="NK18" s="24"/>
-      <c r="NL18" s="24"/>
-      <c r="NM18" s="24"/>
-      <c r="NN18" s="24"/>
-      <c r="NO18" s="24"/>
-      <c r="NP18" s="24"/>
-      <c r="NQ18" s="24"/>
-      <c r="NR18" s="24"/>
-      <c r="NS18" s="24"/>
-      <c r="NT18" s="24"/>
-      <c r="NU18" s="24"/>
-      <c r="NV18" s="24"/>
-      <c r="NW18" s="24"/>
-      <c r="NX18" s="24"/>
-      <c r="NY18" s="24"/>
-      <c r="NZ18" s="24"/>
-      <c r="OA18" s="24"/>
-      <c r="OB18" s="24"/>
-      <c r="OC18" s="24"/>
-      <c r="OD18" s="24"/>
-      <c r="OE18" s="24"/>
-      <c r="OF18" s="24"/>
-      <c r="OG18" s="24"/>
-      <c r="OH18" s="24"/>
-      <c r="OI18" s="24"/>
-      <c r="OJ18" s="24"/>
-      <c r="OK18" s="24"/>
-      <c r="OL18" s="24"/>
-      <c r="OM18" s="24"/>
-      <c r="ON18" s="24"/>
-      <c r="OO18" s="24"/>
-      <c r="OP18" s="24"/>
-      <c r="OQ18" s="24"/>
-      <c r="OR18" s="24"/>
-      <c r="OS18" s="24"/>
-      <c r="OT18" s="24"/>
-      <c r="OU18" s="24"/>
-      <c r="OV18" s="24"/>
-      <c r="OW18" s="24"/>
-      <c r="OX18" s="24"/>
-      <c r="OY18" s="24"/>
-      <c r="OZ18" s="24"/>
-      <c r="PA18" s="24"/>
-      <c r="PB18" s="24"/>
-      <c r="PC18" s="24"/>
-      <c r="PD18" s="24"/>
-      <c r="PE18" s="24"/>
-      <c r="PF18" s="24"/>
-      <c r="PG18" s="24"/>
-      <c r="PH18" s="24"/>
-      <c r="PI18" s="24"/>
-      <c r="PJ18" s="24"/>
-      <c r="PK18" s="24"/>
-      <c r="PL18" s="24"/>
-      <c r="PM18" s="24"/>
-      <c r="PN18" s="24"/>
-      <c r="PO18" s="24"/>
-      <c r="PP18" s="24"/>
-      <c r="PQ18" s="24"/>
-      <c r="PR18" s="24"/>
-      <c r="PS18" s="24"/>
-      <c r="PT18" s="24"/>
-      <c r="PU18" s="24"/>
-      <c r="PV18" s="24"/>
-      <c r="PW18" s="24"/>
-      <c r="PX18" s="24"/>
-      <c r="PY18" s="24"/>
-      <c r="PZ18" s="24"/>
-      <c r="QA18" s="24"/>
-      <c r="QB18" s="24"/>
-      <c r="QC18" s="24"/>
-      <c r="QD18" s="24"/>
-      <c r="QE18" s="24"/>
-      <c r="QF18" s="24"/>
-      <c r="QG18" s="24"/>
-      <c r="QH18" s="24"/>
-      <c r="QI18" s="24"/>
-      <c r="QJ18" s="24"/>
-      <c r="QK18" s="24"/>
-      <c r="QL18" s="24"/>
-      <c r="QM18" s="24"/>
-      <c r="QN18" s="24"/>
-      <c r="QO18" s="24"/>
-      <c r="QP18" s="24"/>
-      <c r="QQ18" s="24"/>
-      <c r="QR18" s="24"/>
-      <c r="QS18" s="24"/>
-      <c r="QT18" s="24"/>
-      <c r="QU18" s="24"/>
-      <c r="QV18" s="24"/>
-      <c r="QW18" s="24"/>
-      <c r="QX18" s="24"/>
-      <c r="QY18" s="24"/>
-      <c r="QZ18" s="24"/>
-      <c r="RA18" s="24"/>
-      <c r="RB18" s="24"/>
-      <c r="RC18" s="24"/>
-      <c r="RD18" s="24"/>
-      <c r="RE18" s="24"/>
-      <c r="RF18" s="24"/>
-      <c r="RG18" s="24"/>
-      <c r="RH18" s="24"/>
-      <c r="RI18" s="24"/>
-      <c r="RJ18" s="24"/>
-      <c r="RK18" s="24"/>
-      <c r="RL18" s="24"/>
-      <c r="RM18" s="24"/>
-      <c r="RN18" s="24"/>
-      <c r="RO18" s="24"/>
-      <c r="RP18" s="24"/>
-      <c r="RQ18" s="24"/>
-      <c r="RR18" s="24"/>
-      <c r="RS18" s="24"/>
-      <c r="RT18" s="24"/>
-      <c r="RU18" s="24"/>
-      <c r="RV18" s="24"/>
-      <c r="RW18" s="24"/>
-      <c r="RX18" s="24"/>
-      <c r="RY18" s="24"/>
-      <c r="RZ18" s="24"/>
-      <c r="SA18" s="24"/>
-      <c r="SB18" s="24"/>
-      <c r="SC18" s="24"/>
-      <c r="SD18" s="24"/>
-      <c r="SE18" s="24"/>
-      <c r="SF18" s="24"/>
-      <c r="SG18" s="24"/>
-      <c r="SH18" s="24"/>
-      <c r="SI18" s="24"/>
-      <c r="SJ18" s="24"/>
-      <c r="SK18" s="24"/>
-      <c r="SL18" s="24"/>
-      <c r="SM18" s="24"/>
-      <c r="SN18" s="24"/>
-      <c r="SO18" s="24"/>
-      <c r="SP18" s="24"/>
-      <c r="SQ18" s="24"/>
-      <c r="SR18" s="24"/>
-      <c r="SS18" s="24"/>
-      <c r="ST18" s="24"/>
-      <c r="SU18" s="24"/>
-      <c r="SV18" s="24"/>
-      <c r="SW18" s="24"/>
-      <c r="SX18" s="24"/>
-      <c r="SY18" s="24"/>
-      <c r="SZ18" s="24"/>
-      <c r="TA18" s="24"/>
-      <c r="TB18" s="24"/>
-      <c r="TC18" s="24"/>
-      <c r="TD18" s="24"/>
-      <c r="TE18" s="24"/>
-      <c r="TF18" s="24"/>
-      <c r="TG18" s="24"/>
-      <c r="TH18" s="24"/>
-      <c r="TI18" s="24"/>
-      <c r="TJ18" s="24"/>
-      <c r="TK18" s="24"/>
-      <c r="TL18" s="24"/>
-      <c r="TM18" s="24"/>
-      <c r="TN18" s="24"/>
-      <c r="TO18" s="24"/>
-      <c r="TP18" s="24"/>
-      <c r="TQ18" s="24"/>
-      <c r="TR18" s="24"/>
-      <c r="TS18" s="24"/>
-      <c r="TT18" s="24"/>
-      <c r="TU18" s="24"/>
-      <c r="TV18" s="24"/>
-      <c r="TW18" s="24"/>
-      <c r="TX18" s="24"/>
-      <c r="TY18" s="24"/>
-      <c r="TZ18" s="24"/>
-      <c r="UA18" s="24"/>
-      <c r="UB18" s="24"/>
-      <c r="UC18" s="24"/>
-      <c r="UD18" s="24"/>
-      <c r="UE18" s="24"/>
-      <c r="UF18" s="24"/>
-      <c r="UG18" s="24"/>
-      <c r="UH18" s="24"/>
-      <c r="UI18" s="24"/>
-      <c r="UJ18" s="24"/>
-      <c r="UK18" s="24"/>
-      <c r="UL18" s="24"/>
-      <c r="UM18" s="24"/>
-      <c r="UN18" s="24"/>
-      <c r="UO18" s="24"/>
-      <c r="UP18" s="24"/>
-      <c r="UQ18" s="24"/>
-      <c r="UR18" s="24"/>
-      <c r="US18" s="24"/>
-      <c r="UT18" s="24"/>
-      <c r="UU18" s="24"/>
-      <c r="UV18" s="24"/>
-      <c r="UW18" s="24"/>
-      <c r="UX18" s="24"/>
-      <c r="UY18" s="24"/>
-      <c r="UZ18" s="24"/>
-      <c r="VA18" s="24"/>
-      <c r="VB18" s="24"/>
-      <c r="VC18" s="24"/>
-      <c r="VD18" s="24"/>
-      <c r="VE18" s="24"/>
-      <c r="VF18" s="24"/>
-      <c r="VG18" s="24"/>
-      <c r="VH18" s="24"/>
-      <c r="VI18" s="24"/>
-      <c r="VJ18" s="24"/>
-      <c r="VK18" s="24"/>
-      <c r="VL18" s="24"/>
-      <c r="VM18" s="24"/>
-      <c r="VN18" s="24"/>
-      <c r="VO18" s="24"/>
-      <c r="VP18" s="24"/>
-      <c r="VQ18" s="24"/>
-      <c r="VR18" s="24"/>
-      <c r="VS18" s="24"/>
-      <c r="VT18" s="24"/>
-      <c r="VU18" s="24"/>
-      <c r="VV18" s="24"/>
-      <c r="VW18" s="24"/>
-      <c r="VX18" s="24"/>
-      <c r="VY18" s="24"/>
-      <c r="VZ18" s="24"/>
-      <c r="WA18" s="24"/>
-      <c r="WB18" s="24"/>
-      <c r="WC18" s="24"/>
-      <c r="WD18" s="24"/>
-      <c r="WE18" s="24"/>
-      <c r="WF18" s="24"/>
-      <c r="WG18" s="24"/>
-      <c r="WH18" s="24"/>
-      <c r="WI18" s="24"/>
-      <c r="WJ18" s="24"/>
-      <c r="WK18" s="24"/>
-      <c r="WL18" s="24"/>
-      <c r="WM18" s="24"/>
-      <c r="WN18" s="24"/>
-      <c r="WO18" s="24"/>
-      <c r="WP18" s="24"/>
-      <c r="WQ18" s="24"/>
-      <c r="WR18" s="24"/>
-      <c r="WS18" s="24"/>
-      <c r="WT18" s="24"/>
-      <c r="WU18" s="24"/>
-      <c r="WV18" s="24"/>
-      <c r="WW18" s="24"/>
-      <c r="WX18" s="24"/>
-      <c r="WY18" s="24"/>
-      <c r="WZ18" s="24"/>
-      <c r="XA18" s="24"/>
-      <c r="XB18" s="24"/>
-      <c r="XC18" s="24"/>
-      <c r="XD18" s="24"/>
-      <c r="XE18" s="24"/>
-      <c r="XF18" s="24"/>
-      <c r="XG18" s="24"/>
-      <c r="XH18" s="24"/>
-      <c r="XI18" s="24"/>
-      <c r="XJ18" s="24"/>
-      <c r="XK18" s="24"/>
-      <c r="XL18" s="24"/>
-      <c r="XM18" s="24"/>
-      <c r="XN18" s="24"/>
-      <c r="XO18" s="24"/>
-      <c r="XP18" s="24"/>
-      <c r="XQ18" s="24"/>
-      <c r="XR18" s="24"/>
-      <c r="XS18" s="24"/>
-      <c r="XT18" s="24"/>
-      <c r="XU18" s="24"/>
-      <c r="XV18" s="24"/>
-      <c r="XW18" s="24"/>
-      <c r="XX18" s="24"/>
-      <c r="XY18" s="24"/>
-      <c r="XZ18" s="24"/>
-      <c r="YA18" s="24"/>
-      <c r="YB18" s="24"/>
-      <c r="YC18" s="24"/>
-      <c r="YD18" s="24"/>
-      <c r="YE18" s="24"/>
-      <c r="YF18" s="24"/>
-      <c r="YG18" s="24"/>
-      <c r="YH18" s="24"/>
-      <c r="YI18" s="24"/>
-      <c r="YJ18" s="24"/>
-      <c r="YK18" s="24"/>
-      <c r="YL18" s="24"/>
-      <c r="YM18" s="24"/>
-      <c r="YN18" s="24"/>
-      <c r="YO18" s="24"/>
-      <c r="YP18" s="24"/>
-      <c r="YQ18" s="24"/>
-      <c r="YR18" s="24"/>
-      <c r="YS18" s="24"/>
-      <c r="YT18" s="24"/>
-      <c r="YU18" s="24"/>
-      <c r="YV18" s="24"/>
-      <c r="YW18" s="24"/>
-      <c r="YX18" s="24"/>
-      <c r="YY18" s="24"/>
-      <c r="YZ18" s="24"/>
-      <c r="ZA18" s="24"/>
-      <c r="ZB18" s="24"/>
-      <c r="ZC18" s="24"/>
-      <c r="ZD18" s="24"/>
-      <c r="ZE18" s="24"/>
-      <c r="ZF18" s="24"/>
-      <c r="ZG18" s="24"/>
-      <c r="ZH18" s="24"/>
-      <c r="ZI18" s="24"/>
-      <c r="ZJ18" s="24"/>
-      <c r="ZK18" s="24"/>
-      <c r="ZL18" s="24"/>
-      <c r="ZM18" s="24"/>
-      <c r="ZN18" s="24"/>
-      <c r="ZO18" s="24"/>
-      <c r="ZP18" s="24"/>
-      <c r="ZQ18" s="24"/>
-      <c r="ZR18" s="24"/>
-      <c r="ZS18" s="24"/>
-      <c r="ZT18" s="24"/>
-      <c r="ZU18" s="24"/>
-      <c r="ZV18" s="24"/>
-      <c r="ZW18" s="24"/>
-      <c r="ZX18" s="24"/>
-      <c r="ZY18" s="24"/>
-      <c r="ZZ18" s="24"/>
-      <c r="AAA18" s="24"/>
-      <c r="AAB18" s="24"/>
-      <c r="AAC18" s="24"/>
-      <c r="AAD18" s="24"/>
-      <c r="AAE18" s="24"/>
-      <c r="AAF18" s="24"/>
-      <c r="AAG18" s="24"/>
-      <c r="AAH18" s="24"/>
-      <c r="AAI18" s="24"/>
-      <c r="AAJ18" s="24"/>
-      <c r="AAK18" s="24"/>
-      <c r="AAL18" s="24"/>
-      <c r="AAM18" s="24"/>
-      <c r="AAN18" s="24"/>
-      <c r="AAO18" s="24"/>
-      <c r="AAP18" s="24"/>
-      <c r="AAQ18" s="24"/>
-      <c r="AAR18" s="24"/>
-      <c r="AAS18" s="24"/>
-      <c r="AAT18" s="24"/>
-      <c r="AAU18" s="24"/>
-      <c r="AAV18" s="24"/>
-      <c r="AAW18" s="24"/>
-      <c r="AAX18" s="24"/>
-      <c r="AAY18" s="24"/>
-      <c r="AAZ18" s="24"/>
-      <c r="ABA18" s="24"/>
-      <c r="ABB18" s="24"/>
-      <c r="ABC18" s="24"/>
-      <c r="ABD18" s="24"/>
-      <c r="ABE18" s="24"/>
-      <c r="ABF18" s="24"/>
-      <c r="ABG18" s="24"/>
-      <c r="ABH18" s="24"/>
-      <c r="ABI18" s="24"/>
-      <c r="ABJ18" s="24"/>
-      <c r="ABK18" s="24"/>
-      <c r="ABL18" s="24"/>
-      <c r="ABM18" s="24"/>
-      <c r="ABN18" s="24"/>
-      <c r="ABO18" s="24"/>
-      <c r="ABP18" s="24"/>
-      <c r="ABQ18" s="24"/>
-      <c r="ABR18" s="24"/>
-      <c r="ABS18" s="24"/>
-      <c r="ABT18" s="24"/>
-      <c r="ABU18" s="24"/>
-      <c r="ABV18" s="24"/>
-      <c r="ABW18" s="24"/>
-      <c r="ABX18" s="24"/>
-      <c r="ABY18" s="24"/>
-      <c r="ABZ18" s="24"/>
-      <c r="ACA18" s="24"/>
-      <c r="ACB18" s="24"/>
-    </row>
-    <row r="19" spans="1:756" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="31"/>
-      <c r="BQ19" s="31"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="31"/>
-      <c r="BW19" s="31"/>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="31"/>
-      <c r="BZ19" s="31"/>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="31"/>
-      <c r="CC19" s="31"/>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="31"/>
-      <c r="CF19" s="31"/>
-      <c r="CG19" s="31"/>
-      <c r="CH19" s="31"/>
-      <c r="CI19" s="31"/>
-      <c r="CJ19" s="31"/>
-      <c r="CK19" s="31"/>
-      <c r="CL19" s="31"/>
-      <c r="CM19" s="31"/>
-      <c r="CN19" s="31"/>
-      <c r="CO19" s="31"/>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="31"/>
-      <c r="CR19" s="31"/>
-      <c r="CS19" s="31"/>
-      <c r="CT19" s="31"/>
-      <c r="CU19" s="31"/>
-      <c r="CV19" s="31"/>
-      <c r="CW19" s="31"/>
-      <c r="CX19" s="31"/>
-      <c r="CY19" s="31"/>
-      <c r="CZ19" s="31"/>
-      <c r="DA19" s="31"/>
-      <c r="DB19" s="31"/>
-      <c r="DC19" s="31"/>
-      <c r="DD19" s="31"/>
-      <c r="DE19" s="31"/>
-      <c r="DF19" s="31"/>
-      <c r="DG19" s="31"/>
-      <c r="DH19" s="31"/>
-      <c r="DI19" s="31"/>
-      <c r="DJ19" s="31"/>
-      <c r="DK19" s="31"/>
-      <c r="DL19" s="31"/>
-      <c r="DM19" s="31"/>
-      <c r="DN19" s="31"/>
-      <c r="DO19" s="31"/>
-      <c r="DP19" s="31"/>
-      <c r="DQ19" s="31"/>
-      <c r="DR19" s="31"/>
-      <c r="DS19" s="31"/>
-      <c r="DT19" s="31"/>
-      <c r="DU19" s="31"/>
-      <c r="DV19" s="31"/>
-      <c r="DW19" s="31"/>
-      <c r="DX19" s="31"/>
-      <c r="DY19" s="31"/>
-      <c r="DZ19" s="31"/>
-      <c r="EA19" s="31"/>
-      <c r="EB19" s="31"/>
-      <c r="EC19" s="31"/>
-      <c r="ED19" s="31"/>
-      <c r="EE19" s="31"/>
-      <c r="EF19" s="31"/>
-      <c r="EG19" s="31"/>
-      <c r="EH19" s="31"/>
-      <c r="EI19" s="31"/>
-      <c r="EJ19" s="31"/>
-      <c r="EK19" s="31"/>
-      <c r="EL19" s="31"/>
-      <c r="EM19" s="31"/>
-      <c r="EN19" s="31"/>
-      <c r="EO19" s="31"/>
-      <c r="EP19" s="31"/>
-      <c r="EQ19" s="31"/>
-      <c r="ER19" s="31"/>
-      <c r="ES19" s="31"/>
-      <c r="ET19" s="31"/>
-      <c r="EU19" s="31"/>
-      <c r="EV19" s="31"/>
-      <c r="EW19" s="31"/>
-      <c r="EX19" s="31"/>
-      <c r="EY19" s="31"/>
-      <c r="EZ19" s="31"/>
-      <c r="FA19" s="31"/>
-      <c r="FB19" s="31"/>
-      <c r="FC19" s="31"/>
-      <c r="FD19" s="31"/>
-      <c r="FE19" s="31"/>
-      <c r="FF19" s="31"/>
-      <c r="FG19" s="31"/>
-      <c r="FH19" s="31"/>
-      <c r="FI19" s="31"/>
-      <c r="FJ19" s="31"/>
-      <c r="FK19" s="31"/>
-      <c r="FL19" s="31"/>
-      <c r="FM19" s="31"/>
-      <c r="FN19" s="31"/>
-      <c r="FO19" s="31"/>
-      <c r="FP19" s="31"/>
-      <c r="FQ19" s="31"/>
-      <c r="FR19" s="31"/>
-      <c r="FS19" s="31"/>
-      <c r="FT19" s="31"/>
-      <c r="FU19" s="31"/>
-      <c r="FV19" s="31"/>
-      <c r="FW19" s="31"/>
-      <c r="FX19" s="31"/>
-      <c r="FY19" s="31"/>
-      <c r="FZ19" s="31"/>
-      <c r="GA19" s="31"/>
-      <c r="GB19" s="31"/>
-      <c r="GC19" s="31"/>
-      <c r="GD19" s="31"/>
-      <c r="GE19" s="31"/>
-      <c r="GF19" s="31"/>
-      <c r="GG19" s="31"/>
-      <c r="GH19" s="31"/>
-      <c r="GI19" s="31"/>
-      <c r="GJ19" s="31"/>
-      <c r="GK19" s="31"/>
-      <c r="GL19" s="31"/>
-      <c r="GM19" s="31"/>
-      <c r="GN19" s="31"/>
-      <c r="GO19" s="31"/>
-      <c r="GP19" s="31"/>
-      <c r="GQ19" s="31"/>
-      <c r="GR19" s="31"/>
-      <c r="GS19" s="31"/>
-      <c r="GT19" s="31"/>
-      <c r="GU19" s="31"/>
-      <c r="GV19" s="31"/>
-      <c r="GW19" s="31"/>
-      <c r="GX19" s="31"/>
-      <c r="GY19" s="31"/>
-      <c r="GZ19" s="31"/>
-      <c r="HA19" s="31"/>
-      <c r="HB19" s="31"/>
-      <c r="HC19" s="31"/>
-      <c r="HD19" s="31"/>
-      <c r="HE19" s="31"/>
-      <c r="HF19" s="31"/>
-      <c r="HG19" s="31"/>
-      <c r="HH19" s="31"/>
-      <c r="HI19" s="31"/>
-      <c r="HJ19" s="31"/>
-      <c r="HK19" s="31"/>
-      <c r="HL19" s="31"/>
-      <c r="HM19" s="31"/>
-      <c r="HN19" s="31"/>
-      <c r="HO19" s="31"/>
-      <c r="HP19" s="31"/>
-      <c r="HQ19" s="31"/>
-      <c r="HR19" s="31"/>
-      <c r="HS19" s="31"/>
-      <c r="HT19" s="31"/>
-      <c r="HU19" s="31"/>
-      <c r="HV19" s="31"/>
-      <c r="HW19" s="31"/>
-      <c r="HX19" s="31"/>
-      <c r="HY19" s="31"/>
-      <c r="HZ19" s="31"/>
-      <c r="IA19" s="31"/>
-      <c r="IB19" s="31"/>
-      <c r="IC19" s="31"/>
-      <c r="ID19" s="31"/>
-      <c r="IE19" s="31"/>
-      <c r="IF19" s="31"/>
-      <c r="IG19" s="31"/>
-      <c r="IH19" s="31"/>
-      <c r="II19" s="31"/>
-      <c r="IJ19" s="31"/>
-      <c r="IK19" s="31"/>
-      <c r="IL19" s="31"/>
-      <c r="IM19" s="31"/>
-      <c r="IN19" s="31"/>
-      <c r="IO19" s="31"/>
-      <c r="IP19" s="31"/>
-      <c r="IQ19" s="31"/>
-      <c r="IR19" s="31"/>
-      <c r="IS19" s="31"/>
-      <c r="IT19" s="31"/>
-      <c r="IU19" s="31"/>
-      <c r="IV19" s="31"/>
-      <c r="IW19" s="31"/>
-      <c r="IX19" s="31"/>
-      <c r="IY19" s="31"/>
-      <c r="IZ19" s="31"/>
-      <c r="JA19" s="31"/>
-      <c r="JB19" s="31"/>
-      <c r="JC19" s="31"/>
-      <c r="JD19" s="31"/>
-      <c r="JE19" s="31"/>
-      <c r="JF19" s="31"/>
-      <c r="JG19" s="31"/>
-      <c r="JH19" s="31"/>
-      <c r="JI19" s="31"/>
-      <c r="JJ19" s="31"/>
-      <c r="JK19" s="31"/>
-      <c r="JL19" s="31"/>
-      <c r="JM19" s="31"/>
-      <c r="JN19" s="31"/>
-      <c r="JO19" s="31"/>
-      <c r="JP19" s="31"/>
-      <c r="JQ19" s="31"/>
-      <c r="JR19" s="31"/>
-      <c r="JS19" s="31"/>
-      <c r="JT19" s="31"/>
-      <c r="JU19" s="31"/>
-      <c r="JV19" s="31"/>
-      <c r="JW19" s="31"/>
-      <c r="JX19" s="31"/>
-      <c r="JY19" s="31"/>
-      <c r="JZ19" s="31"/>
-      <c r="KA19" s="31"/>
-      <c r="KB19" s="31"/>
-      <c r="KC19" s="31"/>
-      <c r="KD19" s="31"/>
-      <c r="KE19" s="31"/>
-      <c r="KF19" s="31"/>
-      <c r="KG19" s="31"/>
-      <c r="KH19" s="31"/>
-      <c r="KI19" s="31"/>
-      <c r="KJ19" s="31"/>
-      <c r="KK19" s="31"/>
-      <c r="KL19" s="31"/>
-      <c r="KM19" s="31"/>
-      <c r="KN19" s="31"/>
-      <c r="KO19" s="31"/>
-      <c r="KP19" s="31"/>
-      <c r="KQ19" s="31"/>
-      <c r="KR19" s="31"/>
-      <c r="KS19" s="31"/>
-      <c r="KT19" s="31"/>
-      <c r="KU19" s="31"/>
-      <c r="KV19" s="31"/>
-      <c r="KW19" s="31"/>
-      <c r="KX19" s="31"/>
-      <c r="KY19" s="31"/>
-      <c r="KZ19" s="31"/>
-      <c r="LA19" s="31"/>
-      <c r="LB19" s="31"/>
-      <c r="LC19" s="31"/>
-      <c r="LD19" s="31"/>
-      <c r="LE19" s="31"/>
-      <c r="LF19" s="31"/>
-      <c r="LG19" s="31"/>
-      <c r="LH19" s="31"/>
-      <c r="LI19" s="31"/>
-      <c r="LJ19" s="31"/>
-      <c r="LK19" s="31"/>
-      <c r="LL19" s="31"/>
-      <c r="LM19" s="31"/>
-      <c r="LN19" s="31"/>
-      <c r="LO19" s="31"/>
-      <c r="LP19" s="31"/>
-      <c r="LQ19" s="31"/>
-      <c r="LR19" s="31"/>
-      <c r="LS19" s="31"/>
-      <c r="LT19" s="31"/>
-      <c r="LU19" s="31"/>
-      <c r="LV19" s="31"/>
-      <c r="LW19" s="31"/>
-      <c r="LX19" s="31"/>
-      <c r="LY19" s="31"/>
-      <c r="LZ19" s="31"/>
-      <c r="MA19" s="31"/>
-      <c r="MB19" s="31"/>
-      <c r="MC19" s="31"/>
-      <c r="MD19" s="31"/>
-      <c r="ME19" s="31"/>
-      <c r="MF19" s="31"/>
-      <c r="MG19" s="31"/>
-      <c r="MH19" s="31"/>
-      <c r="MI19" s="31"/>
-      <c r="MJ19" s="31"/>
-      <c r="MK19" s="31"/>
-      <c r="ML19" s="31"/>
-      <c r="MM19" s="31"/>
-      <c r="MN19" s="31"/>
-      <c r="MO19" s="31"/>
-      <c r="MP19" s="31"/>
-      <c r="MQ19" s="31"/>
-      <c r="MR19" s="31"/>
-      <c r="MS19" s="31"/>
-      <c r="MT19" s="31"/>
-      <c r="MU19" s="31"/>
-      <c r="MV19" s="31"/>
-      <c r="MW19" s="31"/>
-      <c r="MX19" s="31"/>
-      <c r="MY19" s="31"/>
-      <c r="MZ19" s="31"/>
-      <c r="NA19" s="31"/>
-      <c r="NB19" s="31"/>
-      <c r="NC19" s="31"/>
-      <c r="ND19" s="31"/>
-      <c r="NE19" s="31"/>
-      <c r="NF19" s="31"/>
-      <c r="NG19" s="31"/>
-      <c r="NH19" s="31"/>
-      <c r="NI19" s="31"/>
-      <c r="NJ19" s="31"/>
-      <c r="NK19" s="31"/>
-      <c r="NL19" s="31"/>
-      <c r="NM19" s="31"/>
-      <c r="NN19" s="31"/>
-      <c r="NO19" s="31"/>
-      <c r="NP19" s="31"/>
-      <c r="NQ19" s="31"/>
-      <c r="NR19" s="31"/>
-      <c r="NS19" s="31"/>
-      <c r="NT19" s="31"/>
-      <c r="NU19" s="31"/>
-      <c r="NV19" s="31"/>
-      <c r="NW19" s="31"/>
-      <c r="NX19" s="31"/>
-      <c r="NY19" s="31"/>
-      <c r="NZ19" s="31"/>
-      <c r="OA19" s="31"/>
-      <c r="OB19" s="31"/>
-      <c r="OC19" s="31"/>
-      <c r="OD19" s="31"/>
-      <c r="OE19" s="31"/>
-      <c r="OF19" s="31"/>
-      <c r="OG19" s="31"/>
-      <c r="OH19" s="31"/>
-      <c r="OI19" s="31"/>
-      <c r="OJ19" s="31"/>
-      <c r="OK19" s="31"/>
-      <c r="OL19" s="31"/>
-      <c r="OM19" s="31"/>
-      <c r="ON19" s="31"/>
-      <c r="OO19" s="31"/>
-      <c r="OP19" s="31"/>
-      <c r="OQ19" s="31"/>
-      <c r="OR19" s="31"/>
-      <c r="OS19" s="31"/>
-      <c r="OT19" s="31"/>
-      <c r="OU19" s="31"/>
-      <c r="OV19" s="31"/>
-      <c r="OW19" s="31"/>
-      <c r="OX19" s="31"/>
-      <c r="OY19" s="31"/>
-      <c r="OZ19" s="31"/>
-      <c r="PA19" s="31"/>
-      <c r="PB19" s="31"/>
-      <c r="PC19" s="31"/>
-      <c r="PD19" s="31"/>
-      <c r="PE19" s="31"/>
-      <c r="PF19" s="31"/>
-      <c r="PG19" s="31"/>
-      <c r="PH19" s="31"/>
-      <c r="PI19" s="31"/>
-      <c r="PJ19" s="31"/>
-      <c r="PK19" s="31"/>
-      <c r="PL19" s="31"/>
-      <c r="PM19" s="31"/>
-      <c r="PN19" s="31"/>
-      <c r="PO19" s="31"/>
-      <c r="PP19" s="31"/>
-      <c r="PQ19" s="31"/>
-      <c r="PR19" s="31"/>
-      <c r="PS19" s="31"/>
-      <c r="PT19" s="31"/>
-      <c r="PU19" s="31"/>
-      <c r="PV19" s="31"/>
-      <c r="PW19" s="31"/>
-      <c r="PX19" s="31"/>
-      <c r="PY19" s="31"/>
-      <c r="PZ19" s="31"/>
-      <c r="QA19" s="31"/>
-      <c r="QB19" s="31"/>
-      <c r="QC19" s="31"/>
-      <c r="QD19" s="31"/>
-      <c r="QE19" s="31"/>
-      <c r="QF19" s="31"/>
-      <c r="QG19" s="31"/>
-      <c r="QH19" s="31"/>
-      <c r="QI19" s="31"/>
-      <c r="QJ19" s="31"/>
-      <c r="QK19" s="31"/>
-      <c r="QL19" s="31"/>
-      <c r="QM19" s="31"/>
-      <c r="QN19" s="31"/>
-      <c r="QO19" s="31"/>
-      <c r="QP19" s="31"/>
-      <c r="QQ19" s="31"/>
-      <c r="QR19" s="31"/>
-      <c r="QS19" s="31"/>
-      <c r="QT19" s="31"/>
-      <c r="QU19" s="31"/>
-      <c r="QV19" s="31"/>
-      <c r="QW19" s="31"/>
-      <c r="QX19" s="31"/>
-      <c r="QY19" s="31"/>
-      <c r="QZ19" s="31"/>
-      <c r="RA19" s="31"/>
-      <c r="RB19" s="31"/>
-      <c r="RC19" s="31"/>
-      <c r="RD19" s="31"/>
-      <c r="RE19" s="31"/>
-      <c r="RF19" s="31"/>
-      <c r="RG19" s="31"/>
-      <c r="RH19" s="31"/>
-      <c r="RI19" s="31"/>
-      <c r="RJ19" s="31"/>
-      <c r="RK19" s="31"/>
-      <c r="RL19" s="31"/>
-      <c r="RM19" s="31"/>
-      <c r="RN19" s="31"/>
-      <c r="RO19" s="31"/>
-      <c r="RP19" s="31"/>
-      <c r="RQ19" s="31"/>
-      <c r="RR19" s="31"/>
-      <c r="RS19" s="31"/>
-      <c r="RT19" s="31"/>
-      <c r="RU19" s="31"/>
-      <c r="RV19" s="31"/>
-      <c r="RW19" s="31"/>
-      <c r="RX19" s="31"/>
-      <c r="RY19" s="31"/>
-      <c r="RZ19" s="31"/>
-      <c r="SA19" s="31"/>
-      <c r="SB19" s="31"/>
-      <c r="SC19" s="31"/>
-      <c r="SD19" s="31"/>
-      <c r="SE19" s="31"/>
-      <c r="SF19" s="31"/>
-      <c r="SG19" s="31"/>
-      <c r="SH19" s="31"/>
-      <c r="SI19" s="31"/>
-      <c r="SJ19" s="31"/>
-      <c r="SK19" s="31"/>
-      <c r="SL19" s="31"/>
-      <c r="SM19" s="31"/>
-      <c r="SN19" s="31"/>
-      <c r="SO19" s="31"/>
-      <c r="SP19" s="31"/>
-      <c r="SQ19" s="31"/>
-      <c r="SR19" s="31"/>
-      <c r="SS19" s="31"/>
-      <c r="ST19" s="31"/>
-      <c r="SU19" s="31"/>
-      <c r="SV19" s="31"/>
-      <c r="SW19" s="31"/>
-      <c r="SX19" s="31"/>
-      <c r="SY19" s="31"/>
-      <c r="SZ19" s="31"/>
-      <c r="TA19" s="31"/>
-      <c r="TB19" s="31"/>
-      <c r="TC19" s="31"/>
-      <c r="TD19" s="31"/>
-      <c r="TE19" s="31"/>
-      <c r="TF19" s="31"/>
-      <c r="TG19" s="31"/>
-      <c r="TH19" s="31"/>
-      <c r="TI19" s="31"/>
-      <c r="TJ19" s="31"/>
-      <c r="TK19" s="31"/>
-      <c r="TL19" s="31"/>
-      <c r="TM19" s="31"/>
-      <c r="TN19" s="31"/>
-      <c r="TO19" s="31"/>
-      <c r="TP19" s="31"/>
-      <c r="TQ19" s="31"/>
-      <c r="TR19" s="31"/>
-      <c r="TS19" s="31"/>
-      <c r="TT19" s="31"/>
-      <c r="TU19" s="31"/>
-      <c r="TV19" s="31"/>
-      <c r="TW19" s="31"/>
-      <c r="TX19" s="31"/>
-      <c r="TY19" s="31"/>
-      <c r="TZ19" s="31"/>
-      <c r="UA19" s="31"/>
-      <c r="UB19" s="31"/>
-      <c r="UC19" s="31"/>
-      <c r="UD19" s="31"/>
-      <c r="UE19" s="31"/>
-      <c r="UF19" s="31"/>
-      <c r="UG19" s="31"/>
-      <c r="UH19" s="31"/>
-      <c r="UI19" s="31"/>
-      <c r="UJ19" s="31"/>
-      <c r="UK19" s="31"/>
-      <c r="UL19" s="31"/>
-      <c r="UM19" s="31"/>
-      <c r="UN19" s="31"/>
-      <c r="UO19" s="31"/>
-      <c r="UP19" s="31"/>
-      <c r="UQ19" s="31"/>
-      <c r="UR19" s="31"/>
-      <c r="US19" s="31"/>
-      <c r="UT19" s="31"/>
-      <c r="UU19" s="31"/>
-      <c r="UV19" s="31"/>
-      <c r="UW19" s="31"/>
-      <c r="UX19" s="31"/>
-      <c r="UY19" s="31"/>
-      <c r="UZ19" s="31"/>
-      <c r="VA19" s="31"/>
-      <c r="VB19" s="31"/>
-      <c r="VC19" s="31"/>
-      <c r="VD19" s="31"/>
-      <c r="VE19" s="31"/>
-      <c r="VF19" s="31"/>
-      <c r="VG19" s="31"/>
-      <c r="VH19" s="31"/>
-      <c r="VI19" s="31"/>
-      <c r="VJ19" s="31"/>
-      <c r="VK19" s="31"/>
-      <c r="VL19" s="31"/>
-      <c r="VM19" s="31"/>
-      <c r="VN19" s="31"/>
-      <c r="VO19" s="31"/>
-      <c r="VP19" s="31"/>
-      <c r="VQ19" s="31"/>
-      <c r="VR19" s="31"/>
-      <c r="VS19" s="31"/>
-      <c r="VT19" s="31"/>
-      <c r="VU19" s="31"/>
-      <c r="VV19" s="31"/>
-      <c r="VW19" s="31"/>
-      <c r="VX19" s="31"/>
-      <c r="VY19" s="31"/>
-      <c r="VZ19" s="31"/>
-      <c r="WA19" s="31"/>
-      <c r="WB19" s="31"/>
-      <c r="WC19" s="31"/>
-      <c r="WD19" s="31"/>
-      <c r="WE19" s="31"/>
-      <c r="WF19" s="31"/>
-      <c r="WG19" s="31"/>
-      <c r="WH19" s="31"/>
-      <c r="WI19" s="31"/>
-      <c r="WJ19" s="31"/>
-      <c r="WK19" s="31"/>
-      <c r="WL19" s="31"/>
-      <c r="WM19" s="31"/>
-      <c r="WN19" s="31"/>
-      <c r="WO19" s="31"/>
-      <c r="WP19" s="31"/>
-      <c r="WQ19" s="31"/>
-      <c r="WR19" s="31"/>
-      <c r="WS19" s="31"/>
-      <c r="WT19" s="31"/>
-      <c r="WU19" s="31"/>
-      <c r="WV19" s="31"/>
-      <c r="WW19" s="31"/>
-      <c r="WX19" s="31"/>
-      <c r="WY19" s="31"/>
-      <c r="WZ19" s="31"/>
-      <c r="XA19" s="31"/>
-      <c r="XB19" s="31"/>
-      <c r="XC19" s="31"/>
-      <c r="XD19" s="31"/>
-      <c r="XE19" s="31"/>
-      <c r="XF19" s="31"/>
-      <c r="XG19" s="31"/>
-      <c r="XH19" s="31"/>
-      <c r="XI19" s="31"/>
-      <c r="XJ19" s="31"/>
-      <c r="XK19" s="31"/>
-      <c r="XL19" s="31"/>
-      <c r="XM19" s="31"/>
-      <c r="XN19" s="31"/>
-      <c r="XO19" s="31"/>
-      <c r="XP19" s="31"/>
-      <c r="XQ19" s="31"/>
-      <c r="XR19" s="31"/>
-      <c r="XS19" s="31"/>
-      <c r="XT19" s="31"/>
-      <c r="XU19" s="31"/>
-      <c r="XV19" s="31"/>
-      <c r="XW19" s="31"/>
-      <c r="XX19" s="31"/>
-      <c r="XY19" s="31"/>
-      <c r="XZ19" s="31"/>
-      <c r="YA19" s="31"/>
-      <c r="YB19" s="31"/>
-      <c r="YC19" s="31"/>
-      <c r="YD19" s="31"/>
-      <c r="YE19" s="31"/>
-      <c r="YF19" s="31"/>
-      <c r="YG19" s="31"/>
-      <c r="YH19" s="31"/>
-      <c r="YI19" s="31"/>
-      <c r="YJ19" s="31"/>
-      <c r="YK19" s="31"/>
-      <c r="YL19" s="31"/>
-      <c r="YM19" s="31"/>
-      <c r="YN19" s="31"/>
-      <c r="YO19" s="31"/>
-      <c r="YP19" s="31"/>
-      <c r="YQ19" s="31"/>
-      <c r="YR19" s="31"/>
-      <c r="YS19" s="31"/>
-      <c r="YT19" s="31"/>
-      <c r="YU19" s="31"/>
-      <c r="YV19" s="31"/>
-      <c r="YW19" s="31"/>
-      <c r="YX19" s="31"/>
-      <c r="YY19" s="31"/>
-      <c r="YZ19" s="31"/>
-      <c r="ZA19" s="31"/>
-      <c r="ZB19" s="31"/>
-      <c r="ZC19" s="31"/>
-      <c r="ZD19" s="31"/>
-      <c r="ZE19" s="31"/>
-      <c r="ZF19" s="31"/>
-      <c r="ZG19" s="31"/>
-      <c r="ZH19" s="31"/>
-      <c r="ZI19" s="31"/>
-      <c r="ZJ19" s="31"/>
-      <c r="ZK19" s="31"/>
-      <c r="ZL19" s="31"/>
-      <c r="ZM19" s="31"/>
-      <c r="ZN19" s="31"/>
-      <c r="ZO19" s="31"/>
-      <c r="ZP19" s="31"/>
-      <c r="ZQ19" s="31"/>
-      <c r="ZR19" s="31"/>
-      <c r="ZS19" s="31"/>
-      <c r="ZT19" s="31"/>
-      <c r="ZU19" s="31"/>
-      <c r="ZV19" s="31"/>
-      <c r="ZW19" s="31"/>
-      <c r="ZX19" s="31"/>
-      <c r="ZY19" s="31"/>
-      <c r="ZZ19" s="31"/>
-      <c r="AAA19" s="31"/>
-      <c r="AAB19" s="31"/>
-      <c r="AAC19" s="31"/>
-      <c r="AAD19" s="31"/>
-      <c r="AAE19" s="31"/>
-      <c r="AAF19" s="31"/>
-      <c r="AAG19" s="31"/>
-      <c r="AAH19" s="31"/>
-      <c r="AAI19" s="31"/>
-      <c r="AAJ19" s="31"/>
-      <c r="AAK19" s="31"/>
-      <c r="AAL19" s="31"/>
-      <c r="AAM19" s="31"/>
-      <c r="AAN19" s="31"/>
-      <c r="AAO19" s="31"/>
-      <c r="AAP19" s="31"/>
-      <c r="AAQ19" s="31"/>
-      <c r="AAR19" s="31"/>
-      <c r="AAS19" s="31"/>
-      <c r="AAT19" s="31"/>
-      <c r="AAU19" s="31"/>
-      <c r="AAV19" s="31"/>
-      <c r="AAW19" s="31"/>
-      <c r="AAX19" s="31"/>
-      <c r="AAY19" s="31"/>
-      <c r="AAZ19" s="31"/>
-      <c r="ABA19" s="31"/>
-      <c r="ABB19" s="31"/>
-      <c r="ABC19" s="31"/>
-      <c r="ABD19" s="31"/>
-      <c r="ABE19" s="31"/>
-      <c r="ABF19" s="31"/>
-      <c r="ABG19" s="31"/>
-      <c r="ABH19" s="31"/>
-      <c r="ABI19" s="31"/>
-      <c r="ABJ19" s="31"/>
-      <c r="ABK19" s="31"/>
-      <c r="ABL19" s="31"/>
-      <c r="ABM19" s="31"/>
-      <c r="ABN19" s="31"/>
-      <c r="ABO19" s="31"/>
-      <c r="ABP19" s="31"/>
-      <c r="ABQ19" s="31"/>
-      <c r="ABR19" s="31"/>
-      <c r="ABS19" s="31"/>
-      <c r="ABT19" s="31"/>
-      <c r="ABU19" s="31"/>
-      <c r="ABV19" s="31"/>
-      <c r="ABW19" s="31"/>
-      <c r="ABX19" s="31"/>
-      <c r="ABY19" s="31"/>
-      <c r="ABZ19" s="31"/>
-      <c r="ACA19" s="31"/>
-      <c r="ACB19" s="31"/>
-    </row>
-    <row r="20" spans="1:756" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="30">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="18"/>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="18"/>
+      <c r="CK18" s="18"/>
+      <c r="CL18" s="18"/>
+      <c r="CM18" s="18"/>
+      <c r="CN18" s="18"/>
+      <c r="CO18" s="18"/>
+      <c r="CP18" s="18"/>
+      <c r="CQ18" s="18"/>
+      <c r="CR18" s="18"/>
+      <c r="CS18" s="18"/>
+      <c r="CT18" s="18"/>
+      <c r="CU18" s="18"/>
+      <c r="CV18" s="18"/>
+      <c r="CW18" s="18"/>
+      <c r="CX18" s="18"/>
+      <c r="CY18" s="18"/>
+      <c r="CZ18" s="18"/>
+      <c r="DA18" s="18"/>
+      <c r="DB18" s="18"/>
+      <c r="DC18" s="18"/>
+      <c r="DD18" s="18"/>
+      <c r="DE18" s="18"/>
+      <c r="DF18" s="18"/>
+      <c r="DG18" s="18"/>
+      <c r="DH18" s="18"/>
+      <c r="DI18" s="18"/>
+      <c r="DJ18" s="18"/>
+      <c r="DK18" s="18"/>
+      <c r="DL18" s="18"/>
+      <c r="DM18" s="18"/>
+      <c r="DN18" s="18"/>
+      <c r="DO18" s="18"/>
+      <c r="DP18" s="18"/>
+      <c r="DQ18" s="18"/>
+      <c r="DR18" s="18"/>
+      <c r="DS18" s="18"/>
+      <c r="DT18" s="18"/>
+      <c r="DU18" s="18"/>
+      <c r="DV18" s="18"/>
+      <c r="DW18" s="18"/>
+      <c r="DX18" s="18"/>
+      <c r="DY18" s="18"/>
+      <c r="DZ18" s="18"/>
+      <c r="EA18" s="18"/>
+      <c r="EB18" s="18"/>
+      <c r="EC18" s="18"/>
+      <c r="ED18" s="18"/>
+      <c r="EE18" s="18"/>
+      <c r="EF18" s="18"/>
+      <c r="EG18" s="18"/>
+      <c r="EH18" s="18"/>
+      <c r="EI18" s="18"/>
+      <c r="EJ18" s="18"/>
+      <c r="EK18" s="18"/>
+      <c r="EL18" s="18"/>
+      <c r="EM18" s="18"/>
+      <c r="EN18" s="18"/>
+      <c r="EO18" s="18"/>
+      <c r="EP18" s="18"/>
+      <c r="EQ18" s="18"/>
+      <c r="ER18" s="18"/>
+      <c r="ES18" s="18"/>
+      <c r="ET18" s="18"/>
+      <c r="EU18" s="18"/>
+      <c r="EV18" s="18"/>
+      <c r="EW18" s="18"/>
+      <c r="EX18" s="18"/>
+      <c r="EY18" s="18"/>
+      <c r="EZ18" s="18"/>
+      <c r="FA18" s="18"/>
+      <c r="FB18" s="18"/>
+      <c r="FC18" s="18"/>
+      <c r="FD18" s="18"/>
+      <c r="FE18" s="18"/>
+      <c r="FF18" s="18"/>
+      <c r="FG18" s="18"/>
+      <c r="FH18" s="18"/>
+      <c r="FI18" s="18"/>
+      <c r="FJ18" s="18"/>
+      <c r="FK18" s="18"/>
+      <c r="FL18" s="18"/>
+      <c r="FM18" s="18"/>
+      <c r="FN18" s="18"/>
+      <c r="FO18" s="18"/>
+      <c r="FP18" s="18"/>
+      <c r="FQ18" s="18"/>
+      <c r="FR18" s="18"/>
+      <c r="FS18" s="18"/>
+      <c r="FT18" s="18"/>
+      <c r="FU18" s="18"/>
+      <c r="FV18" s="18"/>
+      <c r="FW18" s="18"/>
+      <c r="FX18" s="18"/>
+      <c r="FY18" s="18"/>
+      <c r="FZ18" s="18"/>
+      <c r="GA18" s="18"/>
+      <c r="GB18" s="18"/>
+      <c r="GC18" s="18"/>
+      <c r="GD18" s="18"/>
+      <c r="GE18" s="18"/>
+      <c r="GF18" s="18"/>
+      <c r="GG18" s="18"/>
+      <c r="GH18" s="18"/>
+      <c r="GI18" s="18"/>
+      <c r="GJ18" s="18"/>
+      <c r="GK18" s="18"/>
+      <c r="GL18" s="18"/>
+      <c r="GM18" s="18"/>
+      <c r="GN18" s="18"/>
+      <c r="GO18" s="18"/>
+      <c r="GP18" s="18"/>
+      <c r="GQ18" s="18"/>
+      <c r="GR18" s="18"/>
+      <c r="GS18" s="18"/>
+      <c r="GT18" s="18"/>
+      <c r="GU18" s="18"/>
+      <c r="GV18" s="18"/>
+      <c r="GW18" s="18"/>
+      <c r="GX18" s="18"/>
+      <c r="GY18" s="18"/>
+      <c r="GZ18" s="18"/>
+      <c r="HA18" s="18"/>
+      <c r="HB18" s="18"/>
+      <c r="HC18" s="18"/>
+      <c r="HD18" s="18"/>
+      <c r="HE18" s="18"/>
+      <c r="HF18" s="18"/>
+      <c r="HG18" s="18"/>
+      <c r="HH18" s="18"/>
+      <c r="HI18" s="18"/>
+      <c r="HJ18" s="18"/>
+      <c r="HK18" s="18"/>
+      <c r="HL18" s="18"/>
+      <c r="HM18" s="18"/>
+      <c r="HN18" s="18"/>
+      <c r="HO18" s="18"/>
+      <c r="HP18" s="18"/>
+      <c r="HQ18" s="18"/>
+      <c r="HR18" s="18"/>
+      <c r="HS18" s="18"/>
+      <c r="HT18" s="18"/>
+      <c r="HU18" s="18"/>
+      <c r="HV18" s="18"/>
+      <c r="HW18" s="18"/>
+      <c r="HX18" s="18"/>
+      <c r="HY18" s="18"/>
+      <c r="HZ18" s="18"/>
+      <c r="IA18" s="18"/>
+      <c r="IB18" s="18"/>
+      <c r="IC18" s="18"/>
+      <c r="ID18" s="18"/>
+      <c r="IE18" s="18"/>
+      <c r="IF18" s="18"/>
+      <c r="IG18" s="18"/>
+      <c r="IH18" s="18"/>
+      <c r="II18" s="18"/>
+      <c r="IJ18" s="18"/>
+      <c r="IK18" s="18"/>
+      <c r="IL18" s="18"/>
+      <c r="IM18" s="18"/>
+      <c r="IN18" s="18"/>
+      <c r="IO18" s="18"/>
+      <c r="IP18" s="18"/>
+      <c r="IQ18" s="18"/>
+      <c r="IR18" s="18"/>
+      <c r="IS18" s="18"/>
+      <c r="IT18" s="18"/>
+      <c r="IU18" s="18"/>
+      <c r="IV18" s="18"/>
+      <c r="IW18" s="18"/>
+      <c r="IX18" s="18"/>
+      <c r="IY18" s="18"/>
+      <c r="IZ18" s="18"/>
+      <c r="JA18" s="18"/>
+      <c r="JB18" s="18"/>
+      <c r="JC18" s="18"/>
+      <c r="JD18" s="18"/>
+      <c r="JE18" s="18"/>
+      <c r="JF18" s="18"/>
+      <c r="JG18" s="18"/>
+      <c r="JH18" s="18"/>
+      <c r="JI18" s="18"/>
+      <c r="JJ18" s="18"/>
+      <c r="JK18" s="18"/>
+      <c r="JL18" s="18"/>
+      <c r="JM18" s="18"/>
+      <c r="JN18" s="18"/>
+      <c r="JO18" s="18"/>
+      <c r="JP18" s="18"/>
+      <c r="JQ18" s="18"/>
+      <c r="JR18" s="18"/>
+      <c r="JS18" s="18"/>
+      <c r="JT18" s="18"/>
+      <c r="JU18" s="18"/>
+      <c r="JV18" s="18"/>
+      <c r="JW18" s="18"/>
+      <c r="JX18" s="18"/>
+      <c r="JY18" s="18"/>
+      <c r="JZ18" s="18"/>
+      <c r="KA18" s="18"/>
+      <c r="KB18" s="18"/>
+      <c r="KC18" s="18"/>
+      <c r="KD18" s="18"/>
+      <c r="KE18" s="18"/>
+      <c r="KF18" s="18"/>
+      <c r="KG18" s="18"/>
+      <c r="KH18" s="18"/>
+      <c r="KI18" s="18"/>
+      <c r="KJ18" s="18"/>
+      <c r="KK18" s="18"/>
+      <c r="KL18" s="18"/>
+      <c r="KM18" s="18"/>
+      <c r="KN18" s="18"/>
+      <c r="KO18" s="18"/>
+      <c r="KP18" s="18"/>
+      <c r="KQ18" s="18"/>
+      <c r="KR18" s="18"/>
+      <c r="KS18" s="18"/>
+      <c r="KT18" s="18"/>
+      <c r="KU18" s="18"/>
+      <c r="KV18" s="18"/>
+      <c r="KW18" s="18"/>
+      <c r="KX18" s="18"/>
+      <c r="KY18" s="18"/>
+      <c r="KZ18" s="18"/>
+      <c r="LA18" s="18"/>
+      <c r="LB18" s="18"/>
+      <c r="LC18" s="18"/>
+      <c r="LD18" s="18"/>
+      <c r="LE18" s="18"/>
+      <c r="LF18" s="18"/>
+      <c r="LG18" s="18"/>
+      <c r="LH18" s="18"/>
+      <c r="LI18" s="18"/>
+      <c r="LJ18" s="18"/>
+      <c r="LK18" s="18"/>
+      <c r="LL18" s="18"/>
+      <c r="LM18" s="18"/>
+      <c r="LN18" s="18"/>
+      <c r="LO18" s="18"/>
+      <c r="LP18" s="18"/>
+      <c r="LQ18" s="18"/>
+      <c r="LR18" s="18"/>
+      <c r="LS18" s="18"/>
+      <c r="LT18" s="18"/>
+      <c r="LU18" s="18"/>
+      <c r="LV18" s="18"/>
+      <c r="LW18" s="18"/>
+      <c r="LX18" s="18"/>
+      <c r="LY18" s="18"/>
+      <c r="LZ18" s="18"/>
+      <c r="MA18" s="18"/>
+      <c r="MB18" s="18"/>
+      <c r="MC18" s="18"/>
+      <c r="MD18" s="18"/>
+      <c r="ME18" s="18"/>
+      <c r="MF18" s="18"/>
+      <c r="MG18" s="18"/>
+      <c r="MH18" s="18"/>
+      <c r="MI18" s="18"/>
+      <c r="MJ18" s="18"/>
+      <c r="MK18" s="18"/>
+      <c r="ML18" s="18"/>
+      <c r="MM18" s="18"/>
+      <c r="MN18" s="18"/>
+      <c r="MO18" s="18"/>
+      <c r="MP18" s="18"/>
+      <c r="MQ18" s="18"/>
+      <c r="MR18" s="18"/>
+      <c r="MS18" s="18"/>
+      <c r="MT18" s="18"/>
+      <c r="MU18" s="18"/>
+      <c r="MV18" s="18"/>
+      <c r="MW18" s="18"/>
+      <c r="MX18" s="18"/>
+      <c r="MY18" s="18"/>
+      <c r="MZ18" s="18"/>
+      <c r="NA18" s="18"/>
+      <c r="NB18" s="18"/>
+      <c r="NC18" s="18"/>
+      <c r="ND18" s="18"/>
+      <c r="NE18" s="18"/>
+      <c r="NF18" s="18"/>
+      <c r="NG18" s="18"/>
+      <c r="NH18" s="18"/>
+      <c r="NI18" s="18"/>
+      <c r="NJ18" s="18"/>
+      <c r="NK18" s="18"/>
+      <c r="NL18" s="18"/>
+      <c r="NM18" s="18"/>
+      <c r="NN18" s="18"/>
+      <c r="NO18" s="18"/>
+      <c r="NP18" s="18"/>
+      <c r="NQ18" s="18"/>
+      <c r="NR18" s="18"/>
+      <c r="NS18" s="18"/>
+      <c r="NT18" s="18"/>
+      <c r="NU18" s="18"/>
+      <c r="NV18" s="18"/>
+      <c r="NW18" s="18"/>
+      <c r="NX18" s="18"/>
+      <c r="NY18" s="18"/>
+      <c r="NZ18" s="18"/>
+      <c r="OA18" s="18"/>
+      <c r="OB18" s="18"/>
+      <c r="OC18" s="18"/>
+      <c r="OD18" s="18"/>
+      <c r="OE18" s="18"/>
+      <c r="OF18" s="18"/>
+      <c r="OG18" s="18"/>
+      <c r="OH18" s="18"/>
+      <c r="OI18" s="18"/>
+      <c r="OJ18" s="18"/>
+      <c r="OK18" s="18"/>
+      <c r="OL18" s="18"/>
+      <c r="OM18" s="18"/>
+      <c r="ON18" s="18"/>
+      <c r="OO18" s="18"/>
+      <c r="OP18" s="18"/>
+      <c r="OQ18" s="18"/>
+      <c r="OR18" s="18"/>
+      <c r="OS18" s="18"/>
+      <c r="OT18" s="18"/>
+      <c r="OU18" s="18"/>
+      <c r="OV18" s="18"/>
+      <c r="OW18" s="18"/>
+      <c r="OX18" s="18"/>
+      <c r="OY18" s="18"/>
+      <c r="OZ18" s="18"/>
+      <c r="PA18" s="18"/>
+      <c r="PB18" s="18"/>
+      <c r="PC18" s="18"/>
+      <c r="PD18" s="18"/>
+      <c r="PE18" s="18"/>
+      <c r="PF18" s="18"/>
+      <c r="PG18" s="18"/>
+      <c r="PH18" s="18"/>
+      <c r="PI18" s="18"/>
+      <c r="PJ18" s="18"/>
+      <c r="PK18" s="18"/>
+      <c r="PL18" s="18"/>
+      <c r="PM18" s="18"/>
+      <c r="PN18" s="18"/>
+      <c r="PO18" s="18"/>
+      <c r="PP18" s="18"/>
+      <c r="PQ18" s="18"/>
+      <c r="PR18" s="18"/>
+      <c r="PS18" s="18"/>
+      <c r="PT18" s="18"/>
+      <c r="PU18" s="18"/>
+      <c r="PV18" s="18"/>
+      <c r="PW18" s="18"/>
+      <c r="PX18" s="18"/>
+      <c r="PY18" s="18"/>
+      <c r="PZ18" s="18"/>
+      <c r="QA18" s="18"/>
+      <c r="QB18" s="18"/>
+      <c r="QC18" s="18"/>
+      <c r="QD18" s="18"/>
+      <c r="QE18" s="18"/>
+      <c r="QF18" s="18"/>
+      <c r="QG18" s="18"/>
+      <c r="QH18" s="18"/>
+      <c r="QI18" s="18"/>
+      <c r="QJ18" s="18"/>
+      <c r="QK18" s="18"/>
+      <c r="QL18" s="18"/>
+      <c r="QM18" s="18"/>
+      <c r="QN18" s="18"/>
+      <c r="QO18" s="18"/>
+      <c r="QP18" s="18"/>
+      <c r="QQ18" s="18"/>
+      <c r="QR18" s="18"/>
+      <c r="QS18" s="18"/>
+      <c r="QT18" s="18"/>
+      <c r="QU18" s="18"/>
+      <c r="QV18" s="18"/>
+      <c r="QW18" s="18"/>
+      <c r="QX18" s="18"/>
+      <c r="QY18" s="18"/>
+      <c r="QZ18" s="18"/>
+      <c r="RA18" s="18"/>
+      <c r="RB18" s="18"/>
+      <c r="RC18" s="18"/>
+      <c r="RD18" s="18"/>
+      <c r="RE18" s="18"/>
+      <c r="RF18" s="18"/>
+      <c r="RG18" s="18"/>
+      <c r="RH18" s="18"/>
+      <c r="RI18" s="18"/>
+      <c r="RJ18" s="18"/>
+      <c r="RK18" s="18"/>
+      <c r="RL18" s="18"/>
+      <c r="RM18" s="18"/>
+      <c r="RN18" s="18"/>
+      <c r="RO18" s="18"/>
+      <c r="RP18" s="18"/>
+      <c r="RQ18" s="18"/>
+      <c r="RR18" s="18"/>
+      <c r="RS18" s="18"/>
+      <c r="RT18" s="18"/>
+      <c r="RU18" s="18"/>
+      <c r="RV18" s="18"/>
+      <c r="RW18" s="18"/>
+      <c r="RX18" s="18"/>
+      <c r="RY18" s="18"/>
+      <c r="RZ18" s="18"/>
+      <c r="SA18" s="18"/>
+      <c r="SB18" s="18"/>
+      <c r="SC18" s="18"/>
+      <c r="SD18" s="18"/>
+      <c r="SE18" s="18"/>
+      <c r="SF18" s="18"/>
+      <c r="SG18" s="18"/>
+      <c r="SH18" s="18"/>
+      <c r="SI18" s="18"/>
+      <c r="SJ18" s="18"/>
+      <c r="SK18" s="18"/>
+      <c r="SL18" s="18"/>
+      <c r="SM18" s="18"/>
+      <c r="SN18" s="18"/>
+      <c r="SO18" s="18"/>
+      <c r="SP18" s="18"/>
+      <c r="SQ18" s="18"/>
+      <c r="SR18" s="18"/>
+      <c r="SS18" s="18"/>
+      <c r="ST18" s="18"/>
+      <c r="SU18" s="18"/>
+      <c r="SV18" s="18"/>
+      <c r="SW18" s="18"/>
+      <c r="SX18" s="18"/>
+      <c r="SY18" s="18"/>
+      <c r="SZ18" s="18"/>
+      <c r="TA18" s="18"/>
+      <c r="TB18" s="18"/>
+      <c r="TC18" s="18"/>
+      <c r="TD18" s="18"/>
+      <c r="TE18" s="18"/>
+      <c r="TF18" s="18"/>
+      <c r="TG18" s="18"/>
+      <c r="TH18" s="18"/>
+      <c r="TI18" s="18"/>
+      <c r="TJ18" s="18"/>
+      <c r="TK18" s="18"/>
+      <c r="TL18" s="18"/>
+      <c r="TM18" s="18"/>
+      <c r="TN18" s="18"/>
+      <c r="TO18" s="18"/>
+      <c r="TP18" s="18"/>
+      <c r="TQ18" s="18"/>
+      <c r="TR18" s="18"/>
+      <c r="TS18" s="18"/>
+      <c r="TT18" s="18"/>
+      <c r="TU18" s="18"/>
+      <c r="TV18" s="18"/>
+      <c r="TW18" s="18"/>
+      <c r="TX18" s="18"/>
+      <c r="TY18" s="18"/>
+      <c r="TZ18" s="18"/>
+      <c r="UA18" s="18"/>
+      <c r="UB18" s="18"/>
+      <c r="UC18" s="18"/>
+      <c r="UD18" s="18"/>
+      <c r="UE18" s="18"/>
+      <c r="UF18" s="18"/>
+      <c r="UG18" s="18"/>
+      <c r="UH18" s="18"/>
+      <c r="UI18" s="18"/>
+      <c r="UJ18" s="18"/>
+      <c r="UK18" s="18"/>
+      <c r="UL18" s="18"/>
+      <c r="UM18" s="18"/>
+      <c r="UN18" s="18"/>
+      <c r="UO18" s="18"/>
+      <c r="UP18" s="18"/>
+      <c r="UQ18" s="18"/>
+      <c r="UR18" s="18"/>
+      <c r="US18" s="18"/>
+      <c r="UT18" s="18"/>
+      <c r="UU18" s="18"/>
+      <c r="UV18" s="18"/>
+      <c r="UW18" s="18"/>
+      <c r="UX18" s="18"/>
+      <c r="UY18" s="18"/>
+      <c r="UZ18" s="18"/>
+      <c r="VA18" s="18"/>
+      <c r="VB18" s="18"/>
+      <c r="VC18" s="18"/>
+      <c r="VD18" s="18"/>
+      <c r="VE18" s="18"/>
+      <c r="VF18" s="18"/>
+      <c r="VG18" s="18"/>
+      <c r="VH18" s="18"/>
+      <c r="VI18" s="18"/>
+      <c r="VJ18" s="18"/>
+      <c r="VK18" s="18"/>
+      <c r="VL18" s="18"/>
+      <c r="VM18" s="18"/>
+      <c r="VN18" s="18"/>
+      <c r="VO18" s="18"/>
+      <c r="VP18" s="18"/>
+      <c r="VQ18" s="18"/>
+      <c r="VR18" s="18"/>
+      <c r="VS18" s="18"/>
+      <c r="VT18" s="18"/>
+      <c r="VU18" s="18"/>
+      <c r="VV18" s="18"/>
+      <c r="VW18" s="18"/>
+      <c r="VX18" s="18"/>
+      <c r="VY18" s="18"/>
+      <c r="VZ18" s="18"/>
+      <c r="WA18" s="18"/>
+      <c r="WB18" s="18"/>
+      <c r="WC18" s="18"/>
+      <c r="WD18" s="18"/>
+      <c r="WE18" s="18"/>
+      <c r="WF18" s="18"/>
+      <c r="WG18" s="18"/>
+      <c r="WH18" s="18"/>
+      <c r="WI18" s="18"/>
+      <c r="WJ18" s="18"/>
+      <c r="WK18" s="18"/>
+      <c r="WL18" s="18"/>
+      <c r="WM18" s="18"/>
+      <c r="WN18" s="18"/>
+      <c r="WO18" s="18"/>
+      <c r="WP18" s="18"/>
+      <c r="WQ18" s="18"/>
+      <c r="WR18" s="18"/>
+      <c r="WS18" s="18"/>
+      <c r="WT18" s="18"/>
+      <c r="WU18" s="18"/>
+      <c r="WV18" s="18"/>
+      <c r="WW18" s="18"/>
+      <c r="WX18" s="18"/>
+      <c r="WY18" s="18"/>
+      <c r="WZ18" s="18"/>
+      <c r="XA18" s="18"/>
+      <c r="XB18" s="18"/>
+      <c r="XC18" s="18"/>
+      <c r="XD18" s="18"/>
+      <c r="XE18" s="18"/>
+      <c r="XF18" s="18"/>
+      <c r="XG18" s="18"/>
+      <c r="XH18" s="18"/>
+      <c r="XI18" s="18"/>
+      <c r="XJ18" s="18"/>
+      <c r="XK18" s="18"/>
+      <c r="XL18" s="18"/>
+      <c r="XM18" s="18"/>
+      <c r="XN18" s="18"/>
+      <c r="XO18" s="18"/>
+      <c r="XP18" s="18"/>
+      <c r="XQ18" s="18"/>
+      <c r="XR18" s="18"/>
+      <c r="XS18" s="18"/>
+      <c r="XT18" s="18"/>
+      <c r="XU18" s="18"/>
+      <c r="XV18" s="18"/>
+      <c r="XW18" s="18"/>
+      <c r="XX18" s="18"/>
+      <c r="XY18" s="18"/>
+      <c r="XZ18" s="18"/>
+      <c r="YA18" s="18"/>
+      <c r="YB18" s="18"/>
+      <c r="YC18" s="18"/>
+      <c r="YD18" s="18"/>
+      <c r="YE18" s="18"/>
+      <c r="YF18" s="18"/>
+      <c r="YG18" s="18"/>
+      <c r="YH18" s="18"/>
+      <c r="YI18" s="18"/>
+      <c r="YJ18" s="18"/>
+      <c r="YK18" s="18"/>
+      <c r="YL18" s="18"/>
+      <c r="YM18" s="18"/>
+      <c r="YN18" s="18"/>
+      <c r="YO18" s="18"/>
+      <c r="YP18" s="18"/>
+      <c r="YQ18" s="18"/>
+      <c r="YR18" s="18"/>
+      <c r="YS18" s="18"/>
+      <c r="YT18" s="18"/>
+      <c r="YU18" s="18"/>
+      <c r="YV18" s="18"/>
+      <c r="YW18" s="18"/>
+      <c r="YX18" s="18"/>
+      <c r="YY18" s="18"/>
+      <c r="YZ18" s="18"/>
+      <c r="ZA18" s="18"/>
+      <c r="ZB18" s="18"/>
+      <c r="ZC18" s="18"/>
+      <c r="ZD18" s="18"/>
+      <c r="ZE18" s="18"/>
+      <c r="ZF18" s="18"/>
+      <c r="ZG18" s="18"/>
+      <c r="ZH18" s="18"/>
+      <c r="ZI18" s="18"/>
+      <c r="ZJ18" s="18"/>
+      <c r="ZK18" s="18"/>
+      <c r="ZL18" s="18"/>
+      <c r="ZM18" s="18"/>
+      <c r="ZN18" s="18"/>
+      <c r="ZO18" s="18"/>
+      <c r="ZP18" s="18"/>
+      <c r="ZQ18" s="18"/>
+      <c r="ZR18" s="18"/>
+      <c r="ZS18" s="18"/>
+      <c r="ZT18" s="18"/>
+      <c r="ZU18" s="18"/>
+      <c r="ZV18" s="18"/>
+      <c r="ZW18" s="18"/>
+      <c r="ZX18" s="18"/>
+      <c r="ZY18" s="18"/>
+      <c r="ZZ18" s="18"/>
+      <c r="AAA18" s="18"/>
+      <c r="AAB18" s="18"/>
+      <c r="AAC18" s="18"/>
+      <c r="AAD18" s="18"/>
+      <c r="AAE18" s="18"/>
+      <c r="AAF18" s="18"/>
+      <c r="AAG18" s="18"/>
+      <c r="AAH18" s="18"/>
+      <c r="AAI18" s="18"/>
+      <c r="AAJ18" s="18"/>
+      <c r="AAK18" s="18"/>
+      <c r="AAL18" s="18"/>
+      <c r="AAM18" s="18"/>
+      <c r="AAN18" s="18"/>
+      <c r="AAO18" s="18"/>
+      <c r="AAP18" s="18"/>
+      <c r="AAQ18" s="18"/>
+      <c r="AAR18" s="18"/>
+      <c r="AAS18" s="18"/>
+      <c r="AAT18" s="18"/>
+      <c r="AAU18" s="18"/>
+      <c r="AAV18" s="18"/>
+      <c r="AAW18" s="18"/>
+      <c r="AAX18" s="18"/>
+      <c r="AAY18" s="18"/>
+      <c r="AAZ18" s="18"/>
+      <c r="ABA18" s="18"/>
+      <c r="ABB18" s="18"/>
+      <c r="ABC18" s="18"/>
+      <c r="ABD18" s="18"/>
+      <c r="ABE18" s="18"/>
+      <c r="ABF18" s="18"/>
+      <c r="ABG18" s="18"/>
+      <c r="ABH18" s="18"/>
+      <c r="ABI18" s="18"/>
+      <c r="ABJ18" s="18"/>
+      <c r="ABK18" s="18"/>
+      <c r="ABL18" s="18"/>
+      <c r="ABM18" s="18"/>
+      <c r="ABN18" s="18"/>
+      <c r="ABO18" s="18"/>
+      <c r="ABP18" s="18"/>
+      <c r="ABQ18" s="18"/>
+      <c r="ABR18" s="18"/>
+      <c r="ABS18" s="18"/>
+      <c r="ABT18" s="18"/>
+      <c r="ABU18" s="18"/>
+      <c r="ABV18" s="18"/>
+      <c r="ABW18" s="18"/>
+      <c r="ABX18" s="18"/>
+      <c r="ABY18" s="18"/>
+      <c r="ABZ18" s="18"/>
+      <c r="ACA18" s="18"/>
+      <c r="ACB18" s="18"/>
+    </row>
+    <row r="19" spans="1:756" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="24"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="24"/>
+      <c r="BO19" s="24"/>
+      <c r="BP19" s="24"/>
+      <c r="BQ19" s="24"/>
+      <c r="BR19" s="24"/>
+      <c r="BS19" s="24"/>
+      <c r="BT19" s="24"/>
+      <c r="BU19" s="24"/>
+      <c r="BV19" s="24"/>
+      <c r="BW19" s="24"/>
+      <c r="BX19" s="24"/>
+      <c r="BY19" s="24"/>
+      <c r="BZ19" s="24"/>
+      <c r="CA19" s="24"/>
+      <c r="CB19" s="24"/>
+      <c r="CC19" s="24"/>
+      <c r="CD19" s="24"/>
+      <c r="CE19" s="24"/>
+      <c r="CF19" s="24"/>
+      <c r="CG19" s="24"/>
+      <c r="CH19" s="24"/>
+      <c r="CI19" s="24"/>
+      <c r="CJ19" s="24"/>
+      <c r="CK19" s="24"/>
+      <c r="CL19" s="24"/>
+      <c r="CM19" s="24"/>
+      <c r="CN19" s="24"/>
+      <c r="CO19" s="24"/>
+      <c r="CP19" s="24"/>
+      <c r="CQ19" s="24"/>
+      <c r="CR19" s="24"/>
+      <c r="CS19" s="24"/>
+      <c r="CT19" s="24"/>
+      <c r="CU19" s="24"/>
+      <c r="CV19" s="24"/>
+      <c r="CW19" s="24"/>
+      <c r="CX19" s="24"/>
+      <c r="CY19" s="24"/>
+      <c r="CZ19" s="24"/>
+      <c r="DA19" s="24"/>
+      <c r="DB19" s="24"/>
+      <c r="DC19" s="24"/>
+      <c r="DD19" s="24"/>
+      <c r="DE19" s="24"/>
+      <c r="DF19" s="24"/>
+      <c r="DG19" s="24"/>
+      <c r="DH19" s="24"/>
+      <c r="DI19" s="24"/>
+      <c r="DJ19" s="24"/>
+      <c r="DK19" s="24"/>
+      <c r="DL19" s="24"/>
+      <c r="DM19" s="24"/>
+      <c r="DN19" s="24"/>
+      <c r="DO19" s="24"/>
+      <c r="DP19" s="24"/>
+      <c r="DQ19" s="24"/>
+      <c r="DR19" s="24"/>
+      <c r="DS19" s="24"/>
+      <c r="DT19" s="24"/>
+      <c r="DU19" s="24"/>
+      <c r="DV19" s="24"/>
+      <c r="DW19" s="24"/>
+      <c r="DX19" s="24"/>
+      <c r="DY19" s="24"/>
+      <c r="DZ19" s="24"/>
+      <c r="EA19" s="24"/>
+      <c r="EB19" s="24"/>
+      <c r="EC19" s="24"/>
+      <c r="ED19" s="24"/>
+      <c r="EE19" s="24"/>
+      <c r="EF19" s="24"/>
+      <c r="EG19" s="24"/>
+      <c r="EH19" s="24"/>
+      <c r="EI19" s="24"/>
+      <c r="EJ19" s="24"/>
+      <c r="EK19" s="24"/>
+      <c r="EL19" s="24"/>
+      <c r="EM19" s="24"/>
+      <c r="EN19" s="24"/>
+      <c r="EO19" s="24"/>
+      <c r="EP19" s="24"/>
+      <c r="EQ19" s="24"/>
+      <c r="ER19" s="24"/>
+      <c r="ES19" s="24"/>
+      <c r="ET19" s="24"/>
+      <c r="EU19" s="24"/>
+      <c r="EV19" s="24"/>
+      <c r="EW19" s="24"/>
+      <c r="EX19" s="24"/>
+      <c r="EY19" s="24"/>
+      <c r="EZ19" s="24"/>
+      <c r="FA19" s="24"/>
+      <c r="FB19" s="24"/>
+      <c r="FC19" s="24"/>
+      <c r="FD19" s="24"/>
+      <c r="FE19" s="24"/>
+      <c r="FF19" s="24"/>
+      <c r="FG19" s="24"/>
+      <c r="FH19" s="24"/>
+      <c r="FI19" s="24"/>
+      <c r="FJ19" s="24"/>
+      <c r="FK19" s="24"/>
+      <c r="FL19" s="24"/>
+      <c r="FM19" s="24"/>
+      <c r="FN19" s="24"/>
+      <c r="FO19" s="24"/>
+      <c r="FP19" s="24"/>
+      <c r="FQ19" s="24"/>
+      <c r="FR19" s="24"/>
+      <c r="FS19" s="24"/>
+      <c r="FT19" s="24"/>
+      <c r="FU19" s="24"/>
+      <c r="FV19" s="24"/>
+      <c r="FW19" s="24"/>
+      <c r="FX19" s="24"/>
+      <c r="FY19" s="24"/>
+      <c r="FZ19" s="24"/>
+      <c r="GA19" s="24"/>
+      <c r="GB19" s="24"/>
+      <c r="GC19" s="24"/>
+      <c r="GD19" s="24"/>
+      <c r="GE19" s="24"/>
+      <c r="GF19" s="24"/>
+      <c r="GG19" s="24"/>
+      <c r="GH19" s="24"/>
+      <c r="GI19" s="24"/>
+      <c r="GJ19" s="24"/>
+      <c r="GK19" s="24"/>
+      <c r="GL19" s="24"/>
+      <c r="GM19" s="24"/>
+      <c r="GN19" s="24"/>
+      <c r="GO19" s="24"/>
+      <c r="GP19" s="24"/>
+      <c r="GQ19" s="24"/>
+      <c r="GR19" s="24"/>
+      <c r="GS19" s="24"/>
+      <c r="GT19" s="24"/>
+      <c r="GU19" s="24"/>
+      <c r="GV19" s="24"/>
+      <c r="GW19" s="24"/>
+      <c r="GX19" s="24"/>
+      <c r="GY19" s="24"/>
+      <c r="GZ19" s="24"/>
+      <c r="HA19" s="24"/>
+      <c r="HB19" s="24"/>
+      <c r="HC19" s="24"/>
+      <c r="HD19" s="24"/>
+      <c r="HE19" s="24"/>
+      <c r="HF19" s="24"/>
+      <c r="HG19" s="24"/>
+      <c r="HH19" s="24"/>
+      <c r="HI19" s="24"/>
+      <c r="HJ19" s="24"/>
+      <c r="HK19" s="24"/>
+      <c r="HL19" s="24"/>
+      <c r="HM19" s="24"/>
+      <c r="HN19" s="24"/>
+      <c r="HO19" s="24"/>
+      <c r="HP19" s="24"/>
+      <c r="HQ19" s="24"/>
+      <c r="HR19" s="24"/>
+      <c r="HS19" s="24"/>
+      <c r="HT19" s="24"/>
+      <c r="HU19" s="24"/>
+      <c r="HV19" s="24"/>
+      <c r="HW19" s="24"/>
+      <c r="HX19" s="24"/>
+      <c r="HY19" s="24"/>
+      <c r="HZ19" s="24"/>
+      <c r="IA19" s="24"/>
+      <c r="IB19" s="24"/>
+      <c r="IC19" s="24"/>
+      <c r="ID19" s="24"/>
+      <c r="IE19" s="24"/>
+      <c r="IF19" s="24"/>
+      <c r="IG19" s="24"/>
+      <c r="IH19" s="24"/>
+      <c r="II19" s="24"/>
+      <c r="IJ19" s="24"/>
+      <c r="IK19" s="24"/>
+      <c r="IL19" s="24"/>
+      <c r="IM19" s="24"/>
+      <c r="IN19" s="24"/>
+      <c r="IO19" s="24"/>
+      <c r="IP19" s="24"/>
+      <c r="IQ19" s="24"/>
+      <c r="IR19" s="24"/>
+      <c r="IS19" s="24"/>
+      <c r="IT19" s="24"/>
+      <c r="IU19" s="24"/>
+      <c r="IV19" s="24"/>
+      <c r="IW19" s="24"/>
+      <c r="IX19" s="24"/>
+      <c r="IY19" s="24"/>
+      <c r="IZ19" s="24"/>
+      <c r="JA19" s="24"/>
+      <c r="JB19" s="24"/>
+      <c r="JC19" s="24"/>
+      <c r="JD19" s="24"/>
+      <c r="JE19" s="24"/>
+      <c r="JF19" s="24"/>
+      <c r="JG19" s="24"/>
+      <c r="JH19" s="24"/>
+      <c r="JI19" s="24"/>
+      <c r="JJ19" s="24"/>
+      <c r="JK19" s="24"/>
+      <c r="JL19" s="24"/>
+      <c r="JM19" s="24"/>
+      <c r="JN19" s="24"/>
+      <c r="JO19" s="24"/>
+      <c r="JP19" s="24"/>
+      <c r="JQ19" s="24"/>
+      <c r="JR19" s="24"/>
+      <c r="JS19" s="24"/>
+      <c r="JT19" s="24"/>
+      <c r="JU19" s="24"/>
+      <c r="JV19" s="24"/>
+      <c r="JW19" s="24"/>
+      <c r="JX19" s="24"/>
+      <c r="JY19" s="24"/>
+      <c r="JZ19" s="24"/>
+      <c r="KA19" s="24"/>
+      <c r="KB19" s="24"/>
+      <c r="KC19" s="24"/>
+      <c r="KD19" s="24"/>
+      <c r="KE19" s="24"/>
+      <c r="KF19" s="24"/>
+      <c r="KG19" s="24"/>
+      <c r="KH19" s="24"/>
+      <c r="KI19" s="24"/>
+      <c r="KJ19" s="24"/>
+      <c r="KK19" s="24"/>
+      <c r="KL19" s="24"/>
+      <c r="KM19" s="24"/>
+      <c r="KN19" s="24"/>
+      <c r="KO19" s="24"/>
+      <c r="KP19" s="24"/>
+      <c r="KQ19" s="24"/>
+      <c r="KR19" s="24"/>
+      <c r="KS19" s="24"/>
+      <c r="KT19" s="24"/>
+      <c r="KU19" s="24"/>
+      <c r="KV19" s="24"/>
+      <c r="KW19" s="24"/>
+      <c r="KX19" s="24"/>
+      <c r="KY19" s="24"/>
+      <c r="KZ19" s="24"/>
+      <c r="LA19" s="24"/>
+      <c r="LB19" s="24"/>
+      <c r="LC19" s="24"/>
+      <c r="LD19" s="24"/>
+      <c r="LE19" s="24"/>
+      <c r="LF19" s="24"/>
+      <c r="LG19" s="24"/>
+      <c r="LH19" s="24"/>
+      <c r="LI19" s="24"/>
+      <c r="LJ19" s="24"/>
+      <c r="LK19" s="24"/>
+      <c r="LL19" s="24"/>
+      <c r="LM19" s="24"/>
+      <c r="LN19" s="24"/>
+      <c r="LO19" s="24"/>
+      <c r="LP19" s="24"/>
+      <c r="LQ19" s="24"/>
+      <c r="LR19" s="24"/>
+      <c r="LS19" s="24"/>
+      <c r="LT19" s="24"/>
+      <c r="LU19" s="24"/>
+      <c r="LV19" s="24"/>
+      <c r="LW19" s="24"/>
+      <c r="LX19" s="24"/>
+      <c r="LY19" s="24"/>
+      <c r="LZ19" s="24"/>
+      <c r="MA19" s="24"/>
+      <c r="MB19" s="24"/>
+      <c r="MC19" s="24"/>
+      <c r="MD19" s="24"/>
+      <c r="ME19" s="24"/>
+      <c r="MF19" s="24"/>
+      <c r="MG19" s="24"/>
+      <c r="MH19" s="24"/>
+      <c r="MI19" s="24"/>
+      <c r="MJ19" s="24"/>
+      <c r="MK19" s="24"/>
+      <c r="ML19" s="24"/>
+      <c r="MM19" s="24"/>
+      <c r="MN19" s="24"/>
+      <c r="MO19" s="24"/>
+      <c r="MP19" s="24"/>
+      <c r="MQ19" s="24"/>
+      <c r="MR19" s="24"/>
+      <c r="MS19" s="24"/>
+      <c r="MT19" s="24"/>
+      <c r="MU19" s="24"/>
+      <c r="MV19" s="24"/>
+      <c r="MW19" s="24"/>
+      <c r="MX19" s="24"/>
+      <c r="MY19" s="24"/>
+      <c r="MZ19" s="24"/>
+      <c r="NA19" s="24"/>
+      <c r="NB19" s="24"/>
+      <c r="NC19" s="24"/>
+      <c r="ND19" s="24"/>
+      <c r="NE19" s="24"/>
+      <c r="NF19" s="24"/>
+      <c r="NG19" s="24"/>
+      <c r="NH19" s="24"/>
+      <c r="NI19" s="24"/>
+      <c r="NJ19" s="24"/>
+      <c r="NK19" s="24"/>
+      <c r="NL19" s="24"/>
+      <c r="NM19" s="24"/>
+      <c r="NN19" s="24"/>
+      <c r="NO19" s="24"/>
+      <c r="NP19" s="24"/>
+      <c r="NQ19" s="24"/>
+      <c r="NR19" s="24"/>
+      <c r="NS19" s="24"/>
+      <c r="NT19" s="24"/>
+      <c r="NU19" s="24"/>
+      <c r="NV19" s="24"/>
+      <c r="NW19" s="24"/>
+      <c r="NX19" s="24"/>
+      <c r="NY19" s="24"/>
+      <c r="NZ19" s="24"/>
+      <c r="OA19" s="24"/>
+      <c r="OB19" s="24"/>
+      <c r="OC19" s="24"/>
+      <c r="OD19" s="24"/>
+      <c r="OE19" s="24"/>
+      <c r="OF19" s="24"/>
+      <c r="OG19" s="24"/>
+      <c r="OH19" s="24"/>
+      <c r="OI19" s="24"/>
+      <c r="OJ19" s="24"/>
+      <c r="OK19" s="24"/>
+      <c r="OL19" s="24"/>
+      <c r="OM19" s="24"/>
+      <c r="ON19" s="24"/>
+      <c r="OO19" s="24"/>
+      <c r="OP19" s="24"/>
+      <c r="OQ19" s="24"/>
+      <c r="OR19" s="24"/>
+      <c r="OS19" s="24"/>
+      <c r="OT19" s="24"/>
+      <c r="OU19" s="24"/>
+      <c r="OV19" s="24"/>
+      <c r="OW19" s="24"/>
+      <c r="OX19" s="24"/>
+      <c r="OY19" s="24"/>
+      <c r="OZ19" s="24"/>
+      <c r="PA19" s="24"/>
+      <c r="PB19" s="24"/>
+      <c r="PC19" s="24"/>
+      <c r="PD19" s="24"/>
+      <c r="PE19" s="24"/>
+      <c r="PF19" s="24"/>
+      <c r="PG19" s="24"/>
+      <c r="PH19" s="24"/>
+      <c r="PI19" s="24"/>
+      <c r="PJ19" s="24"/>
+      <c r="PK19" s="24"/>
+      <c r="PL19" s="24"/>
+      <c r="PM19" s="24"/>
+      <c r="PN19" s="24"/>
+      <c r="PO19" s="24"/>
+      <c r="PP19" s="24"/>
+      <c r="PQ19" s="24"/>
+      <c r="PR19" s="24"/>
+      <c r="PS19" s="24"/>
+      <c r="PT19" s="24"/>
+      <c r="PU19" s="24"/>
+      <c r="PV19" s="24"/>
+      <c r="PW19" s="24"/>
+      <c r="PX19" s="24"/>
+      <c r="PY19" s="24"/>
+      <c r="PZ19" s="24"/>
+      <c r="QA19" s="24"/>
+      <c r="QB19" s="24"/>
+      <c r="QC19" s="24"/>
+      <c r="QD19" s="24"/>
+      <c r="QE19" s="24"/>
+      <c r="QF19" s="24"/>
+      <c r="QG19" s="24"/>
+      <c r="QH19" s="24"/>
+      <c r="QI19" s="24"/>
+      <c r="QJ19" s="24"/>
+      <c r="QK19" s="24"/>
+      <c r="QL19" s="24"/>
+      <c r="QM19" s="24"/>
+      <c r="QN19" s="24"/>
+      <c r="QO19" s="24"/>
+      <c r="QP19" s="24"/>
+      <c r="QQ19" s="24"/>
+      <c r="QR19" s="24"/>
+      <c r="QS19" s="24"/>
+      <c r="QT19" s="24"/>
+      <c r="QU19" s="24"/>
+      <c r="QV19" s="24"/>
+      <c r="QW19" s="24"/>
+      <c r="QX19" s="24"/>
+      <c r="QY19" s="24"/>
+      <c r="QZ19" s="24"/>
+      <c r="RA19" s="24"/>
+      <c r="RB19" s="24"/>
+      <c r="RC19" s="24"/>
+      <c r="RD19" s="24"/>
+      <c r="RE19" s="24"/>
+      <c r="RF19" s="24"/>
+      <c r="RG19" s="24"/>
+      <c r="RH19" s="24"/>
+      <c r="RI19" s="24"/>
+      <c r="RJ19" s="24"/>
+      <c r="RK19" s="24"/>
+      <c r="RL19" s="24"/>
+      <c r="RM19" s="24"/>
+      <c r="RN19" s="24"/>
+      <c r="RO19" s="24"/>
+      <c r="RP19" s="24"/>
+      <c r="RQ19" s="24"/>
+      <c r="RR19" s="24"/>
+      <c r="RS19" s="24"/>
+      <c r="RT19" s="24"/>
+      <c r="RU19" s="24"/>
+      <c r="RV19" s="24"/>
+      <c r="RW19" s="24"/>
+      <c r="RX19" s="24"/>
+      <c r="RY19" s="24"/>
+      <c r="RZ19" s="24"/>
+      <c r="SA19" s="24"/>
+      <c r="SB19" s="24"/>
+      <c r="SC19" s="24"/>
+      <c r="SD19" s="24"/>
+      <c r="SE19" s="24"/>
+      <c r="SF19" s="24"/>
+      <c r="SG19" s="24"/>
+      <c r="SH19" s="24"/>
+      <c r="SI19" s="24"/>
+      <c r="SJ19" s="24"/>
+      <c r="SK19" s="24"/>
+      <c r="SL19" s="24"/>
+      <c r="SM19" s="24"/>
+      <c r="SN19" s="24"/>
+      <c r="SO19" s="24"/>
+      <c r="SP19" s="24"/>
+      <c r="SQ19" s="24"/>
+      <c r="SR19" s="24"/>
+      <c r="SS19" s="24"/>
+      <c r="ST19" s="24"/>
+      <c r="SU19" s="24"/>
+      <c r="SV19" s="24"/>
+      <c r="SW19" s="24"/>
+      <c r="SX19" s="24"/>
+      <c r="SY19" s="24"/>
+      <c r="SZ19" s="24"/>
+      <c r="TA19" s="24"/>
+      <c r="TB19" s="24"/>
+      <c r="TC19" s="24"/>
+      <c r="TD19" s="24"/>
+      <c r="TE19" s="24"/>
+      <c r="TF19" s="24"/>
+      <c r="TG19" s="24"/>
+      <c r="TH19" s="24"/>
+      <c r="TI19" s="24"/>
+      <c r="TJ19" s="24"/>
+      <c r="TK19" s="24"/>
+      <c r="TL19" s="24"/>
+      <c r="TM19" s="24"/>
+      <c r="TN19" s="24"/>
+      <c r="TO19" s="24"/>
+      <c r="TP19" s="24"/>
+      <c r="TQ19" s="24"/>
+      <c r="TR19" s="24"/>
+      <c r="TS19" s="24"/>
+      <c r="TT19" s="24"/>
+      <c r="TU19" s="24"/>
+      <c r="TV19" s="24"/>
+      <c r="TW19" s="24"/>
+      <c r="TX19" s="24"/>
+      <c r="TY19" s="24"/>
+      <c r="TZ19" s="24"/>
+      <c r="UA19" s="24"/>
+      <c r="UB19" s="24"/>
+      <c r="UC19" s="24"/>
+      <c r="UD19" s="24"/>
+      <c r="UE19" s="24"/>
+      <c r="UF19" s="24"/>
+      <c r="UG19" s="24"/>
+      <c r="UH19" s="24"/>
+      <c r="UI19" s="24"/>
+      <c r="UJ19" s="24"/>
+      <c r="UK19" s="24"/>
+      <c r="UL19" s="24"/>
+      <c r="UM19" s="24"/>
+      <c r="UN19" s="24"/>
+      <c r="UO19" s="24"/>
+      <c r="UP19" s="24"/>
+      <c r="UQ19" s="24"/>
+      <c r="UR19" s="24"/>
+      <c r="US19" s="24"/>
+      <c r="UT19" s="24"/>
+      <c r="UU19" s="24"/>
+      <c r="UV19" s="24"/>
+      <c r="UW19" s="24"/>
+      <c r="UX19" s="24"/>
+      <c r="UY19" s="24"/>
+      <c r="UZ19" s="24"/>
+      <c r="VA19" s="24"/>
+      <c r="VB19" s="24"/>
+      <c r="VC19" s="24"/>
+      <c r="VD19" s="24"/>
+      <c r="VE19" s="24"/>
+      <c r="VF19" s="24"/>
+      <c r="VG19" s="24"/>
+      <c r="VH19" s="24"/>
+      <c r="VI19" s="24"/>
+      <c r="VJ19" s="24"/>
+      <c r="VK19" s="24"/>
+      <c r="VL19" s="24"/>
+      <c r="VM19" s="24"/>
+      <c r="VN19" s="24"/>
+      <c r="VO19" s="24"/>
+      <c r="VP19" s="24"/>
+      <c r="VQ19" s="24"/>
+      <c r="VR19" s="24"/>
+      <c r="VS19" s="24"/>
+      <c r="VT19" s="24"/>
+      <c r="VU19" s="24"/>
+      <c r="VV19" s="24"/>
+      <c r="VW19" s="24"/>
+      <c r="VX19" s="24"/>
+      <c r="VY19" s="24"/>
+      <c r="VZ19" s="24"/>
+      <c r="WA19" s="24"/>
+      <c r="WB19" s="24"/>
+      <c r="WC19" s="24"/>
+      <c r="WD19" s="24"/>
+      <c r="WE19" s="24"/>
+      <c r="WF19" s="24"/>
+      <c r="WG19" s="24"/>
+      <c r="WH19" s="24"/>
+      <c r="WI19" s="24"/>
+      <c r="WJ19" s="24"/>
+      <c r="WK19" s="24"/>
+      <c r="WL19" s="24"/>
+      <c r="WM19" s="24"/>
+      <c r="WN19" s="24"/>
+      <c r="WO19" s="24"/>
+      <c r="WP19" s="24"/>
+      <c r="WQ19" s="24"/>
+      <c r="WR19" s="24"/>
+      <c r="WS19" s="24"/>
+      <c r="WT19" s="24"/>
+      <c r="WU19" s="24"/>
+      <c r="WV19" s="24"/>
+      <c r="WW19" s="24"/>
+      <c r="WX19" s="24"/>
+      <c r="WY19" s="24"/>
+      <c r="WZ19" s="24"/>
+      <c r="XA19" s="24"/>
+      <c r="XB19" s="24"/>
+      <c r="XC19" s="24"/>
+      <c r="XD19" s="24"/>
+      <c r="XE19" s="24"/>
+      <c r="XF19" s="24"/>
+      <c r="XG19" s="24"/>
+      <c r="XH19" s="24"/>
+      <c r="XI19" s="24"/>
+      <c r="XJ19" s="24"/>
+      <c r="XK19" s="24"/>
+      <c r="XL19" s="24"/>
+      <c r="XM19" s="24"/>
+      <c r="XN19" s="24"/>
+      <c r="XO19" s="24"/>
+      <c r="XP19" s="24"/>
+      <c r="XQ19" s="24"/>
+      <c r="XR19" s="24"/>
+      <c r="XS19" s="24"/>
+      <c r="XT19" s="24"/>
+      <c r="XU19" s="24"/>
+      <c r="XV19" s="24"/>
+      <c r="XW19" s="24"/>
+      <c r="XX19" s="24"/>
+      <c r="XY19" s="24"/>
+      <c r="XZ19" s="24"/>
+      <c r="YA19" s="24"/>
+      <c r="YB19" s="24"/>
+      <c r="YC19" s="24"/>
+      <c r="YD19" s="24"/>
+      <c r="YE19" s="24"/>
+      <c r="YF19" s="24"/>
+      <c r="YG19" s="24"/>
+      <c r="YH19" s="24"/>
+      <c r="YI19" s="24"/>
+      <c r="YJ19" s="24"/>
+      <c r="YK19" s="24"/>
+      <c r="YL19" s="24"/>
+      <c r="YM19" s="24"/>
+      <c r="YN19" s="24"/>
+      <c r="YO19" s="24"/>
+      <c r="YP19" s="24"/>
+      <c r="YQ19" s="24"/>
+      <c r="YR19" s="24"/>
+      <c r="YS19" s="24"/>
+      <c r="YT19" s="24"/>
+      <c r="YU19" s="24"/>
+      <c r="YV19" s="24"/>
+      <c r="YW19" s="24"/>
+      <c r="YX19" s="24"/>
+      <c r="YY19" s="24"/>
+      <c r="YZ19" s="24"/>
+      <c r="ZA19" s="24"/>
+      <c r="ZB19" s="24"/>
+      <c r="ZC19" s="24"/>
+      <c r="ZD19" s="24"/>
+      <c r="ZE19" s="24"/>
+      <c r="ZF19" s="24"/>
+      <c r="ZG19" s="24"/>
+      <c r="ZH19" s="24"/>
+      <c r="ZI19" s="24"/>
+      <c r="ZJ19" s="24"/>
+      <c r="ZK19" s="24"/>
+      <c r="ZL19" s="24"/>
+      <c r="ZM19" s="24"/>
+      <c r="ZN19" s="24"/>
+      <c r="ZO19" s="24"/>
+      <c r="ZP19" s="24"/>
+      <c r="ZQ19" s="24"/>
+      <c r="ZR19" s="24"/>
+      <c r="ZS19" s="24"/>
+      <c r="ZT19" s="24"/>
+      <c r="ZU19" s="24"/>
+      <c r="ZV19" s="24"/>
+      <c r="ZW19" s="24"/>
+      <c r="ZX19" s="24"/>
+      <c r="ZY19" s="24"/>
+      <c r="ZZ19" s="24"/>
+      <c r="AAA19" s="24"/>
+      <c r="AAB19" s="24"/>
+      <c r="AAC19" s="24"/>
+      <c r="AAD19" s="24"/>
+      <c r="AAE19" s="24"/>
+      <c r="AAF19" s="24"/>
+      <c r="AAG19" s="24"/>
+      <c r="AAH19" s="24"/>
+      <c r="AAI19" s="24"/>
+      <c r="AAJ19" s="24"/>
+      <c r="AAK19" s="24"/>
+      <c r="AAL19" s="24"/>
+      <c r="AAM19" s="24"/>
+      <c r="AAN19" s="24"/>
+      <c r="AAO19" s="24"/>
+      <c r="AAP19" s="24"/>
+      <c r="AAQ19" s="24"/>
+      <c r="AAR19" s="24"/>
+      <c r="AAS19" s="24"/>
+      <c r="AAT19" s="24"/>
+      <c r="AAU19" s="24"/>
+      <c r="AAV19" s="24"/>
+      <c r="AAW19" s="24"/>
+      <c r="AAX19" s="24"/>
+      <c r="AAY19" s="24"/>
+      <c r="AAZ19" s="24"/>
+      <c r="ABA19" s="24"/>
+      <c r="ABB19" s="24"/>
+      <c r="ABC19" s="24"/>
+      <c r="ABD19" s="24"/>
+      <c r="ABE19" s="24"/>
+      <c r="ABF19" s="24"/>
+      <c r="ABG19" s="24"/>
+      <c r="ABH19" s="24"/>
+      <c r="ABI19" s="24"/>
+      <c r="ABJ19" s="24"/>
+      <c r="ABK19" s="24"/>
+      <c r="ABL19" s="24"/>
+      <c r="ABM19" s="24"/>
+      <c r="ABN19" s="24"/>
+      <c r="ABO19" s="24"/>
+      <c r="ABP19" s="24"/>
+      <c r="ABQ19" s="24"/>
+      <c r="ABR19" s="24"/>
+      <c r="ABS19" s="24"/>
+      <c r="ABT19" s="24"/>
+      <c r="ABU19" s="24"/>
+      <c r="ABV19" s="24"/>
+      <c r="ABW19" s="24"/>
+      <c r="ABX19" s="24"/>
+      <c r="ABY19" s="24"/>
+      <c r="ABZ19" s="24"/>
+      <c r="ACA19" s="24"/>
+      <c r="ACB19" s="24"/>
+    </row>
+    <row r="20" spans="1:756" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="23">
         <v>194</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="23">
         <v>704</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="23">
         <v>335</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="23">
         <v>941</v>
       </c>
-      <c r="K20" s="31">
-        <f>J20*1.5</f>
-        <v>1411.5</v>
-      </c>
-      <c r="L20" s="31">
-        <f t="shared" ref="L20:P20" si="2">K20*1.5</f>
-        <v>2117.25</v>
-      </c>
-      <c r="M20" s="31">
+      <c r="K20" s="24">
+        <f>J20*1.35</f>
+        <v>1270.3500000000001</v>
+      </c>
+      <c r="L20" s="24">
+        <f t="shared" ref="L20:P20" si="2">K20*1.35</f>
+        <v>1714.9725000000003</v>
+      </c>
+      <c r="M20" s="24">
         <f t="shared" si="2"/>
-        <v>3175.875</v>
-      </c>
-      <c r="N20" s="31">
+        <v>2315.2128750000006</v>
+      </c>
+      <c r="N20" s="24">
         <f t="shared" si="2"/>
-        <v>4763.8125</v>
-      </c>
-      <c r="O20" s="31">
+        <v>3125.5373812500011</v>
+      </c>
+      <c r="O20" s="24">
         <f t="shared" si="2"/>
-        <v>7145.71875</v>
-      </c>
-      <c r="P20" s="31">
+        <v>4219.4754646875017</v>
+      </c>
+      <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>10718.578125</v>
-      </c>
-      <c r="Q20" s="31">
+        <v>5696.2918773281281</v>
+      </c>
+      <c r="Q20" s="24">
         <f>P20*(1+$M$40)</f>
-        <v>12004.807500000001</v>
-      </c>
-      <c r="R20" s="31">
+        <v>5981.1064711945346</v>
+      </c>
+      <c r="R20" s="24">
         <f t="shared" ref="R20:BW20" si="3">Q20*(1+$M$40)</f>
-        <v>13445.384400000003</v>
-      </c>
-      <c r="S20" s="31">
+        <v>6280.1617947542618</v>
+      </c>
+      <c r="S20" s="24">
         <f t="shared" si="3"/>
-        <v>15058.830528000004</v>
-      </c>
-      <c r="T20" s="31">
+        <v>6594.1698844919756</v>
+      </c>
+      <c r="T20" s="24">
         <f t="shared" si="3"/>
-        <v>16865.890191360006</v>
-      </c>
-      <c r="U20" s="31">
+        <v>6923.8783787165748</v>
+      </c>
+      <c r="U20" s="24">
         <f t="shared" si="3"/>
-        <v>18889.797014323209</v>
-      </c>
-      <c r="V20" s="31">
+        <v>7270.0722976524039</v>
+      </c>
+      <c r="V20" s="24">
         <f t="shared" si="3"/>
-        <v>21156.572656041997</v>
-      </c>
-      <c r="W20" s="31">
+        <v>7633.5759125350241</v>
+      </c>
+      <c r="W20" s="24">
         <f t="shared" si="3"/>
-        <v>23695.361374767039</v>
-      </c>
-      <c r="X20" s="31">
+        <v>8015.2547081617759</v>
+      </c>
+      <c r="X20" s="24">
         <f t="shared" si="3"/>
-        <v>26538.804739739087</v>
-      </c>
-      <c r="Y20" s="31">
+        <v>8416.0174435698646</v>
+      </c>
+      <c r="Y20" s="24">
         <f t="shared" si="3"/>
-        <v>29723.46130850778</v>
-      </c>
-      <c r="Z20" s="31">
+        <v>8836.8183157483581</v>
+      </c>
+      <c r="Z20" s="24">
         <f t="shared" si="3"/>
-        <v>33290.27666552872</v>
-      </c>
-      <c r="AA20" s="31">
+        <v>9278.6592315357757</v>
+      </c>
+      <c r="AA20" s="24">
         <f t="shared" si="3"/>
-        <v>37285.109865392173</v>
-      </c>
-      <c r="AB20" s="31">
+        <v>9742.5921931125649</v>
+      </c>
+      <c r="AB20" s="24">
         <f t="shared" si="3"/>
-        <v>41759.323049239239</v>
-      </c>
-      <c r="AC20" s="31">
+        <v>10229.721802768194</v>
+      </c>
+      <c r="AC20" s="24">
         <f t="shared" si="3"/>
-        <v>46770.441815147955</v>
-      </c>
-      <c r="AD20" s="31">
+        <v>10741.207892906605</v>
+      </c>
+      <c r="AD20" s="24">
         <f t="shared" si="3"/>
-        <v>52382.894832965714</v>
-      </c>
-      <c r="AE20" s="31">
+        <v>11278.268287551935</v>
+      </c>
+      <c r="AE20" s="24">
         <f t="shared" si="3"/>
-        <v>58668.842212921605</v>
-      </c>
-      <c r="AF20" s="31">
+        <v>11842.181701929532</v>
+      </c>
+      <c r="AF20" s="24">
         <f t="shared" si="3"/>
-        <v>65709.103278472205</v>
-      </c>
-      <c r="AG20" s="31">
+        <v>12434.29078702601</v>
+      </c>
+      <c r="AG20" s="24">
         <f t="shared" si="3"/>
-        <v>73594.195671888883</v>
-      </c>
-      <c r="AH20" s="31">
+        <v>13056.005326377312</v>
+      </c>
+      <c r="AH20" s="24">
         <f t="shared" si="3"/>
-        <v>82425.499152515564</v>
-      </c>
-      <c r="AI20" s="31">
+        <v>13708.805592696177</v>
+      </c>
+      <c r="AI20" s="24">
         <f t="shared" si="3"/>
-        <v>92316.559050817435</v>
-      </c>
-      <c r="AJ20" s="31">
+        <v>14394.245872330986</v>
+      </c>
+      <c r="AJ20" s="24">
         <f t="shared" si="3"/>
-        <v>103394.54613691554</v>
-      </c>
-      <c r="AK20" s="31">
+        <v>15113.958165947537</v>
+      </c>
+      <c r="AK20" s="24">
         <f t="shared" si="3"/>
-        <v>115801.89167334541</v>
-      </c>
-      <c r="AL20" s="31">
+        <v>15869.656074244915</v>
+      </c>
+      <c r="AL20" s="24">
         <f t="shared" si="3"/>
-        <v>129698.11867414687</v>
-      </c>
-      <c r="AM20" s="31">
+        <v>16663.138877957161</v>
+      </c>
+      <c r="AM20" s="24">
         <f t="shared" si="3"/>
-        <v>145261.8929150445</v>
-      </c>
-      <c r="AN20" s="31">
+        <v>17496.295821855019</v>
+      </c>
+      <c r="AN20" s="24">
         <f t="shared" si="3"/>
-        <v>162693.32006484986</v>
-      </c>
-      <c r="AO20" s="31">
+        <v>18371.11061294777</v>
+      </c>
+      <c r="AO20" s="24">
         <f t="shared" si="3"/>
-        <v>182216.51847263187</v>
-      </c>
-      <c r="AP20" s="31">
+        <v>19289.666143595161</v>
+      </c>
+      <c r="AP20" s="24">
         <f t="shared" si="3"/>
-        <v>204082.50068934771</v>
-      </c>
-      <c r="AQ20" s="31">
+        <v>20254.149450774919</v>
+      </c>
+      <c r="AQ20" s="24">
         <f t="shared" si="3"/>
-        <v>228572.40077206946</v>
-      </c>
-      <c r="AR20" s="31">
+        <v>21266.856923313666</v>
+      </c>
+      <c r="AR20" s="24">
         <f t="shared" si="3"/>
-        <v>256001.08886471784</v>
-      </c>
-      <c r="AS20" s="31">
+        <v>22330.19976947935</v>
+      </c>
+      <c r="AS20" s="24">
         <f t="shared" si="3"/>
-        <v>286721.21952848398</v>
-      </c>
-      <c r="AT20" s="31">
+        <v>23446.709757953318</v>
+      </c>
+      <c r="AT20" s="24">
         <f t="shared" si="3"/>
-        <v>321127.76587190211</v>
-      </c>
-      <c r="AU20" s="31">
+        <v>24619.045245850986</v>
+      </c>
+      <c r="AU20" s="24">
         <f t="shared" si="3"/>
-        <v>359663.09777653043</v>
-      </c>
-      <c r="AV20" s="31">
+        <v>25849.997508143537</v>
+      </c>
+      <c r="AV20" s="24">
         <f t="shared" si="3"/>
-        <v>402822.66950971412</v>
-      </c>
-      <c r="AW20" s="31">
+        <v>27142.497383550715</v>
+      </c>
+      <c r="AW20" s="24">
         <f t="shared" si="3"/>
-        <v>451161.38985087984</v>
-      </c>
-      <c r="AX20" s="31">
+        <v>28499.622252728252</v>
+      </c>
+      <c r="AX20" s="24">
         <f t="shared" si="3"/>
-        <v>505300.75663298549</v>
-      </c>
-      <c r="AY20" s="31">
+        <v>29924.603365364666</v>
+      </c>
+      <c r="AY20" s="24">
         <f t="shared" si="3"/>
-        <v>565936.84742894385</v>
-      </c>
-      <c r="AZ20" s="31">
+        <v>31420.8335336329</v>
+      </c>
+      <c r="AZ20" s="24">
         <f t="shared" si="3"/>
-        <v>633849.26912041719</v>
-      </c>
-      <c r="BA20" s="31">
+        <v>32991.875210314545</v>
+      </c>
+      <c r="BA20" s="24">
         <f t="shared" si="3"/>
-        <v>709911.18141486729</v>
-      </c>
-      <c r="BB20" s="31">
+        <v>34641.468970830276</v>
+      </c>
+      <c r="BB20" s="24">
         <f t="shared" si="3"/>
-        <v>795100.52318465139</v>
-      </c>
-      <c r="BC20" s="31">
+        <v>36373.542419371792</v>
+      </c>
+      <c r="BC20" s="24">
         <f t="shared" si="3"/>
-        <v>890512.58596680965</v>
-      </c>
-      <c r="BD20" s="31">
+        <v>38192.219540340382</v>
+      </c>
+      <c r="BD20" s="24">
         <f t="shared" si="3"/>
-        <v>997374.09628282685</v>
-      </c>
-      <c r="BE20" s="31">
+        <v>40101.830517357404</v>
+      </c>
+      <c r="BE20" s="24">
         <f t="shared" si="3"/>
-        <v>1117058.9878367663</v>
-      </c>
-      <c r="BF20" s="31">
+        <v>42106.922043225277</v>
+      </c>
+      <c r="BF20" s="24">
         <f t="shared" si="3"/>
-        <v>1251106.0663771783</v>
-      </c>
-      <c r="BG20" s="31">
+        <v>44212.268145386544</v>
+      </c>
+      <c r="BG20" s="24">
         <f t="shared" si="3"/>
-        <v>1401238.7943424399</v>
-      </c>
-      <c r="BH20" s="31">
+        <v>46422.881552655876</v>
+      </c>
+      <c r="BH20" s="24">
         <f t="shared" si="3"/>
-        <v>1569387.4496635329</v>
-      </c>
-      <c r="BI20" s="31">
+        <v>48744.02563028867</v>
+      </c>
+      <c r="BI20" s="24">
         <f t="shared" si="3"/>
-        <v>1757713.943623157</v>
-      </c>
-      <c r="BJ20" s="31">
+        <v>51181.226911803104</v>
+      </c>
+      <c r="BJ20" s="24">
         <f t="shared" si="3"/>
-        <v>1968639.6168579359</v>
-      </c>
-      <c r="BK20" s="31">
+        <v>53740.288257393258</v>
+      </c>
+      <c r="BK20" s="24">
         <f t="shared" si="3"/>
-        <v>2204876.3708808883</v>
-      </c>
-      <c r="BL20" s="31">
+        <v>56427.302670262921</v>
+      </c>
+      <c r="BL20" s="24">
         <f t="shared" si="3"/>
-        <v>2469461.5353865949</v>
-      </c>
-      <c r="BM20" s="31">
+        <v>59248.667803776072</v>
+      </c>
+      <c r="BM20" s="24">
         <f t="shared" si="3"/>
-        <v>2765796.9196329867</v>
-      </c>
-      <c r="BN20" s="31">
+        <v>62211.101193964882</v>
+      </c>
+      <c r="BN20" s="24">
         <f t="shared" si="3"/>
-        <v>3097692.5499889455</v>
-      </c>
-      <c r="BO20" s="31">
+        <v>65321.656253663132</v>
+      </c>
+      <c r="BO20" s="24">
         <f t="shared" si="3"/>
-        <v>3469415.6559876194</v>
-      </c>
-      <c r="BP20" s="31">
+        <v>68587.739066346287</v>
+      </c>
+      <c r="BP20" s="24">
         <f t="shared" si="3"/>
-        <v>3885745.5347061343</v>
-      </c>
-      <c r="BQ20" s="31">
+        <v>72017.126019663599</v>
+      </c>
+      <c r="BQ20" s="24">
         <f t="shared" si="3"/>
-        <v>4352034.998870871</v>
-      </c>
-      <c r="BR20" s="31">
+        <v>75617.982320646785</v>
+      </c>
+      <c r="BR20" s="24">
         <f t="shared" si="3"/>
-        <v>4874279.1987353759</v>
-      </c>
-      <c r="BS20" s="31">
+        <v>79398.881436679134</v>
+      </c>
+      <c r="BS20" s="24">
         <f t="shared" si="3"/>
-        <v>5459192.7025836213</v>
-      </c>
-      <c r="BT20" s="31">
+        <v>83368.825508513095</v>
+      </c>
+      <c r="BT20" s="24">
         <f t="shared" si="3"/>
-        <v>6114295.8268936565</v>
-      </c>
-      <c r="BU20" s="31">
+        <v>87537.266783938758</v>
+      </c>
+      <c r="BU20" s="24">
         <f t="shared" si="3"/>
-        <v>6848011.3261208963</v>
-      </c>
-      <c r="BV20" s="31">
+        <v>91914.130123135707</v>
+      </c>
+      <c r="BV20" s="24">
         <f t="shared" si="3"/>
-        <v>7669772.6852554046</v>
-      </c>
-      <c r="BW20" s="31">
+        <v>96509.836629292491</v>
+      </c>
+      <c r="BW20" s="24">
         <f t="shared" si="3"/>
-        <v>8590145.4074860532</v>
-      </c>
-      <c r="BX20" s="31">
+        <v>101335.32846075713</v>
+      </c>
+      <c r="BX20" s="24">
         <f t="shared" ref="BX20:EI20" si="4">BW20*(1+$M$40)</f>
-        <v>9620962.8563843798</v>
-      </c>
-      <c r="BY20" s="31">
-        <f t="shared" si="4"/>
-        <v>10775478.399150506</v>
-      </c>
-      <c r="BZ20" s="31">
-        <f t="shared" si="4"/>
-        <v>12068535.807048567</v>
-      </c>
-      <c r="CA20" s="31">
-        <f t="shared" si="4"/>
-        <v>13516760.103894396</v>
-      </c>
-      <c r="CB20" s="31">
-        <f t="shared" si="4"/>
-        <v>15138771.316361725</v>
-      </c>
-      <c r="CC20" s="31">
-        <f t="shared" si="4"/>
-        <v>16955423.874325134</v>
-      </c>
-      <c r="CD20" s="31">
-        <f t="shared" si="4"/>
-        <v>18990074.739244152</v>
-      </c>
-      <c r="CE20" s="31">
-        <f t="shared" si="4"/>
-        <v>21268883.707953453</v>
-      </c>
-      <c r="CF20" s="31">
-        <f t="shared" si="4"/>
-        <v>23821149.752907868</v>
-      </c>
-      <c r="CG20" s="31">
-        <f t="shared" si="4"/>
-        <v>26679687.723256815</v>
-      </c>
-      <c r="CH20" s="31">
-        <f t="shared" si="4"/>
-        <v>29881250.250047635</v>
-      </c>
-      <c r="CI20" s="31">
-        <f t="shared" si="4"/>
-        <v>33467000.280053355</v>
-      </c>
-      <c r="CJ20" s="31">
-        <f t="shared" si="4"/>
-        <v>37483040.313659757</v>
-      </c>
-      <c r="CK20" s="31">
-        <f t="shared" si="4"/>
-        <v>41981005.151298933</v>
-      </c>
-      <c r="CL20" s="31">
-        <f t="shared" si="4"/>
-        <v>47018725.769454807</v>
-      </c>
-      <c r="CM20" s="31">
-        <f t="shared" si="4"/>
-        <v>52660972.86178939</v>
-      </c>
-      <c r="CN20" s="31">
-        <f t="shared" si="4"/>
-        <v>58980289.60520412</v>
-      </c>
-      <c r="CO20" s="31">
-        <f t="shared" si="4"/>
-        <v>66057924.357828625</v>
-      </c>
-      <c r="CP20" s="31">
-        <f t="shared" si="4"/>
-        <v>73984875.280768067</v>
-      </c>
-      <c r="CQ20" s="31">
-        <f t="shared" si="4"/>
-        <v>82863060.314460248</v>
-      </c>
-      <c r="CR20" s="31">
-        <f t="shared" si="4"/>
-        <v>92806627.552195489</v>
-      </c>
-      <c r="CS20" s="31">
-        <f t="shared" si="4"/>
-        <v>103943422.85845895</v>
-      </c>
-      <c r="CT20" s="31">
-        <f t="shared" si="4"/>
-        <v>116416633.60147403</v>
-      </c>
-      <c r="CU20" s="31">
-        <f t="shared" si="4"/>
-        <v>130386629.63365093</v>
-      </c>
-      <c r="CV20" s="31">
-        <f t="shared" si="4"/>
-        <v>146033025.18968904</v>
-      </c>
-      <c r="CW20" s="31">
-        <f t="shared" si="4"/>
-        <v>163556988.21245173</v>
-      </c>
-      <c r="CX20" s="31">
-        <f t="shared" si="4"/>
-        <v>183183826.79794595</v>
-      </c>
-      <c r="CY20" s="31">
-        <f t="shared" si="4"/>
-        <v>205165886.01369947</v>
-      </c>
-      <c r="CZ20" s="31">
-        <f t="shared" si="4"/>
-        <v>229785792.33534342</v>
-      </c>
-      <c r="DA20" s="31">
-        <f t="shared" si="4"/>
-        <v>257360087.41558465</v>
-      </c>
-      <c r="DB20" s="31">
-        <f t="shared" si="4"/>
-        <v>288243297.90545481</v>
-      </c>
-      <c r="DC20" s="31">
-        <f t="shared" si="4"/>
-        <v>322832493.65410942</v>
-      </c>
-      <c r="DD20" s="31">
-        <f t="shared" si="4"/>
-        <v>361572392.89260256</v>
-      </c>
-      <c r="DE20" s="31">
-        <f t="shared" si="4"/>
-        <v>404961080.03971493</v>
-      </c>
-      <c r="DF20" s="31">
-        <f t="shared" si="4"/>
-        <v>453556409.64448076</v>
-      </c>
-      <c r="DG20" s="31">
-        <f t="shared" si="4"/>
-        <v>507983178.80181849</v>
-      </c>
-      <c r="DH20" s="31">
-        <f t="shared" si="4"/>
-        <v>568941160.25803673</v>
-      </c>
-      <c r="DI20" s="31">
-        <f t="shared" si="4"/>
-        <v>637214099.48900115</v>
-      </c>
-      <c r="DJ20" s="31">
-        <f t="shared" si="4"/>
-        <v>713679791.42768133</v>
-      </c>
-      <c r="DK20" s="31">
-        <f t="shared" si="4"/>
-        <v>799321366.39900315</v>
-      </c>
-      <c r="DL20" s="31">
-        <f t="shared" si="4"/>
-        <v>895239930.36688364</v>
-      </c>
-      <c r="DM20" s="31">
-        <f t="shared" si="4"/>
-        <v>1002668722.0109098</v>
-      </c>
-      <c r="DN20" s="31">
-        <f t="shared" si="4"/>
-        <v>1122988968.6522191</v>
-      </c>
-      <c r="DO20" s="31">
-        <f t="shared" si="4"/>
-        <v>1257747644.8904855</v>
-      </c>
-      <c r="DP20" s="31">
-        <f t="shared" si="4"/>
-        <v>1408677362.277344</v>
-      </c>
-      <c r="DQ20" s="31">
-        <f t="shared" si="4"/>
-        <v>1577718645.7506254</v>
-      </c>
-      <c r="DR20" s="31">
-        <f t="shared" si="4"/>
-        <v>1767044883.2407005</v>
-      </c>
-      <c r="DS20" s="31">
-        <f t="shared" si="4"/>
-        <v>1979090269.2295847</v>
-      </c>
-      <c r="DT20" s="31">
-        <f t="shared" si="4"/>
-        <v>2216581101.5371351</v>
-      </c>
-      <c r="DU20" s="31">
-        <f t="shared" si="4"/>
-        <v>2482570833.7215915</v>
-      </c>
-      <c r="DV20" s="31">
-        <f t="shared" si="4"/>
-        <v>2780479333.7681828</v>
-      </c>
-      <c r="DW20" s="31">
-        <f t="shared" si="4"/>
-        <v>3114136853.820365</v>
-      </c>
-      <c r="DX20" s="31">
-        <f t="shared" si="4"/>
-        <v>3487833276.2788091</v>
-      </c>
-      <c r="DY20" s="31">
-        <f t="shared" si="4"/>
-        <v>3906373269.4322667</v>
-      </c>
-      <c r="DZ20" s="31">
-        <f t="shared" si="4"/>
-        <v>4375138061.7641392</v>
-      </c>
-      <c r="EA20" s="31">
-        <f t="shared" si="4"/>
-        <v>4900154629.1758366</v>
-      </c>
-      <c r="EB20" s="31">
-        <f t="shared" si="4"/>
-        <v>5488173184.6769371</v>
-      </c>
-      <c r="EC20" s="31">
-        <f t="shared" si="4"/>
-        <v>6146753966.8381701</v>
-      </c>
-      <c r="ED20" s="31">
-        <f t="shared" si="4"/>
-        <v>6884364442.8587513</v>
-      </c>
-      <c r="EE20" s="31">
-        <f t="shared" si="4"/>
-        <v>7710488176.0018024</v>
-      </c>
-      <c r="EF20" s="31">
-        <f t="shared" si="4"/>
-        <v>8635746757.1220188</v>
-      </c>
-      <c r="EG20" s="31">
-        <f t="shared" si="4"/>
-        <v>9672036367.9766617</v>
-      </c>
-      <c r="EH20" s="31">
-        <f t="shared" si="4"/>
-        <v>10832680732.133862</v>
-      </c>
-      <c r="EI20" s="31">
-        <f t="shared" si="4"/>
-        <v>12132602419.989925</v>
-      </c>
-      <c r="EJ20" s="31">
+        <v>106402.09488379498</v>
+      </c>
+      <c r="BY20" s="24">
+        <f t="shared" si="4"/>
+        <v>111722.19962798474</v>
+      </c>
+      <c r="BZ20" s="24">
+        <f t="shared" si="4"/>
+        <v>117308.30960938398</v>
+      </c>
+      <c r="CA20" s="24">
+        <f t="shared" si="4"/>
+        <v>123173.72508985319</v>
+      </c>
+      <c r="CB20" s="24">
+        <f t="shared" si="4"/>
+        <v>129332.41134434586</v>
+      </c>
+      <c r="CC20" s="24">
+        <f t="shared" si="4"/>
+        <v>135799.03191156316</v>
+      </c>
+      <c r="CD20" s="24">
+        <f t="shared" si="4"/>
+        <v>142588.98350714133</v>
+      </c>
+      <c r="CE20" s="24">
+        <f t="shared" si="4"/>
+        <v>149718.43268249839</v>
+      </c>
+      <c r="CF20" s="24">
+        <f t="shared" si="4"/>
+        <v>157204.3543166233</v>
+      </c>
+      <c r="CG20" s="24">
+        <f t="shared" si="4"/>
+        <v>165064.57203245448</v>
+      </c>
+      <c r="CH20" s="24">
+        <f t="shared" si="4"/>
+        <v>173317.80063407723</v>
+      </c>
+      <c r="CI20" s="24">
+        <f t="shared" si="4"/>
+        <v>181983.69066578109</v>
+      </c>
+      <c r="CJ20" s="24">
+        <f t="shared" si="4"/>
+        <v>191082.87519907014</v>
+      </c>
+      <c r="CK20" s="24">
+        <f t="shared" si="4"/>
+        <v>200637.01895902367</v>
+      </c>
+      <c r="CL20" s="24">
+        <f t="shared" si="4"/>
+        <v>210668.86990697487</v>
+      </c>
+      <c r="CM20" s="24">
+        <f t="shared" si="4"/>
+        <v>221202.31340232363</v>
+      </c>
+      <c r="CN20" s="24">
+        <f t="shared" si="4"/>
+        <v>232262.42907243982</v>
+      </c>
+      <c r="CO20" s="24">
+        <f t="shared" si="4"/>
+        <v>243875.55052606182</v>
+      </c>
+      <c r="CP20" s="24">
+        <f t="shared" si="4"/>
+        <v>256069.32805236493</v>
+      </c>
+      <c r="CQ20" s="24">
+        <f t="shared" si="4"/>
+        <v>268872.7944549832</v>
+      </c>
+      <c r="CR20" s="24">
+        <f t="shared" si="4"/>
+        <v>282316.43417773239</v>
+      </c>
+      <c r="CS20" s="24">
+        <f t="shared" si="4"/>
+        <v>296432.25588661904</v>
+      </c>
+      <c r="CT20" s="24">
+        <f t="shared" si="4"/>
+        <v>311253.86868095002</v>
+      </c>
+      <c r="CU20" s="24">
+        <f t="shared" si="4"/>
+        <v>326816.56211499753</v>
+      </c>
+      <c r="CV20" s="24">
+        <f t="shared" si="4"/>
+        <v>343157.39022074745</v>
+      </c>
+      <c r="CW20" s="24">
+        <f t="shared" si="4"/>
+        <v>360315.25973178481</v>
+      </c>
+      <c r="CX20" s="24">
+        <f t="shared" si="4"/>
+        <v>378331.02271837409</v>
+      </c>
+      <c r="CY20" s="24">
+        <f t="shared" si="4"/>
+        <v>397247.5738542928</v>
+      </c>
+      <c r="CZ20" s="24">
+        <f t="shared" si="4"/>
+        <v>417109.95254700747</v>
+      </c>
+      <c r="DA20" s="24">
+        <f t="shared" si="4"/>
+        <v>437965.45017435786</v>
+      </c>
+      <c r="DB20" s="24">
+        <f t="shared" si="4"/>
+        <v>459863.72268307576</v>
+      </c>
+      <c r="DC20" s="24">
+        <f t="shared" si="4"/>
+        <v>482856.90881722956</v>
+      </c>
+      <c r="DD20" s="24">
+        <f t="shared" si="4"/>
+        <v>506999.75425809104</v>
+      </c>
+      <c r="DE20" s="24">
+        <f t="shared" si="4"/>
+        <v>532349.74197099556</v>
+      </c>
+      <c r="DF20" s="24">
+        <f t="shared" si="4"/>
+        <v>558967.2290695454</v>
+      </c>
+      <c r="DG20" s="24">
+        <f t="shared" si="4"/>
+        <v>586915.59052302269</v>
+      </c>
+      <c r="DH20" s="24">
+        <f t="shared" si="4"/>
+        <v>616261.37004917383</v>
+      </c>
+      <c r="DI20" s="24">
+        <f t="shared" si="4"/>
+        <v>647074.43855163257</v>
+      </c>
+      <c r="DJ20" s="24">
+        <f t="shared" si="4"/>
+        <v>679428.16047921428</v>
+      </c>
+      <c r="DK20" s="24">
+        <f t="shared" si="4"/>
+        <v>713399.56850317505</v>
+      </c>
+      <c r="DL20" s="24">
+        <f t="shared" si="4"/>
+        <v>749069.54692833382</v>
+      </c>
+      <c r="DM20" s="24">
+        <f t="shared" si="4"/>
+        <v>786523.0242747505</v>
+      </c>
+      <c r="DN20" s="24">
+        <f t="shared" si="4"/>
+        <v>825849.17548848805</v>
+      </c>
+      <c r="DO20" s="24">
+        <f t="shared" si="4"/>
+        <v>867141.63426291244</v>
+      </c>
+      <c r="DP20" s="24">
+        <f t="shared" si="4"/>
+        <v>910498.71597605816</v>
+      </c>
+      <c r="DQ20" s="24">
+        <f t="shared" si="4"/>
+        <v>956023.65177486115</v>
+      </c>
+      <c r="DR20" s="24">
+        <f t="shared" si="4"/>
+        <v>1003824.8343636042</v>
+      </c>
+      <c r="DS20" s="24">
+        <f t="shared" si="4"/>
+        <v>1054016.0760817844</v>
+      </c>
+      <c r="DT20" s="24">
+        <f t="shared" si="4"/>
+        <v>1106716.8798858738</v>
+      </c>
+      <c r="DU20" s="24">
+        <f t="shared" si="4"/>
+        <v>1162052.7238801676</v>
+      </c>
+      <c r="DV20" s="24">
+        <f t="shared" si="4"/>
+        <v>1220155.360074176</v>
+      </c>
+      <c r="DW20" s="24">
+        <f t="shared" si="4"/>
+        <v>1281163.1280778849</v>
+      </c>
+      <c r="DX20" s="24">
+        <f t="shared" si="4"/>
+        <v>1345221.2844817792</v>
+      </c>
+      <c r="DY20" s="24">
+        <f t="shared" si="4"/>
+        <v>1412482.3487058682</v>
+      </c>
+      <c r="DZ20" s="24">
+        <f t="shared" si="4"/>
+        <v>1483106.4661411617</v>
+      </c>
+      <c r="EA20" s="24">
+        <f t="shared" si="4"/>
+        <v>1557261.7894482198</v>
+      </c>
+      <c r="EB20" s="24">
+        <f t="shared" si="4"/>
+        <v>1635124.8789206308</v>
+      </c>
+      <c r="EC20" s="24">
+        <f t="shared" si="4"/>
+        <v>1716881.1228666625</v>
+      </c>
+      <c r="ED20" s="24">
+        <f t="shared" si="4"/>
+        <v>1802725.1790099957</v>
+      </c>
+      <c r="EE20" s="24">
+        <f t="shared" si="4"/>
+        <v>1892861.4379604955</v>
+      </c>
+      <c r="EF20" s="24">
+        <f t="shared" si="4"/>
+        <v>1987504.5098585202</v>
+      </c>
+      <c r="EG20" s="24">
+        <f t="shared" si="4"/>
+        <v>2086879.7353514463</v>
+      </c>
+      <c r="EH20" s="24">
+        <f t="shared" si="4"/>
+        <v>2191223.7221190189</v>
+      </c>
+      <c r="EI20" s="24">
+        <f t="shared" si="4"/>
+        <v>2300784.9082249701</v>
+      </c>
+      <c r="EJ20" s="24">
         <f t="shared" ref="EJ20:EV20" si="5">EI20*(1+$M$40)</f>
-        <v>13588514710.388718</v>
-      </c>
-      <c r="EK20" s="31">
+        <v>2415824.1536362185</v>
+      </c>
+      <c r="EK20" s="24">
         <f t="shared" si="5"/>
-        <v>15219136475.635365</v>
-      </c>
-      <c r="EL20" s="31">
+        <v>2536615.3613180295</v>
+      </c>
+      <c r="EL20" s="24">
         <f t="shared" si="5"/>
-        <v>17045432852.711611</v>
-      </c>
-      <c r="EM20" s="31">
+        <v>2663446.1293839309</v>
+      </c>
+      <c r="EM20" s="24">
         <f t="shared" si="5"/>
-        <v>19090884795.037006</v>
-      </c>
-      <c r="EN20" s="31">
+        <v>2796618.4358531274</v>
+      </c>
+      <c r="EN20" s="24">
         <f t="shared" si="5"/>
-        <v>21381790970.441448</v>
-      </c>
-      <c r="EO20" s="31">
+        <v>2936449.357645784</v>
+      </c>
+      <c r="EO20" s="24">
         <f t="shared" si="5"/>
-        <v>23947605886.894424</v>
-      </c>
-      <c r="EP20" s="31">
+        <v>3083271.8255280736</v>
+      </c>
+      <c r="EP20" s="24">
         <f t="shared" si="5"/>
-        <v>26821318593.321758</v>
-      </c>
-      <c r="EQ20" s="31">
+        <v>3237435.4168044776</v>
+      </c>
+      <c r="EQ20" s="24">
         <f t="shared" si="5"/>
-        <v>30039876824.52037</v>
-      </c>
-      <c r="ER20" s="31">
+        <v>3399307.1876447015</v>
+      </c>
+      <c r="ER20" s="24">
         <f t="shared" si="5"/>
-        <v>33644662043.462818</v>
-      </c>
-      <c r="ES20" s="31">
+        <v>3569272.5470269369</v>
+      </c>
+      <c r="ES20" s="24">
         <f t="shared" si="5"/>
-        <v>37682021488.67836</v>
-      </c>
-      <c r="ET20" s="31">
+        <v>3747736.1743782838</v>
+      </c>
+      <c r="ET20" s="24">
         <f t="shared" si="5"/>
-        <v>42203864067.319771</v>
-      </c>
-      <c r="EU20" s="31">
+        <v>3935122.983097198</v>
+      </c>
+      <c r="EU20" s="24">
         <f t="shared" si="5"/>
-        <v>47268327755.398148</v>
-      </c>
-      <c r="EV20" s="31">
+        <v>4131879.132252058</v>
+      </c>
+      <c r="EV20" s="24">
         <f t="shared" si="5"/>
-        <v>52940527086.045929</v>
+        <v>4338473.0888646608</v>
       </c>
     </row>
     <row r="21" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="18">
         <f t="shared" ref="C22:J22" si="6">C15/C25</f>
         <v>1.2369318181818181</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="18">
         <f t="shared" si="6"/>
         <v>1.0267045454545454</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="18">
         <f t="shared" si="6"/>
         <v>0.63579545454545461</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
         <f t="shared" si="6"/>
-        <v>-0.19772727272727272</v>
-      </c>
-      <c r="G22" s="24">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="G22" s="18">
         <f t="shared" si="6"/>
         <v>-2.1704545454545454</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="18">
         <f t="shared" si="6"/>
         <v>-2.1022727272727271</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="18">
         <f t="shared" si="6"/>
         <v>-6.8418079096045199</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="18">
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="18">
         <f t="shared" ref="C23:J23" si="7">C18/C25</f>
         <v>1.9090909090909092</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="18">
         <f t="shared" si="7"/>
         <v>1.7261363636363634</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="18">
         <f t="shared" si="7"/>
         <v>1.2721590909090912</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="18">
         <f t="shared" si="7"/>
-        <v>2.6812499999999999</v>
-      </c>
-      <c r="G23" s="24">
+        <v>3.0880681818181817</v>
+      </c>
+      <c r="G23" s="18">
         <f t="shared" si="7"/>
         <v>2.75</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="18">
         <f t="shared" si="7"/>
         <v>2.8011363636363638</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="18">
         <f t="shared" si="7"/>
         <v>3.5197740112994351</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="18">
         <f t="shared" si="7"/>
         <v>7.9333333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="18">
         <f>Main!I7/C15</f>
         <v>196.45383555351401</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="18">
         <f>Main!I7/D15</f>
         <v>236.67957941339239</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="18">
         <f>Main!I7/E15</f>
         <v>382.19839142091143</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="18">
         <f>Main!I7/F15</f>
-        <v>-1228.9655172413793</v>
-      </c>
-      <c r="G24" s="24">
+        <v>1162.1739130434783</v>
+      </c>
+      <c r="G24" s="18">
         <f>Main!I7/G15</f>
         <v>-111.95811518324608</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="18">
         <f>Main!I7/H15</f>
         <v>-115.58918918918918</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="18">
         <f>Main!I7/I15</f>
         <v>-35.316267547481424</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="18">
         <f>Main!I7/J15</f>
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="18">
         <v>176</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="18">
         <v>176</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="18">
         <v>176</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>176</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="18">
         <v>176</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="18">
         <v>176</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="18">
         <v>177</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="18">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="27">
         <f t="shared" ref="D27:J27" si="8">(D4-C4)/C4</f>
         <v>7.3106451243267964E-2</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="27">
         <f t="shared" si="8"/>
         <v>0.14255205552589428</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="27">
         <f t="shared" si="8"/>
         <v>1.0621495327102803</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="27">
         <f t="shared" si="8"/>
         <v>0.36777702243371857</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="27">
         <f t="shared" si="8"/>
         <v>0.56776010603048377</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="27">
         <f t="shared" si="8"/>
         <v>0.24590510408961216</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="27">
         <f t="shared" si="8"/>
         <v>0.19151823579304494</v>
       </c>
     </row>
     <row r="28" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="27">
         <f>(D18-C18)/C18</f>
         <v>-9.5833333333333465E-2</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="27">
         <f t="shared" ref="E28:J28" si="9">(E18-D18)/D18</f>
         <v>-0.26300197498354161</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="27">
         <f t="shared" si="9"/>
-        <v>1.1076373380973645</v>
-      </c>
-      <c r="G28" s="34">
+        <v>1.4274229566770875</v>
+      </c>
+      <c r="G28" s="27">
         <f t="shared" si="9"/>
-        <v>2.5641025641025689E-2</v>
-      </c>
-      <c r="H28" s="34">
+        <v>-0.10947562097516099</v>
+      </c>
+      <c r="H28" s="27">
         <f t="shared" si="9"/>
         <v>1.859504132231405E-2</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="27">
         <f t="shared" si="9"/>
         <v>0.26369168356997974</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="27">
         <f t="shared" si="9"/>
         <v>1.2921348314606742</v>
       </c>
     </row>
     <row r="29" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34">
+      <c r="B29" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27">
         <f>(H20-G20)/G20</f>
         <v>2.6288659793814433</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="27">
         <f>(I20-H20)/H20</f>
         <v>-0.52414772727272729</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="27">
         <f>(J20-I20)/I20</f>
         <v>1.808955223880597</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="27">
         <f t="shared" ref="C31:J31" si="10">C6/C4</f>
         <v>0.76773232496848853</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="27">
         <f t="shared" si="10"/>
         <v>0.74911906033101971</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="27">
         <f t="shared" si="10"/>
         <v>0.69616822429906544</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="27">
         <f t="shared" si="10"/>
         <v>0.65080444142306826</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="27">
         <f t="shared" si="10"/>
         <v>0.62524850894632211</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="27">
         <f t="shared" si="10"/>
         <v>0.49138750924653918</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="27">
         <f t="shared" si="10"/>
         <v>0.47396098388464802</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="27">
         <f t="shared" si="10"/>
         <v>0.4770785876993166</v>
       </c>
     </row>
     <row r="32" spans="1:756" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="27">
         <f t="shared" ref="C32:J32" si="11">C10/C4</f>
         <v>0.1432336427180016</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="27">
         <f t="shared" si="11"/>
         <v>0.10923651895355045</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="27">
         <f t="shared" si="11"/>
         <v>7.0046728971962624E-2</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="27">
         <f t="shared" si="11"/>
         <v>2.3340131429866306E-2</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="27">
         <f t="shared" si="11"/>
         <v>-1.0437375745526839E-2</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="27">
         <f t="shared" si="11"/>
         <v>-9.2993765190742886E-3</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="27">
         <f t="shared" si="11"/>
         <v>-4.6564885496183206E-2</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="27">
         <f t="shared" si="11"/>
         <v>6.1859339407744872E-2</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="27">
         <f t="shared" ref="C33:J33" si="12">C15/C4</f>
         <v>0.12472785607883578</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="27">
         <f t="shared" si="12"/>
         <v>9.6476241324079018E-2</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="27">
         <f t="shared" si="12"/>
         <v>5.2289719626168234E-2</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="27">
         <f t="shared" si="12"/>
-        <v>-7.8857919782460897E-3</v>
-      </c>
-      <c r="G33" s="34">
+        <v>8.3389984137774743E-3</v>
+      </c>
+      <c r="G33" s="27">
         <f t="shared" si="12"/>
         <v>-6.328694499668655E-2</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="27">
         <f t="shared" si="12"/>
         <v>-3.9099651273380533E-2</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="27">
         <f t="shared" si="12"/>
         <v>-0.10271416454622562</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="27">
         <f t="shared" si="12"/>
         <v>1.1531890660592256E-2</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="27">
         <f t="shared" ref="C34:J34" si="13">C18/C4</f>
         <v>0.19250601581299415</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="27">
         <f t="shared" si="13"/>
         <v>0.16219967965830218</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="27">
         <f t="shared" si="13"/>
         <v>0.10462616822429908</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="27">
         <f t="shared" si="13"/>
-        <v>0.10693405846363017</v>
-      </c>
-      <c r="G34" s="34">
+        <v>0.12315884885565374</v>
+      </c>
+      <c r="G34" s="27">
         <f t="shared" si="13"/>
         <v>8.0185553346587141E-2</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="27">
         <f t="shared" si="13"/>
         <v>5.2097643453450283E-2</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="27">
         <f t="shared" si="13"/>
         <v>5.2841391009329941E-2</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="27">
         <f t="shared" si="13"/>
         <v>0.10165148063781321</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27">
         <f>(F3-E3)/E3</f>
         <v>0.18518518518518517</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="27">
         <f>(G3-F3)/F3</f>
         <v>0.1875</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="27">
         <f>(H3-G3)/G3</f>
         <v>0.34802631578947368</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="27">
         <f>(I3-H3)/H3</f>
         <v>0.20302586627623231</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="27">
         <f>(J3-I3)/I3</f>
         <v>0.12762677484787019</v>
       </c>
     </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F38" s="27"/>
+    </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L39" s="25" t="s">
+      <c r="F39" s="27"/>
+      <c r="L39" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="28">
+        <f>WACC!C3</f>
+        <v>0.10003062670713202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F40" s="27"/>
+      <c r="L40" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F41" s="27"/>
+      <c r="L41" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="M39" s="35">
-        <f>WACC!C3</f>
-        <v>0.16608090288315625</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L40" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="35">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L41" s="25" t="s">
+      <c r="M41" s="18">
+        <f>NPV(M39, G20:EV20)</f>
+        <v>56035.582578733178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="M41" s="24">
-        <f>NPV(M39, G20:EV20)</f>
-        <v>65290.166162172354</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L42" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="24">
+      <c r="M42" s="18">
         <f>M41/Main!I5</f>
-        <v>268.68381136696445</v>
+        <v>230.59910526227645</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L44" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="M44" s="35">
-        <f>Main!I5/M42</f>
-        <v>0.90440878727938745</v>
+      <c r="L44" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M44" s="27">
+        <f>(M42-Main!I5)/ABS(Main!I5)</f>
+        <v>-5.103248863260719E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5107,7 +5167,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5139,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5350,7 +5410,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="10">
         <v>15</v>
@@ -5461,147 +5521,149 @@
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="32"/>
+    <col min="2" max="2" width="18.25" style="32" customWidth="1"/>
+    <col min="3" max="7" width="10.625" style="32"/>
+    <col min="8" max="8" width="10.625" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="10.625" style="32"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="31">
+        <f>((Main!I7/(Main!I7+C11)*C5)+(C11/(C11+Main!I7)*C10*(1-C13)))</f>
+        <v>0.10003062670713202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="22">
-        <f>((Main!I7/(Main!I7+C11)*C5)+(C11/(C11+Main!I7)*C10*(1-C13)))</f>
-        <v>0.16608090288315625</v>
-      </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+      <c r="C5" s="33">
+        <f>C6+C7*(C8-C6)</f>
+        <v>0.11498</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="18">
-        <f>C6+C7*(C8-C6)</f>
-        <v>0.19639999999999996</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H7" s="21" t="s">
+      <c r="C8" s="33">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="18">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="C10" s="33">
         <f>C12/C11</f>
         <v>4.2102090032154343E-2</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="35">
         <f>9882+70</f>
         <v>9952</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="H14" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="H15" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="21">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="H14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="H15" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="H16" s="32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="H16" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="H17" s="32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="H17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="H18" s="32" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="H18" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5614,40 +5676,42 @@
   <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="9" style="37"/>
+    <col min="2" max="2" width="22" style="37" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2">
+      <c r="C2" s="37">
         <v>2018</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="37">
         <v>2019</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="37">
         <v>2020</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="37">
         <v>2021</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="37">
         <v>2022</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="37">
         <v>2023</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="37">
         <v>2024</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="16">
         <v>194</v>
@@ -5662,78 +5726,78 @@
         <v>941</v>
       </c>
       <c r="L3" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="37">
+        <v>553</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1163</v>
+      </c>
+      <c r="H4" s="37">
+        <v>937</v>
+      </c>
+      <c r="I4" s="37">
+        <v>1602</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="F4">
-        <v>553</v>
-      </c>
-      <c r="G4">
-        <v>1163</v>
-      </c>
-      <c r="H4">
-        <v>937</v>
-      </c>
-      <c r="I4">
-        <v>1602</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="F5" s="37">
+        <v>122</v>
+      </c>
+      <c r="G5" s="37">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="H5" s="37">
+        <v>159</v>
+      </c>
+      <c r="I5" s="37">
+        <v>144</v>
+      </c>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="37">
+        <v>85</v>
+      </c>
+      <c r="G6" s="37">
+        <v>100</v>
+      </c>
+      <c r="H6" s="37">
+        <v>175</v>
+      </c>
+      <c r="I6" s="37">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F5">
-        <v>122</v>
-      </c>
-      <c r="G5">
+      <c r="F7" s="37">
         <v>152</v>
       </c>
-      <c r="H5">
-        <v>159</v>
-      </c>
-      <c r="I5">
-        <v>144</v>
-      </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6">
-        <v>85</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>175</v>
-      </c>
-      <c r="I6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7">
-        <v>152</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="37">
         <v>207</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="37">
         <v>268</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="37">
         <v>381</v>
       </c>
     </row>
